--- a/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +582,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,43 +653,43 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.254904162106821</v>
+        <v>1.153355517735435</v>
       </c>
       <c r="D3">
         <v>1.041819150097932</v>
       </c>
       <c r="E3">
-        <v>1.153355517735436</v>
+        <v>1.254904162103836</v>
       </c>
       <c r="F3">
+        <v>1.041819150097932</v>
+      </c>
+      <c r="G3">
+        <v>1.118992531828373</v>
+      </c>
+      <c r="H3">
+        <v>1.042864892498748</v>
+      </c>
+      <c r="I3">
+        <v>0.9517103594970802</v>
+      </c>
+      <c r="J3">
         <v>1.254904162106821</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>1.254904162106821</v>
+      </c>
+      <c r="L3">
         <v>1.153853489156929</v>
       </c>
-      <c r="H3">
+      <c r="M3">
         <v>0.9618382911758905</v>
-      </c>
-      <c r="I3">
-        <v>1.254904162103836</v>
-      </c>
-      <c r="J3">
-        <v>1.041819150097932</v>
-      </c>
-      <c r="K3">
-        <v>1.118992531828373</v>
-      </c>
-      <c r="L3">
-        <v>1.042864892498748</v>
-      </c>
-      <c r="M3">
-        <v>0.9517103594970802</v>
       </c>
       <c r="N3">
         <v>1.254904162106821</v>
       </c>
       <c r="O3">
-        <v>1.153355517735436</v>
+        <v>1.153355517735435</v>
       </c>
       <c r="P3">
         <v>1.097587333916684</v>
@@ -712,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.599407088509199</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="D4">
         <v>1.196759479870286</v>
       </c>
       <c r="E4">
-        <v>1.43418806697604</v>
+        <v>1.599407088506422</v>
       </c>
       <c r="F4">
+        <v>1.196759479870286</v>
+      </c>
+      <c r="G4">
+        <v>1.288261842722532</v>
+      </c>
+      <c r="H4">
+        <v>1.148450278816848</v>
+      </c>
+      <c r="I4">
+        <v>1.023693016475001</v>
+      </c>
+      <c r="J4">
         <v>1.599407088509199</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>1.599407088509199</v>
+      </c>
+      <c r="L4">
         <v>1.306292807604864</v>
       </c>
-      <c r="H4">
+      <c r="M4">
         <v>1.089266811533476</v>
-      </c>
-      <c r="I4">
-        <v>1.599407088506422</v>
-      </c>
-      <c r="J4">
-        <v>1.196759479870286</v>
-      </c>
-      <c r="K4">
-        <v>1.288261842722532</v>
-      </c>
-      <c r="L4">
-        <v>1.148450278816848</v>
-      </c>
-      <c r="M4">
-        <v>1.023693016475001</v>
       </c>
       <c r="N4">
         <v>1.599407088509199</v>
@@ -783,49 +795,49 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.010396191470393</v>
+        <v>3.780982619823987</v>
       </c>
       <c r="D5">
         <v>0.3508249885568288</v>
       </c>
       <c r="E5">
-        <v>3.780982619823988</v>
+        <v>3.010396191469765</v>
       </c>
       <c r="F5">
+        <v>0.3508249885568288</v>
+      </c>
+      <c r="G5">
+        <v>1.9577941434352</v>
+      </c>
+      <c r="H5">
+        <v>1.163974710788876</v>
+      </c>
+      <c r="I5">
+        <v>0.7564134369225249</v>
+      </c>
+      <c r="J5">
         <v>3.010396191470393</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>3.010396191470393</v>
+      </c>
+      <c r="L5">
         <v>3.131647676989551</v>
       </c>
-      <c r="H5">
+      <c r="M5">
         <v>1.252113964236527</v>
-      </c>
-      <c r="I5">
-        <v>3.010396191469765</v>
-      </c>
-      <c r="J5">
-        <v>0.3508249885568288</v>
-      </c>
-      <c r="K5">
-        <v>1.9577941434352</v>
-      </c>
-      <c r="L5">
-        <v>1.163974710788876</v>
-      </c>
-      <c r="M5">
-        <v>0.7564134369225249</v>
       </c>
       <c r="N5">
         <v>3.010396191470393</v>
       </c>
       <c r="O5">
-        <v>3.780982619823988</v>
+        <v>3.780982619823987</v>
       </c>
       <c r="P5">
         <v>2.065903804190408</v>
       </c>
       <c r="Q5">
-        <v>3.45631514840677</v>
+        <v>3.456315148406769</v>
       </c>
       <c r="R5">
         <v>2.380734599950403</v>
@@ -854,46 +866,46 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.650012048200413</v>
+        <v>3.988194634652569</v>
       </c>
       <c r="D6">
         <v>0.2380161568662652</v>
       </c>
       <c r="E6">
-        <v>3.98819463465257</v>
+        <v>8.650012048200418</v>
       </c>
       <c r="F6">
+        <v>0.2380161568662652</v>
+      </c>
+      <c r="G6">
+        <v>0.4103913078988913</v>
+      </c>
+      <c r="H6">
+        <v>1.036257271285743</v>
+      </c>
+      <c r="I6">
+        <v>1.420603880617929</v>
+      </c>
+      <c r="J6">
         <v>8.650012048200413</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>8.650012048200413</v>
+      </c>
+      <c r="L6">
         <v>3.862333348723936</v>
       </c>
-      <c r="H6">
+      <c r="M6">
         <v>1.836078142395709</v>
-      </c>
-      <c r="I6">
-        <v>8.650012048200418</v>
-      </c>
-      <c r="J6">
-        <v>0.2380161568662652</v>
-      </c>
-      <c r="K6">
-        <v>0.4103913078988913</v>
-      </c>
-      <c r="L6">
-        <v>1.036257271285743</v>
-      </c>
-      <c r="M6">
-        <v>1.420603880617929</v>
       </c>
       <c r="N6">
         <v>8.650012048200413</v>
       </c>
       <c r="O6">
-        <v>3.98819463465257</v>
+        <v>3.988194634652569</v>
       </c>
       <c r="P6">
-        <v>2.113105395759418</v>
+        <v>2.113105395759417</v>
       </c>
       <c r="Q6">
         <v>3.925263991688253</v>
@@ -905,7 +917,7 @@
         <v>2.696181380080924</v>
       </c>
       <c r="T6">
-        <v>4.292074279906417</v>
+        <v>4.292074279906416</v>
       </c>
       <c r="U6">
         <v>4.184639047110796</v>
@@ -925,40 +937,40 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.038643216989285</v>
+        <v>1.033579402823682</v>
       </c>
       <c r="D7">
         <v>1.037504707033165</v>
       </c>
       <c r="E7">
-        <v>1.033579402823682</v>
+        <v>1.038643216985685</v>
       </c>
       <c r="F7">
-        <v>1.038643216989285</v>
+        <v>1.037504707033165</v>
       </c>
       <c r="G7">
+        <v>1.014634635624576</v>
+      </c>
+      <c r="H7">
+        <v>1.053455952594389</v>
+      </c>
+      <c r="I7">
+        <v>1.000169878698252</v>
+      </c>
+      <c r="J7">
+        <v>1.038643216989286</v>
+      </c>
+      <c r="K7">
+        <v>1.038643216989286</v>
+      </c>
+      <c r="L7">
         <v>1.013282162404102</v>
       </c>
-      <c r="H7">
+      <c r="M7">
         <v>1.003412188668007</v>
       </c>
-      <c r="I7">
-        <v>1.038643216985684</v>
-      </c>
-      <c r="J7">
-        <v>1.037504707033165</v>
-      </c>
-      <c r="K7">
-        <v>1.014634635624574</v>
-      </c>
-      <c r="L7">
-        <v>1.053455952594389</v>
-      </c>
-      <c r="M7">
-        <v>1.000169878698254</v>
-      </c>
       <c r="N7">
-        <v>1.038643216989285</v>
+        <v>1.038643216989286</v>
       </c>
       <c r="O7">
         <v>1.033579402823682</v>
@@ -970,22 +982,22 @@
         <v>1.023430782613892</v>
       </c>
       <c r="R7">
-        <v>1.036575775615377</v>
+        <v>1.036575775615378</v>
       </c>
       <c r="S7">
         <v>1.02812209075365</v>
       </c>
       <c r="T7">
-        <v>1.036575775615377</v>
+        <v>1.036575775615378</v>
       </c>
       <c r="U7">
-        <v>1.030752372312558</v>
+        <v>1.030752372312559</v>
       </c>
       <c r="V7">
         <v>1.032330541247904</v>
       </c>
       <c r="W7">
-        <v>1.024335268104432</v>
+        <v>1.024335268104433</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1008,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.106383251901695</v>
+        <v>1.014517744592031</v>
       </c>
       <c r="D8">
-        <v>1.051785790846772</v>
+        <v>1.051785790846776</v>
       </c>
       <c r="E8">
-        <v>1.014517744592033</v>
+        <v>1.106383251898062</v>
       </c>
       <c r="F8">
-        <v>1.106383251901695</v>
+        <v>1.051785790846776</v>
       </c>
       <c r="G8">
-        <v>1.019328635568354</v>
+        <v>1.006392477017235</v>
       </c>
       <c r="H8">
-        <v>0.994709732316416</v>
+        <v>1.110347579553943</v>
       </c>
       <c r="I8">
-        <v>1.106383251898063</v>
+        <v>0.9882826182943537</v>
       </c>
       <c r="J8">
-        <v>1.051785790846772</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="K8">
-        <v>1.006392477017238</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="L8">
-        <v>1.110347579553933</v>
+        <v>1.019328635568353</v>
       </c>
       <c r="M8">
-        <v>0.9882826182943537</v>
+        <v>0.9947097323164182</v>
       </c>
       <c r="N8">
-        <v>1.106383251901695</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="O8">
-        <v>1.014517744592033</v>
+        <v>1.014517744592031</v>
       </c>
       <c r="P8">
-        <v>1.033151767719402</v>
+        <v>1.033151767719403</v>
       </c>
       <c r="Q8">
-        <v>1.016923190080193</v>
+        <v>1.016923190080192</v>
       </c>
       <c r="R8">
-        <v>1.057562262446833</v>
+        <v>1.057562262446834</v>
       </c>
       <c r="S8">
-        <v>1.028544057002386</v>
+        <v>1.028544057002387</v>
       </c>
       <c r="T8">
-        <v>1.057562262446833</v>
+        <v>1.057562262446834</v>
       </c>
       <c r="U8">
-        <v>1.048003855727213</v>
+        <v>1.048003855727214</v>
       </c>
       <c r="V8">
         <v>1.05967973496211</v>
       </c>
       <c r="W8">
-        <v>1.036468478761349</v>
+        <v>1.036468478761351</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,43 +1079,43 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.396048572256616</v>
+        <v>1.046379338131895</v>
       </c>
       <c r="D9">
         <v>1.006092483108016</v>
       </c>
       <c r="E9">
-        <v>1.046379338131896</v>
+        <v>1.396048572253197</v>
       </c>
       <c r="F9">
+        <v>1.006092483108016</v>
+      </c>
+      <c r="G9">
+        <v>0.9578357485896015</v>
+      </c>
+      <c r="H9">
+        <v>1.109549942812568</v>
+      </c>
+      <c r="I9">
+        <v>0.970205382835066</v>
+      </c>
+      <c r="J9">
         <v>1.396048572256616</v>
       </c>
-      <c r="G9">
-        <v>1.007555579547357</v>
-      </c>
-      <c r="H9">
+      <c r="K9">
+        <v>1.396048572256616</v>
+      </c>
+      <c r="L9">
+        <v>1.007555579547358</v>
+      </c>
+      <c r="M9">
         <v>0.9928285939472083</v>
-      </c>
-      <c r="I9">
-        <v>1.396048572253197</v>
-      </c>
-      <c r="J9">
-        <v>1.006092483108016</v>
-      </c>
-      <c r="K9">
-        <v>0.9578357485896019</v>
-      </c>
-      <c r="L9">
-        <v>1.109549942812568</v>
-      </c>
-      <c r="M9">
-        <v>0.970205382835066</v>
       </c>
       <c r="N9">
         <v>1.396048572256616</v>
       </c>
       <c r="O9">
-        <v>1.046379338131896</v>
+        <v>1.046379338131895</v>
       </c>
       <c r="P9">
         <v>1.026235910619956</v>
@@ -1138,46 +1150,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.562684485971091</v>
+        <v>0.9411510820809278</v>
       </c>
       <c r="D10">
         <v>0.9645980012888387</v>
       </c>
       <c r="E10">
-        <v>0.9411510820809279</v>
+        <v>1.562684485968942</v>
       </c>
       <c r="F10">
+        <v>0.9645980012888387</v>
+      </c>
+      <c r="G10">
+        <v>1.082148445465822</v>
+      </c>
+      <c r="H10">
+        <v>1.250657677381048</v>
+      </c>
+      <c r="I10">
+        <v>0.9597362077005038</v>
+      </c>
+      <c r="J10">
         <v>1.562684485971091</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>1.562684485971091</v>
+      </c>
+      <c r="L10">
         <v>1.210266438869656</v>
       </c>
-      <c r="H10">
+      <c r="M10">
         <v>1.038656474813067</v>
-      </c>
-      <c r="I10">
-        <v>1.562684485968942</v>
-      </c>
-      <c r="J10">
-        <v>0.9645980012888387</v>
-      </c>
-      <c r="K10">
-        <v>1.082148445465822</v>
-      </c>
-      <c r="L10">
-        <v>1.250657677381048</v>
-      </c>
-      <c r="M10">
-        <v>0.9597362077005038</v>
       </c>
       <c r="N10">
         <v>1.562684485971091</v>
       </c>
       <c r="O10">
-        <v>0.9411510820809279</v>
+        <v>0.9411510820809278</v>
       </c>
       <c r="P10">
-        <v>0.9528745416848833</v>
+        <v>0.9528745416848832</v>
       </c>
       <c r="Q10">
         <v>1.075708760475292</v>
@@ -1209,58 +1221,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.831665231323008</v>
+        <v>1.008313155317181</v>
       </c>
       <c r="D11">
         <v>1.87261280206042</v>
       </c>
       <c r="E11">
-        <v>1.008313155317183</v>
+        <v>2.831665231313699</v>
       </c>
       <c r="F11">
+        <v>1.87261280206042</v>
+      </c>
+      <c r="G11">
+        <v>1.04107888526024</v>
+      </c>
+      <c r="H11">
+        <v>1.457311469306154</v>
+      </c>
+      <c r="I11">
+        <v>1.256881746130271</v>
+      </c>
+      <c r="J11">
         <v>2.831665231323008</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>2.831665231323008</v>
+      </c>
+      <c r="L11">
         <v>1.258647532121587</v>
       </c>
-      <c r="H11">
+      <c r="M11">
         <v>0.9275305319680234</v>
-      </c>
-      <c r="I11">
-        <v>2.831665231313699</v>
-      </c>
-      <c r="J11">
-        <v>1.87261280206042</v>
-      </c>
-      <c r="K11">
-        <v>1.04107888526024</v>
-      </c>
-      <c r="L11">
-        <v>1.457311469306155</v>
-      </c>
-      <c r="M11">
-        <v>1.256881746130271</v>
       </c>
       <c r="N11">
         <v>2.831665231323008</v>
       </c>
       <c r="O11">
-        <v>1.008313155317183</v>
+        <v>1.008313155317181</v>
       </c>
       <c r="P11">
-        <v>1.440462978688802</v>
+        <v>1.440462978688801</v>
       </c>
       <c r="Q11">
-        <v>1.133480343719385</v>
+        <v>1.133480343719384</v>
       </c>
       <c r="R11">
-        <v>1.904197062900204</v>
+        <v>1.904197062900203</v>
       </c>
       <c r="S11">
         <v>1.379857829833063</v>
       </c>
       <c r="T11">
-        <v>1.904197062900204</v>
+        <v>1.904197062900203</v>
       </c>
       <c r="U11">
         <v>1.742809680205549</v>
@@ -1269,7 +1281,7 @@
         <v>1.960580790429041</v>
       </c>
       <c r="W11">
-        <v>1.456755169185861</v>
+        <v>1.45675516918586</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1292,67 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.0002878808757884235</v>
+      </c>
+      <c r="D12">
+        <v>0.0005321790215116628</v>
+      </c>
+      <c r="E12">
         <v>-0.001558648893322354</v>
       </c>
-      <c r="D12">
-        <v>0.0005321790215116676</v>
-      </c>
-      <c r="E12">
-        <v>0.0002878808757884269</v>
-      </c>
       <c r="F12">
+        <v>0.0005321790215116628</v>
+      </c>
+      <c r="G12">
+        <v>1.918477202137383</v>
+      </c>
+      <c r="H12">
+        <v>1.399331837347491</v>
+      </c>
+      <c r="I12">
+        <v>2.508918383184844</v>
+      </c>
+      <c r="J12">
         <v>-0.001558648893322354</v>
       </c>
-      <c r="G12">
-        <v>1.61240304437519</v>
-      </c>
-      <c r="H12">
-        <v>0.1412820554661314</v>
-      </c>
-      <c r="I12">
+      <c r="K12">
         <v>-0.001558648893322354</v>
       </c>
-      <c r="J12">
-        <v>0.0005321790215116676</v>
-      </c>
-      <c r="K12">
-        <v>1.918477202137381</v>
-      </c>
       <c r="L12">
-        <v>1.39933183734749</v>
+        <v>1.612403044375189</v>
       </c>
       <c r="M12">
-        <v>2.508918383184844</v>
+        <v>0.1412820554661308</v>
       </c>
       <c r="N12">
         <v>-0.001558648893322354</v>
       </c>
       <c r="O12">
-        <v>0.0002878808757884269</v>
+        <v>0.0002878808757884235</v>
       </c>
       <c r="P12">
-        <v>0.0004100299486500473</v>
+        <v>0.0004100299486500432</v>
       </c>
       <c r="Q12">
-        <v>0.8063454626254893</v>
+        <v>0.8063454626254888</v>
       </c>
       <c r="R12">
-        <v>-0.0002461963320074199</v>
+        <v>-0.0002461963320074224</v>
       </c>
       <c r="S12">
-        <v>0.5377410347574968</v>
+        <v>0.5377410347574964</v>
       </c>
       <c r="T12">
-        <v>-0.0002461963320074198</v>
+        <v>-0.0002461963320074224</v>
       </c>
       <c r="U12">
-        <v>0.402916113844792</v>
+        <v>0.4029161138447917</v>
       </c>
       <c r="V12">
-        <v>0.3220211612971691</v>
+        <v>0.3220211612971689</v>
       </c>
       <c r="W12">
-        <v>0.9474592416893768</v>
+        <v>0.947459241689377</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,64 +1363,64 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.15536555185404</v>
+        <v>3.102638498111983</v>
       </c>
       <c r="D13">
-        <v>4.266832287015164</v>
+        <v>4.26683228701516</v>
       </c>
       <c r="E13">
-        <v>3.102638498111987</v>
+        <v>3.155365551851069</v>
       </c>
       <c r="F13">
-        <v>3.15536555185404</v>
+        <v>4.26683228701516</v>
       </c>
       <c r="G13">
+        <v>1.310737099070905</v>
+      </c>
+      <c r="H13">
+        <v>0.02000191212358884</v>
+      </c>
+      <c r="I13">
+        <v>1.059743902438571</v>
+      </c>
+      <c r="J13">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="K13">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="L13">
         <v>0.4520445183199169</v>
       </c>
-      <c r="H13">
-        <v>0.8681926278170153</v>
-      </c>
-      <c r="I13">
-        <v>3.155365551851062</v>
-      </c>
-      <c r="J13">
-        <v>4.266832287015164</v>
-      </c>
-      <c r="K13">
-        <v>1.310737099070905</v>
-      </c>
-      <c r="L13">
-        <v>0.02000191212358884</v>
-      </c>
       <c r="M13">
-        <v>1.059743902438569</v>
+        <v>0.8681926278170161</v>
       </c>
       <c r="N13">
-        <v>3.15536555185404</v>
+        <v>3.155365551854046</v>
       </c>
       <c r="O13">
-        <v>3.102638498111987</v>
+        <v>3.102638498111983</v>
       </c>
       <c r="P13">
-        <v>3.684735392563575</v>
+        <v>3.684735392563572</v>
       </c>
       <c r="Q13">
-        <v>1.777341508215952</v>
+        <v>1.77734150821595</v>
       </c>
       <c r="R13">
-        <v>3.508278778993731</v>
+        <v>3.50827877899373</v>
       </c>
       <c r="S13">
-        <v>2.607171767815689</v>
+        <v>2.607171767815687</v>
       </c>
       <c r="T13">
-        <v>3.508278778993731</v>
+        <v>3.508278778993729</v>
       </c>
       <c r="U13">
-        <v>2.744220213825277</v>
+        <v>2.744220213825276</v>
       </c>
       <c r="V13">
-        <v>2.82644928143103</v>
+        <v>2.826449281431031</v>
       </c>
       <c r="W13">
         <v>1.779444549593898</v>
@@ -1422,67 +1434,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0004101383104618402</v>
+        <v>0.2934870853603606</v>
       </c>
       <c r="D14">
-        <v>-0.0004954784549887901</v>
+        <v>-0.0004954784549887927</v>
       </c>
       <c r="E14">
-        <v>0.2934870853603602</v>
+        <v>-0.0004101383101088951</v>
       </c>
       <c r="F14">
-        <v>-0.0004101383104618402</v>
+        <v>-0.0004954784549887927</v>
       </c>
       <c r="G14">
-        <v>0.00222528017148682</v>
+        <v>0.9931425163368653</v>
       </c>
       <c r="H14">
-        <v>2.290525657679573</v>
+        <v>0.001281512401697156</v>
       </c>
       <c r="I14">
-        <v>-0.0004101383101088975</v>
+        <v>-0.0009637956398396606</v>
       </c>
       <c r="J14">
-        <v>-0.0004954784549887901</v>
+        <v>-0.0004101383104618379</v>
       </c>
       <c r="K14">
-        <v>0.9931425163368659</v>
+        <v>-0.0004101383104618379</v>
       </c>
       <c r="L14">
-        <v>0.001281512401697157</v>
+        <v>0.002225280171486818</v>
       </c>
       <c r="M14">
-        <v>-0.0009637956398396614</v>
+        <v>2.290525657679574</v>
       </c>
       <c r="N14">
-        <v>-0.0004101383104618402</v>
+        <v>-0.0004101383104618379</v>
       </c>
       <c r="O14">
-        <v>0.2934870853603602</v>
+        <v>0.2934870853603606</v>
       </c>
       <c r="P14">
-        <v>0.1464958034526857</v>
+        <v>0.1464958034526859</v>
       </c>
       <c r="Q14">
-        <v>0.1478561827659235</v>
+        <v>0.1478561827659237</v>
       </c>
       <c r="R14">
-        <v>0.09752715619830321</v>
+        <v>0.09752715619830331</v>
       </c>
       <c r="S14">
-        <v>0.09840562902561943</v>
+        <v>0.09840562902561951</v>
       </c>
       <c r="T14">
-        <v>0.0975271561983032</v>
+        <v>0.09752715619830331</v>
       </c>
       <c r="U14">
-        <v>0.0737016871915991</v>
+        <v>0.07370168719159918</v>
       </c>
       <c r="V14">
-        <v>0.05887932209118692</v>
+        <v>0.05887932209118698</v>
       </c>
       <c r="W14">
-        <v>0.4473490799430865</v>
+        <v>0.4473490799430866</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,46 +1505,46 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>-0.001287746089728106</v>
+      </c>
+      <c r="D15">
+        <v>0.001239198148660105</v>
+      </c>
+      <c r="E15">
         <v>0.9007447313079856</v>
       </c>
-      <c r="D15">
-        <v>0.001239198148660106</v>
-      </c>
-      <c r="E15">
-        <v>-0.001287746089728107</v>
-      </c>
       <c r="F15">
+        <v>0.001239198148660105</v>
+      </c>
+      <c r="G15">
+        <v>0.431775385780092</v>
+      </c>
+      <c r="H15">
+        <v>2.673485078867889</v>
+      </c>
+      <c r="I15">
+        <v>0.3076092867992351</v>
+      </c>
+      <c r="J15">
         <v>0.9007447313079856</v>
       </c>
-      <c r="G15">
+      <c r="K15">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="L15">
         <v>1.985218897570126</v>
       </c>
-      <c r="H15">
-        <v>0.007078081047542489</v>
-      </c>
-      <c r="I15">
-        <v>0.9007447313079856</v>
-      </c>
-      <c r="J15">
-        <v>0.001239198148660106</v>
-      </c>
-      <c r="K15">
-        <v>0.4317753857800922</v>
-      </c>
-      <c r="L15">
-        <v>2.67348507886789</v>
-      </c>
       <c r="M15">
-        <v>0.3076092867992351</v>
+        <v>0.007078081047542492</v>
       </c>
       <c r="N15">
         <v>0.9007447313079856</v>
       </c>
       <c r="O15">
-        <v>-0.001287746089728107</v>
+        <v>-0.001287746089728106</v>
       </c>
       <c r="P15">
-        <v>-2.427397053400061E-05</v>
+        <v>-2.427397053400072E-05</v>
       </c>
       <c r="Q15">
         <v>0.9919655757401992</v>
@@ -1553,7 +1565,7 @@
         <v>0.7573319624490059</v>
       </c>
       <c r="W15">
-        <v>0.7882328641789755</v>
+        <v>0.7882328641789753</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9743662359127727</v>
+        <v>3.074889301342492</v>
       </c>
       <c r="D16">
-        <v>1.060647262895905</v>
+        <v>0.2170055124597387</v>
       </c>
       <c r="E16">
-        <v>1.056096556526294</v>
+        <v>4.535695019892656</v>
       </c>
       <c r="F16">
-        <v>0.9743662359127727</v>
+        <v>0.2170055124597387</v>
       </c>
       <c r="G16">
-        <v>0.9935902146781732</v>
+        <v>2.99995749511987</v>
       </c>
       <c r="H16">
-        <v>1.006423895015883</v>
+        <v>0.6738583675267908</v>
       </c>
       <c r="I16">
-        <v>0.9743662359092208</v>
+        <v>0.2206199707137725</v>
       </c>
       <c r="J16">
-        <v>1.060647262895905</v>
+        <v>4.535695019893368</v>
       </c>
       <c r="K16">
-        <v>1.010426682949219</v>
+        <v>4.535695019893368</v>
       </c>
       <c r="L16">
-        <v>1.045170445792015</v>
+        <v>2.911051737394021</v>
       </c>
       <c r="M16">
-        <v>1.005714051588627</v>
+        <v>0.233583928138688</v>
       </c>
       <c r="N16">
-        <v>0.9743662359127727</v>
+        <v>4.535695019893368</v>
       </c>
       <c r="O16">
-        <v>1.056096556526294</v>
+        <v>3.074889301342492</v>
       </c>
       <c r="P16">
-        <v>1.058371909711099</v>
+        <v>1.645947406901115</v>
       </c>
       <c r="Q16">
-        <v>1.024843385602233</v>
+        <v>2.992970519368256</v>
       </c>
       <c r="R16">
-        <v>1.03037001844499</v>
+        <v>2.609196611231866</v>
       </c>
       <c r="S16">
-        <v>1.036778011366791</v>
+        <v>2.06764885039875</v>
       </c>
       <c r="T16">
-        <v>1.03037001844499</v>
+        <v>2.609196611231866</v>
       </c>
       <c r="U16">
-        <v>1.021175067503286</v>
+        <v>2.684660392772405</v>
       </c>
       <c r="V16">
-        <v>1.011813301185183</v>
+        <v>3.054867318196597</v>
       </c>
       <c r="W16">
-        <v>1.019054418169861</v>
+        <v>1.858332666573593</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.085504327335733</v>
+        <v>2.35783966512614</v>
       </c>
       <c r="D17">
-        <v>1.056684527317156</v>
+        <v>0.4334392378565549</v>
       </c>
       <c r="E17">
-        <v>0.949575621965895</v>
+        <v>3.424894133462255</v>
       </c>
       <c r="F17">
-        <v>1.085504327335733</v>
+        <v>0.4334392378565549</v>
       </c>
       <c r="G17">
-        <v>1.066087065374459</v>
+        <v>2.298911688340438</v>
       </c>
       <c r="H17">
-        <v>1.035080524254573</v>
+        <v>1.378676357760988</v>
       </c>
       <c r="I17">
-        <v>1.085504327332244</v>
+        <v>0.4380299483471544</v>
       </c>
       <c r="J17">
-        <v>1.056684527317156</v>
+        <v>3.424894133463676</v>
       </c>
       <c r="K17">
-        <v>1.00639030236849</v>
+        <v>3.424894133463676</v>
       </c>
       <c r="L17">
-        <v>1.042096977754618</v>
+        <v>2.28990420685752</v>
       </c>
       <c r="M17">
-        <v>0.9860907082035888</v>
+        <v>0.4688200548184876</v>
       </c>
       <c r="N17">
-        <v>1.085504327335733</v>
+        <v>3.424894133463676</v>
       </c>
       <c r="O17">
-        <v>0.949575621965895</v>
+        <v>2.35783966512614</v>
       </c>
       <c r="P17">
-        <v>1.003130074641526</v>
+        <v>1.395639451491347</v>
       </c>
       <c r="Q17">
-        <v>1.007831343670177</v>
+        <v>2.32387193599183</v>
       </c>
       <c r="R17">
-        <v>1.030588158872928</v>
+        <v>2.072057678815457</v>
       </c>
       <c r="S17">
-        <v>1.02411573821917</v>
+        <v>1.693727703280071</v>
       </c>
       <c r="T17">
-        <v>1.030588158872928</v>
+        <v>2.072057678815457</v>
       </c>
       <c r="U17">
-        <v>1.039462885498311</v>
+        <v>2.126519310825973</v>
       </c>
       <c r="V17">
-        <v>1.048671173865795</v>
+        <v>2.386194275353513</v>
       </c>
       <c r="W17">
-        <v>1.028438756821814</v>
+        <v>1.63631441157137</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.247151824794091</v>
+        <v>1.227808819023822</v>
       </c>
       <c r="D18">
-        <v>0.4832564512428817</v>
+        <v>1.2039950998712</v>
       </c>
       <c r="E18">
-        <v>1.07494968979162</v>
+        <v>1.516599498043725</v>
       </c>
       <c r="F18">
-        <v>2.247151824794091</v>
+        <v>1.2039950998712</v>
       </c>
       <c r="G18">
-        <v>1.534198362287639</v>
+        <v>0.9431671991430293</v>
       </c>
       <c r="H18">
-        <v>0.9237500161009657</v>
+        <v>2.916031385422522</v>
       </c>
       <c r="I18">
-        <v>2.247151824794882</v>
+        <v>0.6752519995415518</v>
       </c>
       <c r="J18">
-        <v>0.4832564512428817</v>
+        <v>1.516599498043186</v>
       </c>
       <c r="K18">
-        <v>1.390915578592613</v>
+        <v>1.516599498043186</v>
       </c>
       <c r="L18">
-        <v>1.205330086165635</v>
+        <v>1.207337908641991</v>
       </c>
       <c r="M18">
-        <v>1.009712667299084</v>
+        <v>1.041237615098106</v>
       </c>
       <c r="N18">
-        <v>2.247151824794091</v>
+        <v>1.516599498043186</v>
       </c>
       <c r="O18">
-        <v>1.07494968979162</v>
+        <v>1.227808819023822</v>
       </c>
       <c r="P18">
-        <v>0.779103070517251</v>
+        <v>1.215901959447511</v>
       </c>
       <c r="Q18">
-        <v>1.304574026039629</v>
+        <v>1.217573363832906</v>
       </c>
       <c r="R18">
-        <v>1.268452655276198</v>
+        <v>1.316134472312736</v>
       </c>
       <c r="S18">
-        <v>1.03080150110738</v>
+        <v>1.213047275845671</v>
       </c>
       <c r="T18">
-        <v>1.268452655276198</v>
+        <v>1.316134472312736</v>
       </c>
       <c r="U18">
-        <v>1.334889082029058</v>
+        <v>1.28893533139505</v>
       </c>
       <c r="V18">
-        <v>1.517341630582064</v>
+        <v>1.334468164724677</v>
       </c>
       <c r="W18">
-        <v>1.233658084534316</v>
+        <v>1.341428690598176</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3724578728422966</v>
+        <v>1.40390269403745</v>
       </c>
       <c r="D19">
+        <v>0.9368766020316223</v>
+      </c>
+      <c r="E19">
+        <v>0.7935755577906041</v>
+      </c>
+      <c r="F19">
+        <v>0.9368766020316223</v>
+      </c>
+      <c r="G19">
+        <v>0.4069564851074315</v>
+      </c>
+      <c r="H19">
+        <v>3.739589424199266</v>
+      </c>
+      <c r="I19">
+        <v>1.152141956142422</v>
+      </c>
+      <c r="J19">
+        <v>0.7935755577911277</v>
+      </c>
+      <c r="K19">
+        <v>0.7935755577911277</v>
+      </c>
+      <c r="L19">
+        <v>0.9565598304526773</v>
+      </c>
+      <c r="M19">
+        <v>0.9063395186956383</v>
+      </c>
+      <c r="N19">
+        <v>0.7935755577911277</v>
+      </c>
+      <c r="O19">
+        <v>1.40390269403745</v>
+      </c>
+      <c r="P19">
+        <v>1.170389648034536</v>
+      </c>
+      <c r="Q19">
+        <v>1.180231262245064</v>
+      </c>
+      <c r="R19">
+        <v>1.044784951286734</v>
+      </c>
+      <c r="S19">
+        <v>1.099113042173917</v>
+      </c>
+      <c r="T19">
+        <v>1.044784951286734</v>
+      </c>
+      <c r="U19">
+        <v>1.02272867107822</v>
+      </c>
+      <c r="V19">
+        <v>0.9768980484208012</v>
+      </c>
+      <c r="W19">
+        <v>1.286992758557205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.056096556526297</v>
+      </c>
+      <c r="D20">
+        <v>1.060647262895905</v>
+      </c>
+      <c r="E20">
+        <v>0.9743662359092231</v>
+      </c>
+      <c r="F20">
+        <v>1.060647262895905</v>
+      </c>
+      <c r="G20">
+        <v>1.01042668294922</v>
+      </c>
+      <c r="H20">
+        <v>1.045170445792013</v>
+      </c>
+      <c r="I20">
+        <v>1.005714051588627</v>
+      </c>
+      <c r="J20">
+        <v>0.9743662359127752</v>
+      </c>
+      <c r="K20">
+        <v>0.9743662359127752</v>
+      </c>
+      <c r="L20">
+        <v>0.9935902146781747</v>
+      </c>
+      <c r="M20">
+        <v>1.006423895015881</v>
+      </c>
+      <c r="N20">
+        <v>0.9743662359127752</v>
+      </c>
+      <c r="O20">
+        <v>1.056096556526297</v>
+      </c>
+      <c r="P20">
+        <v>1.058371909711101</v>
+      </c>
+      <c r="Q20">
+        <v>1.024843385602236</v>
+      </c>
+      <c r="R20">
+        <v>1.030370018444992</v>
+      </c>
+      <c r="S20">
+        <v>1.036778011366792</v>
+      </c>
+      <c r="T20">
+        <v>1.030370018444992</v>
+      </c>
+      <c r="U20">
+        <v>1.021175067503288</v>
+      </c>
+      <c r="V20">
+        <v>1.011813301185186</v>
+      </c>
+      <c r="W20">
+        <v>1.019054418169862</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9495756219658972</v>
+      </c>
+      <c r="D21">
+        <v>1.056684527317157</v>
+      </c>
+      <c r="E21">
+        <v>1.085504327332246</v>
+      </c>
+      <c r="F21">
+        <v>1.056684527317157</v>
+      </c>
+      <c r="G21">
+        <v>1.006390302368491</v>
+      </c>
+      <c r="H21">
+        <v>1.042096977754617</v>
+      </c>
+      <c r="I21">
+        <v>0.9860907082035871</v>
+      </c>
+      <c r="J21">
+        <v>1.085504327335735</v>
+      </c>
+      <c r="K21">
+        <v>1.085504327335735</v>
+      </c>
+      <c r="L21">
+        <v>1.066087065374461</v>
+      </c>
+      <c r="M21">
+        <v>1.035080524254573</v>
+      </c>
+      <c r="N21">
+        <v>1.085504327335735</v>
+      </c>
+      <c r="O21">
+        <v>0.9495756219658972</v>
+      </c>
+      <c r="P21">
+        <v>1.003130074641527</v>
+      </c>
+      <c r="Q21">
+        <v>1.007831343670179</v>
+      </c>
+      <c r="R21">
+        <v>1.03058815887293</v>
+      </c>
+      <c r="S21">
+        <v>1.024115738219172</v>
+      </c>
+      <c r="T21">
+        <v>1.03058815887293</v>
+      </c>
+      <c r="U21">
+        <v>1.039462885498313</v>
+      </c>
+      <c r="V21">
+        <v>1.048671173865797</v>
+      </c>
+      <c r="W21">
+        <v>1.028438756821815</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.074949689791626</v>
+      </c>
+      <c r="D22">
+        <v>0.4832564512428805</v>
+      </c>
+      <c r="E22">
+        <v>2.247151824794885</v>
+      </c>
+      <c r="F22">
+        <v>0.4832564512428805</v>
+      </c>
+      <c r="G22">
+        <v>1.390915578592616</v>
+      </c>
+      <c r="H22">
+        <v>1.205330086165636</v>
+      </c>
+      <c r="I22">
+        <v>1.009712667299083</v>
+      </c>
+      <c r="J22">
+        <v>2.247151824794094</v>
+      </c>
+      <c r="K22">
+        <v>2.247151824794094</v>
+      </c>
+      <c r="L22">
+        <v>1.53419836228764</v>
+      </c>
+      <c r="M22">
+        <v>0.9237500161009684</v>
+      </c>
+      <c r="N22">
+        <v>2.247151824794094</v>
+      </c>
+      <c r="O22">
+        <v>1.074949689791626</v>
+      </c>
+      <c r="P22">
+        <v>0.7791030705172532</v>
+      </c>
+      <c r="Q22">
+        <v>1.304574026039633</v>
+      </c>
+      <c r="R22">
+        <v>1.2684526552762</v>
+      </c>
+      <c r="S22">
+        <v>1.030801501107382</v>
+      </c>
+      <c r="T22">
+        <v>1.2684526552762</v>
+      </c>
+      <c r="U22">
+        <v>1.33488908202906</v>
+      </c>
+      <c r="V22">
+        <v>1.517341630582067</v>
+      </c>
+      <c r="W22">
+        <v>1.233658084534318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.25510251058418</v>
+      </c>
+      <c r="D23">
         <v>0.4007688660315163</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>0.3724578728423623</v>
+      </c>
+      <c r="F23">
+        <v>0.4007688660315163</v>
+      </c>
+      <c r="G23">
+        <v>1.06480741334619</v>
+      </c>
+      <c r="H23">
+        <v>1.313694540956959</v>
+      </c>
+      <c r="I23">
+        <v>1.089563104097887</v>
+      </c>
+      <c r="J23">
+        <v>0.3724578728422967</v>
+      </c>
+      <c r="K23">
+        <v>0.3724578728422967</v>
+      </c>
+      <c r="L23">
+        <v>1.396714630984028</v>
+      </c>
+      <c r="M23">
+        <v>1.033806362979016</v>
+      </c>
+      <c r="N23">
+        <v>0.3724578728422967</v>
+      </c>
+      <c r="O23">
         <v>1.25510251058418</v>
       </c>
-      <c r="F19">
-        <v>0.3724578728422966</v>
-      </c>
-      <c r="G19">
-        <v>1.396714630984027</v>
-      </c>
-      <c r="H19">
-        <v>1.033806362979016</v>
-      </c>
-      <c r="I19">
-        <v>0.3724578728423622</v>
-      </c>
-      <c r="J19">
-        <v>0.4007688660315163</v>
-      </c>
-      <c r="K19">
-        <v>1.06480741334619</v>
-      </c>
-      <c r="L19">
-        <v>1.313694540956959</v>
-      </c>
-      <c r="M19">
-        <v>1.089563104097886</v>
-      </c>
-      <c r="N19">
-        <v>0.3724578728422966</v>
-      </c>
-      <c r="O19">
-        <v>1.25510251058418</v>
-      </c>
-      <c r="P19">
-        <v>0.8279356883078482</v>
-      </c>
-      <c r="Q19">
+      <c r="P23">
+        <v>0.8279356883078481</v>
+      </c>
+      <c r="Q23">
         <v>1.325908570784104</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.676109749819331</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.017528669199908</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.676109749819331</v>
       </c>
-      <c r="U19">
-        <v>0.8562609701105052</v>
-      </c>
-      <c r="V19">
-        <v>0.7595003506568634</v>
-      </c>
-      <c r="W19">
+      <c r="U23">
+        <v>0.8562609701105053</v>
+      </c>
+      <c r="V23">
+        <v>0.7595003506568636</v>
+      </c>
+      <c r="W23">
         <v>0.990864412727759</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.153355517735435</v>
+        <v>1.003222070268987</v>
       </c>
       <c r="D3">
-        <v>1.041819150097932</v>
+        <v>0.9128318359342916</v>
       </c>
       <c r="E3">
-        <v>1.254904162103836</v>
+        <v>1.307998232205732</v>
       </c>
       <c r="F3">
-        <v>1.041819150097932</v>
+        <v>0.9128318359342916</v>
       </c>
       <c r="G3">
-        <v>1.118992531828373</v>
+        <v>0.9272872549188476</v>
       </c>
       <c r="H3">
-        <v>1.042864892498748</v>
+        <v>4.14312252527461</v>
       </c>
       <c r="I3">
-        <v>0.9517103594970802</v>
+        <v>0.8687715888981696</v>
       </c>
       <c r="J3">
-        <v>1.254904162106821</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="K3">
-        <v>1.254904162106821</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="L3">
-        <v>1.153853489156929</v>
+        <v>1.114201077470299</v>
       </c>
       <c r="M3">
-        <v>0.9618382911758905</v>
+        <v>0.9288158382228775</v>
       </c>
       <c r="N3">
-        <v>1.254904162106821</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="O3">
-        <v>1.153355517735435</v>
+        <v>1.003222070268987</v>
       </c>
       <c r="P3">
-        <v>1.097587333916684</v>
+        <v>0.9580269531016394</v>
       </c>
       <c r="Q3">
-        <v>1.153604503446182</v>
+        <v>1.058711573869643</v>
       </c>
       <c r="R3">
-        <v>1.150026276646729</v>
+        <v>1.074684046137216</v>
       </c>
       <c r="S3">
-        <v>1.116342718996765</v>
+        <v>1.010084994557859</v>
       </c>
       <c r="T3">
-        <v>1.150026276646729</v>
+        <v>1.074684046137216</v>
       </c>
       <c r="U3">
-        <v>1.150983079774279</v>
+        <v>1.084563303970487</v>
       </c>
       <c r="V3">
-        <v>1.171767296240787</v>
+        <v>1.129250289618063</v>
       </c>
       <c r="W3">
-        <v>1.084917299262151</v>
+        <v>1.400781302899557</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.43418806697604</v>
+        <v>0.9619742581861409</v>
       </c>
       <c r="D4">
-        <v>1.196759479870286</v>
+        <v>0.8938214533516632</v>
       </c>
       <c r="E4">
-        <v>1.599407088506422</v>
+        <v>1.150754487612698</v>
       </c>
       <c r="F4">
-        <v>1.196759479870286</v>
+        <v>0.8938214533516632</v>
       </c>
       <c r="G4">
-        <v>1.288261842722532</v>
+        <v>0.9097170861921475</v>
       </c>
       <c r="H4">
-        <v>1.148450278816848</v>
+        <v>3.398019832769733</v>
       </c>
       <c r="I4">
-        <v>1.023693016475001</v>
+        <v>0.8742248440269627</v>
       </c>
       <c r="J4">
-        <v>1.599407088509199</v>
+        <v>1.150754487615427</v>
       </c>
       <c r="K4">
-        <v>1.599407088509199</v>
+        <v>1.150754487615427</v>
       </c>
       <c r="L4">
-        <v>1.306292807604864</v>
+        <v>1.080108074607171</v>
       </c>
       <c r="M4">
-        <v>1.089266811533476</v>
+        <v>0.9375886829063899</v>
       </c>
       <c r="N4">
-        <v>1.599407088509199</v>
+        <v>1.150754487615427</v>
       </c>
       <c r="O4">
-        <v>1.43418806697604</v>
+        <v>0.9619742581861409</v>
       </c>
       <c r="P4">
-        <v>1.315473773423163</v>
+        <v>0.927897855768902</v>
       </c>
       <c r="Q4">
-        <v>1.370240437290452</v>
+        <v>1.021041166396656</v>
       </c>
       <c r="R4">
-        <v>1.410118211785175</v>
+        <v>1.002183399717744</v>
       </c>
       <c r="S4">
-        <v>1.31241345148373</v>
+        <v>0.9786345953816583</v>
       </c>
       <c r="T4">
-        <v>1.410118211785175</v>
+        <v>1.002183399717744</v>
       </c>
       <c r="U4">
-        <v>1.384161860740098</v>
+        <v>1.0216645684401</v>
       </c>
       <c r="V4">
-        <v>1.427210906293918</v>
+        <v>1.047482552275166</v>
       </c>
       <c r="W4">
-        <v>1.260789924063531</v>
+        <v>1.275776089956954</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.780982619823987</v>
+        <v>1.621361404677195</v>
       </c>
       <c r="D5">
-        <v>0.3508249885568288</v>
+        <v>0.3483695521547058</v>
       </c>
       <c r="E5">
-        <v>3.010396191469765</v>
+        <v>2.902085225297306</v>
       </c>
       <c r="F5">
-        <v>0.3508249885568288</v>
+        <v>0.3483695521547058</v>
       </c>
       <c r="G5">
-        <v>1.9577941434352</v>
+        <v>0.9783125092215097</v>
       </c>
       <c r="H5">
-        <v>1.163974710788876</v>
+        <v>7.461423184001736</v>
       </c>
       <c r="I5">
-        <v>0.7564134369225249</v>
+        <v>1.06297577946383</v>
       </c>
       <c r="J5">
-        <v>3.010396191470393</v>
+        <v>2.902085225297522</v>
       </c>
       <c r="K5">
-        <v>3.010396191470393</v>
+        <v>2.902085225297522</v>
       </c>
       <c r="L5">
-        <v>3.131647676989551</v>
+        <v>1.957275321651681</v>
       </c>
       <c r="M5">
-        <v>1.252113964236527</v>
+        <v>1.591207357899253</v>
       </c>
       <c r="N5">
-        <v>3.010396191470393</v>
+        <v>2.902085225297522</v>
       </c>
       <c r="O5">
-        <v>3.780982619823987</v>
+        <v>1.621361404677195</v>
       </c>
       <c r="P5">
-        <v>2.065903804190408</v>
+        <v>0.9848654784159506</v>
       </c>
       <c r="Q5">
-        <v>3.456315148406769</v>
+        <v>1.789318363164438</v>
       </c>
       <c r="R5">
-        <v>2.380734599950403</v>
+        <v>1.623938727376474</v>
       </c>
       <c r="S5">
-        <v>2.421151761790123</v>
+        <v>1.309002092827861</v>
       </c>
       <c r="T5">
-        <v>2.380734599950403</v>
+        <v>1.623938727376474</v>
       </c>
       <c r="U5">
-        <v>2.56846286921019</v>
+        <v>1.707272875945276</v>
       </c>
       <c r="V5">
-        <v>2.656849533662231</v>
+        <v>1.946235345815725</v>
       </c>
       <c r="W5">
-        <v>1.925518466527986</v>
+        <v>2.240376291795929</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>3.988194634652569</v>
+        <v>3.580160625529544</v>
       </c>
       <c r="D6">
-        <v>0.2380161568662652</v>
+        <v>0.1012160796084999</v>
       </c>
       <c r="E6">
-        <v>8.650012048200418</v>
+        <v>3.316410222183409</v>
       </c>
       <c r="F6">
-        <v>0.2380161568662652</v>
+        <v>0.1012160796084999</v>
       </c>
       <c r="G6">
-        <v>0.4103913078988913</v>
+        <v>0.1752329604442045</v>
       </c>
       <c r="H6">
-        <v>1.036257271285743</v>
+        <v>9.922114605342616</v>
       </c>
       <c r="I6">
-        <v>1.420603880617929</v>
+        <v>0.1138644420220454</v>
       </c>
       <c r="J6">
-        <v>8.650012048200413</v>
+        <v>3.316410222183408</v>
       </c>
       <c r="K6">
-        <v>8.650012048200413</v>
+        <v>3.316410222183408</v>
       </c>
       <c r="L6">
-        <v>3.862333348723936</v>
+        <v>2.131494821591079</v>
       </c>
       <c r="M6">
-        <v>1.836078142395709</v>
+        <v>0.2713397511752272</v>
       </c>
       <c r="N6">
-        <v>8.650012048200413</v>
+        <v>3.316410222183408</v>
       </c>
       <c r="O6">
-        <v>3.988194634652569</v>
+        <v>3.580160625529544</v>
       </c>
       <c r="P6">
-        <v>2.113105395759417</v>
+        <v>1.840688352569022</v>
       </c>
       <c r="Q6">
-        <v>3.925263991688253</v>
+        <v>2.855827723560311</v>
       </c>
       <c r="R6">
-        <v>4.292074279906416</v>
+        <v>2.332595642440484</v>
       </c>
       <c r="S6">
-        <v>2.696181380080924</v>
+        <v>1.937623842243041</v>
       </c>
       <c r="T6">
-        <v>4.292074279906416</v>
+        <v>2.332595642440484</v>
       </c>
       <c r="U6">
-        <v>4.184639047110796</v>
+        <v>2.282320437228133</v>
       </c>
       <c r="V6">
-        <v>5.07771364732872</v>
+        <v>2.489138394219188</v>
       </c>
       <c r="W6">
-        <v>2.680235848830182</v>
+        <v>2.451479188487078</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.033579402823682</v>
+        <v>3.978572042493832</v>
       </c>
       <c r="D7">
-        <v>1.037504707033165</v>
+        <v>7.94884774947218</v>
       </c>
       <c r="E7">
-        <v>1.038643216985685</v>
+        <v>12.33778303202242</v>
       </c>
       <c r="F7">
-        <v>1.037504707033165</v>
+        <v>7.94884774947218</v>
       </c>
       <c r="G7">
-        <v>1.014634635624576</v>
+        <v>-0.00184360794924735</v>
       </c>
       <c r="H7">
-        <v>1.053455952594389</v>
+        <v>2.201372014101644</v>
       </c>
       <c r="I7">
-        <v>1.000169878698252</v>
+        <v>3.884211931844848</v>
       </c>
       <c r="J7">
-        <v>1.038643216989286</v>
+        <v>12.33778303202242</v>
       </c>
       <c r="K7">
-        <v>1.038643216989286</v>
+        <v>12.33778303202242</v>
       </c>
       <c r="L7">
-        <v>1.013282162404102</v>
+        <v>3.905646331169928</v>
       </c>
       <c r="M7">
-        <v>1.003412188668007</v>
+        <v>3.666200574775368</v>
       </c>
       <c r="N7">
-        <v>1.038643216989286</v>
+        <v>12.33778303202242</v>
       </c>
       <c r="O7">
-        <v>1.033579402823682</v>
+        <v>3.978572042493832</v>
       </c>
       <c r="P7">
-        <v>1.035542054928424</v>
+        <v>5.963709895983006</v>
       </c>
       <c r="Q7">
-        <v>1.023430782613892</v>
+        <v>3.94210918683188</v>
       </c>
       <c r="R7">
-        <v>1.036575775615378</v>
+        <v>8.088400941329477</v>
       </c>
       <c r="S7">
-        <v>1.02812209075365</v>
+        <v>5.27768870771198</v>
       </c>
       <c r="T7">
-        <v>1.036575775615378</v>
+        <v>8.088400941329477</v>
       </c>
       <c r="U7">
-        <v>1.030752372312559</v>
+        <v>7.042712288789589</v>
       </c>
       <c r="V7">
-        <v>1.032330541247904</v>
+        <v>8.101726437436154</v>
       </c>
       <c r="W7">
-        <v>1.024335268104433</v>
+        <v>4.740098758491372</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.014517744592031</v>
+        <v>3.958285728398501</v>
       </c>
       <c r="D8">
-        <v>1.051785790846776</v>
+        <v>7.901826385245317</v>
       </c>
       <c r="E8">
-        <v>1.106383251898062</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="F8">
-        <v>1.051785790846776</v>
+        <v>7.901826385245317</v>
       </c>
       <c r="G8">
-        <v>1.006392477017235</v>
+        <v>-0.001793514139588356</v>
       </c>
       <c r="H8">
-        <v>1.110347579553943</v>
+        <v>2.31043083631105</v>
       </c>
       <c r="I8">
-        <v>0.9882826182943537</v>
+        <v>3.859177755943651</v>
       </c>
       <c r="J8">
-        <v>1.106383251901694</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="K8">
-        <v>1.106383251901694</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="L8">
-        <v>1.019328635568353</v>
+        <v>3.877307544066947</v>
       </c>
       <c r="M8">
-        <v>0.9947097323164182</v>
+        <v>3.647148681811291</v>
       </c>
       <c r="N8">
-        <v>1.106383251901694</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="O8">
-        <v>1.014517744592031</v>
+        <v>3.958285728398501</v>
       </c>
       <c r="P8">
-        <v>1.033151767719403</v>
+        <v>5.930056056821909</v>
       </c>
       <c r="Q8">
-        <v>1.016923190080192</v>
+        <v>3.917796636232724</v>
       </c>
       <c r="R8">
-        <v>1.057562262446834</v>
+        <v>8.151394899133026</v>
       </c>
       <c r="S8">
-        <v>1.028544057002387</v>
+        <v>5.245806552570255</v>
       </c>
       <c r="T8">
-        <v>1.057562262446834</v>
+        <v>8.151394899133026</v>
       </c>
       <c r="U8">
-        <v>1.048003855727214</v>
+        <v>7.082873060366506</v>
       </c>
       <c r="V8">
-        <v>1.05967973496211</v>
+        <v>8.185112965044256</v>
       </c>
       <c r="W8">
-        <v>1.036468478761351</v>
+        <v>4.768307000174053</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.046379338131895</v>
+        <v>3.946823770175065</v>
       </c>
       <c r="D9">
-        <v>1.006092483108016</v>
+        <v>7.865820270081393</v>
       </c>
       <c r="E9">
-        <v>1.396048572253197</v>
+        <v>12.56748327774392</v>
       </c>
       <c r="F9">
-        <v>1.006092483108016</v>
+        <v>7.865820270081393</v>
       </c>
       <c r="G9">
-        <v>0.9578357485896015</v>
+        <v>-0.001765258745702617</v>
       </c>
       <c r="H9">
-        <v>1.109549942812568</v>
+        <v>2.530258681367971</v>
       </c>
       <c r="I9">
-        <v>0.970205382835066</v>
+        <v>3.835977117355749</v>
       </c>
       <c r="J9">
-        <v>1.396048572256616</v>
+        <v>12.56748327774392</v>
       </c>
       <c r="K9">
-        <v>1.396048572256616</v>
+        <v>12.56748327774392</v>
       </c>
       <c r="L9">
-        <v>1.007555579547358</v>
+        <v>3.848027872154475</v>
       </c>
       <c r="M9">
-        <v>0.9928285939472083</v>
+        <v>3.636255050150733</v>
       </c>
       <c r="N9">
-        <v>1.396048572256616</v>
+        <v>12.56748327774392</v>
       </c>
       <c r="O9">
-        <v>1.046379338131895</v>
+        <v>3.946823770175065</v>
       </c>
       <c r="P9">
-        <v>1.026235910619956</v>
+        <v>5.906322020128229</v>
       </c>
       <c r="Q9">
-        <v>1.026967458839626</v>
+        <v>3.89742582116477</v>
       </c>
       <c r="R9">
-        <v>1.149506797832176</v>
+        <v>8.126709106000126</v>
       </c>
       <c r="S9">
-        <v>1.020009133595756</v>
+        <v>5.220223970803644</v>
       </c>
       <c r="T9">
-        <v>1.149506797832176</v>
+        <v>8.126709106000126</v>
       </c>
       <c r="U9">
-        <v>1.114018993260971</v>
+        <v>7.057038797538713</v>
       </c>
       <c r="V9">
-        <v>1.1704249090601</v>
+        <v>8.159127693579753</v>
       </c>
       <c r="W9">
-        <v>1.060811955153541</v>
+        <v>4.77861009753545</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9411510820809278</v>
+        <v>3.894570288335859</v>
       </c>
       <c r="D10">
-        <v>0.9645980012888387</v>
+        <v>7.746618635452866</v>
       </c>
       <c r="E10">
-        <v>1.562684485968942</v>
+        <v>13.98095338663651</v>
       </c>
       <c r="F10">
-        <v>0.9645980012888387</v>
+        <v>7.746618635452866</v>
       </c>
       <c r="G10">
-        <v>1.082148445465822</v>
+        <v>-0.001599974627660604</v>
       </c>
       <c r="H10">
-        <v>1.250657677381048</v>
+        <v>2.944270127397889</v>
       </c>
       <c r="I10">
-        <v>0.9597362077005038</v>
+        <v>3.762022934276107</v>
       </c>
       <c r="J10">
-        <v>1.562684485971091</v>
+        <v>13.98095338663651</v>
       </c>
       <c r="K10">
-        <v>1.562684485971091</v>
+        <v>13.98095338663651</v>
       </c>
       <c r="L10">
-        <v>1.210266438869656</v>
+        <v>3.733537014301801</v>
       </c>
       <c r="M10">
-        <v>1.038656474813067</v>
+        <v>3.590433966634984</v>
       </c>
       <c r="N10">
-        <v>1.562684485971091</v>
+        <v>13.98095338663651</v>
       </c>
       <c r="O10">
-        <v>0.9411510820809278</v>
+        <v>3.894570288335859</v>
       </c>
       <c r="P10">
-        <v>0.9528745416848832</v>
+        <v>5.820594461894363</v>
       </c>
       <c r="Q10">
-        <v>1.075708760475292</v>
+        <v>3.81405365131883</v>
       </c>
       <c r="R10">
-        <v>1.156144523113619</v>
+        <v>8.540714103475077</v>
       </c>
       <c r="S10">
-        <v>1.038671840746474</v>
+        <v>5.124908646030176</v>
       </c>
       <c r="T10">
-        <v>1.156144523113619</v>
+        <v>8.540714103475077</v>
       </c>
       <c r="U10">
-        <v>1.169675002052629</v>
+        <v>7.338919831181759</v>
       </c>
       <c r="V10">
-        <v>1.248276898836321</v>
+        <v>8.667326542272708</v>
       </c>
       <c r="W10">
-        <v>1.12623735169637</v>
+        <v>4.956350797301044</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.008313155317181</v>
+        <v>1.169609015411003</v>
       </c>
       <c r="D11">
-        <v>1.87261280206042</v>
+        <v>1.161744241551111</v>
       </c>
       <c r="E11">
-        <v>2.831665231313699</v>
+        <v>1.331306425566835</v>
       </c>
       <c r="F11">
-        <v>1.87261280206042</v>
+        <v>1.161744241551111</v>
       </c>
       <c r="G11">
-        <v>1.04107888526024</v>
+        <v>1.110271321408716</v>
       </c>
       <c r="H11">
-        <v>1.457311469306154</v>
+        <v>0.9912241242349744</v>
       </c>
       <c r="I11">
-        <v>1.256881746130271</v>
+        <v>1.00786776189162</v>
       </c>
       <c r="J11">
-        <v>2.831665231323008</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="K11">
-        <v>2.831665231323008</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="L11">
-        <v>1.258647532121587</v>
+        <v>1.137900751409385</v>
       </c>
       <c r="M11">
-        <v>0.9275305319680234</v>
+        <v>0.9698679277695211</v>
       </c>
       <c r="N11">
-        <v>2.831665231323008</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="O11">
-        <v>1.008313155317181</v>
+        <v>1.169609015411003</v>
       </c>
       <c r="P11">
-        <v>1.440462978688801</v>
+        <v>1.165676628481057</v>
       </c>
       <c r="Q11">
-        <v>1.133480343719384</v>
+        <v>1.153754883410194</v>
       </c>
       <c r="R11">
-        <v>1.904197062900203</v>
+        <v>1.220886560844054</v>
       </c>
       <c r="S11">
-        <v>1.379857829833063</v>
+        <v>1.1564180027905</v>
       </c>
       <c r="T11">
-        <v>1.904197062900203</v>
+        <v>1.220886560844054</v>
       </c>
       <c r="U11">
-        <v>1.742809680205549</v>
+        <v>1.200140108485387</v>
       </c>
       <c r="V11">
-        <v>1.960580790429041</v>
+        <v>1.226373371902319</v>
       </c>
       <c r="W11">
-        <v>1.45675516918586</v>
+        <v>1.109973946155797</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.0002878808757884235</v>
+        <v>1.11357277562698</v>
       </c>
       <c r="D12">
-        <v>0.0005321790215116628</v>
+        <v>1.078173138051215</v>
       </c>
       <c r="E12">
-        <v>-0.001558648893322354</v>
+        <v>1.140691190134838</v>
       </c>
       <c r="F12">
-        <v>0.0005321790215116628</v>
+        <v>1.078173138051215</v>
       </c>
       <c r="G12">
-        <v>1.918477202137383</v>
+        <v>1.062927526794124</v>
       </c>
       <c r="H12">
-        <v>1.399331837347491</v>
+        <v>1.018639499386301</v>
       </c>
       <c r="I12">
-        <v>2.508918383184844</v>
+        <v>1.003755348699064</v>
       </c>
       <c r="J12">
-        <v>-0.001558648893322354</v>
+        <v>1.140691190138297</v>
       </c>
       <c r="K12">
-        <v>-0.001558648893322354</v>
+        <v>1.140691190138297</v>
       </c>
       <c r="L12">
-        <v>1.612403044375189</v>
+        <v>1.087822659804733</v>
       </c>
       <c r="M12">
-        <v>0.1412820554661308</v>
+        <v>0.9925732790423811</v>
       </c>
       <c r="N12">
-        <v>-0.001558648893322354</v>
+        <v>1.140691190138297</v>
       </c>
       <c r="O12">
-        <v>0.0002878808757884235</v>
+        <v>1.11357277562698</v>
       </c>
       <c r="P12">
-        <v>0.0004100299486500432</v>
+        <v>1.095872956839097</v>
       </c>
       <c r="Q12">
-        <v>0.8063454626254888</v>
+        <v>1.100697717715857</v>
       </c>
       <c r="R12">
-        <v>-0.0002461963320074224</v>
+        <v>1.110812367938831</v>
       </c>
       <c r="S12">
-        <v>0.5377410347574964</v>
+        <v>1.093189524494309</v>
       </c>
       <c r="T12">
-        <v>-0.0002461963320074224</v>
+        <v>1.110812367938831</v>
       </c>
       <c r="U12">
-        <v>0.4029161138447917</v>
+        <v>1.105064940905306</v>
       </c>
       <c r="V12">
-        <v>0.3220211612971689</v>
+        <v>1.112190190751905</v>
       </c>
       <c r="W12">
-        <v>0.947459241689377</v>
+        <v>1.062269427192887</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.102638498111983</v>
+        <v>1.499961470934998</v>
       </c>
       <c r="D13">
-        <v>4.26683228701516</v>
+        <v>0.3016389915366026</v>
       </c>
       <c r="E13">
-        <v>3.155365551851069</v>
+        <v>2.960021881782684</v>
       </c>
       <c r="F13">
-        <v>4.26683228701516</v>
+        <v>0.3016389915366026</v>
       </c>
       <c r="G13">
-        <v>1.310737099070905</v>
+        <v>1.595337037027429</v>
       </c>
       <c r="H13">
-        <v>0.02000191212358884</v>
+        <v>1.78250407187853</v>
       </c>
       <c r="I13">
-        <v>1.059743902438571</v>
+        <v>1.594222436995853</v>
       </c>
       <c r="J13">
-        <v>3.155365551854046</v>
+        <v>2.96002188178295</v>
       </c>
       <c r="K13">
-        <v>3.155365551854046</v>
+        <v>2.96002188178295</v>
       </c>
       <c r="L13">
-        <v>0.4520445183199169</v>
+        <v>1.898349709990135</v>
       </c>
       <c r="M13">
-        <v>0.8681926278170161</v>
+        <v>1.539079621957564</v>
       </c>
       <c r="N13">
-        <v>3.155365551854046</v>
+        <v>2.96002188178295</v>
       </c>
       <c r="O13">
-        <v>3.102638498111983</v>
+        <v>1.499961470934998</v>
       </c>
       <c r="P13">
-        <v>3.684735392563572</v>
+        <v>0.9008002312358006</v>
       </c>
       <c r="Q13">
-        <v>1.77734150821595</v>
+        <v>1.699155590462567</v>
       </c>
       <c r="R13">
-        <v>3.50827877899373</v>
+        <v>1.58720744808485</v>
       </c>
       <c r="S13">
-        <v>2.607171767815687</v>
+        <v>1.233316724153912</v>
       </c>
       <c r="T13">
-        <v>3.508278778993729</v>
+        <v>1.58720744808485</v>
       </c>
       <c r="U13">
-        <v>2.744220213825276</v>
+        <v>1.664993013561171</v>
       </c>
       <c r="V13">
-        <v>2.826449281431031</v>
+        <v>1.923998787205527</v>
       </c>
       <c r="W13">
-        <v>1.779444549593898</v>
+        <v>1.646389402763008</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.2934870853603606</v>
+        <v>5.281691776266744</v>
       </c>
       <c r="D14">
-        <v>-0.0004954784549887927</v>
+        <v>0.1495030066012321</v>
       </c>
       <c r="E14">
-        <v>-0.0004101383101088951</v>
+        <v>4.43634414955231</v>
       </c>
       <c r="F14">
-        <v>-0.0004954784549887927</v>
+        <v>0.1495030066012321</v>
       </c>
       <c r="G14">
-        <v>0.9931425163368653</v>
+        <v>0.6370822247349104</v>
       </c>
       <c r="H14">
-        <v>0.001281512401697156</v>
+        <v>1.332280242391118</v>
       </c>
       <c r="I14">
-        <v>-0.0009637956398396606</v>
+        <v>0.4368404651267065</v>
       </c>
       <c r="J14">
-        <v>-0.0004101383104618379</v>
+        <v>4.436344149551969</v>
       </c>
       <c r="K14">
-        <v>-0.0004101383104618379</v>
+        <v>4.436344149551969</v>
       </c>
       <c r="L14">
-        <v>0.002225280171486818</v>
+        <v>3.337801350971323</v>
       </c>
       <c r="M14">
-        <v>2.290525657679574</v>
+        <v>0.2938197189233877</v>
       </c>
       <c r="N14">
-        <v>-0.0004101383104618379</v>
+        <v>4.436344149551969</v>
       </c>
       <c r="O14">
-        <v>0.2934870853603606</v>
+        <v>5.281691776266744</v>
       </c>
       <c r="P14">
-        <v>0.1464958034526859</v>
+        <v>2.715597391433988</v>
       </c>
       <c r="Q14">
-        <v>0.1478561827659237</v>
+        <v>4.309746563619034</v>
       </c>
       <c r="R14">
-        <v>0.09752715619830331</v>
+        <v>3.289179644139981</v>
       </c>
       <c r="S14">
-        <v>0.09840562902561951</v>
+        <v>2.922998711279766</v>
       </c>
       <c r="T14">
-        <v>0.09752715619830331</v>
+        <v>3.289179644139981</v>
       </c>
       <c r="U14">
-        <v>0.07370168719159918</v>
+        <v>3.301335070847817</v>
       </c>
       <c r="V14">
-        <v>0.05887932209118698</v>
+        <v>3.528336886588647</v>
       </c>
       <c r="W14">
-        <v>0.4473490799430866</v>
+        <v>1.988170366820924</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>-0.001287746089728106</v>
+        <v>1.153355517735435</v>
       </c>
       <c r="D15">
-        <v>0.001239198148660105</v>
+        <v>1.041819150097932</v>
       </c>
       <c r="E15">
-        <v>0.9007447313079856</v>
+        <v>1.254904162103836</v>
       </c>
       <c r="F15">
-        <v>0.001239198148660105</v>
+        <v>1.041819150097932</v>
       </c>
       <c r="G15">
-        <v>0.431775385780092</v>
+        <v>1.118992531828373</v>
       </c>
       <c r="H15">
-        <v>2.673485078867889</v>
+        <v>1.042864892498748</v>
       </c>
       <c r="I15">
-        <v>0.3076092867992351</v>
+        <v>0.9517103594970802</v>
       </c>
       <c r="J15">
-        <v>0.9007447313079856</v>
+        <v>1.254904162106821</v>
       </c>
       <c r="K15">
-        <v>0.9007447313079856</v>
+        <v>1.254904162106821</v>
       </c>
       <c r="L15">
-        <v>1.985218897570126</v>
+        <v>1.153853489156929</v>
       </c>
       <c r="M15">
-        <v>0.007078081047542492</v>
+        <v>0.9618382911758905</v>
       </c>
       <c r="N15">
-        <v>0.9007447313079856</v>
+        <v>1.254904162106821</v>
       </c>
       <c r="O15">
-        <v>-0.001287746089728106</v>
+        <v>1.153355517735435</v>
       </c>
       <c r="P15">
-        <v>-2.427397053400072E-05</v>
+        <v>1.097587333916684</v>
       </c>
       <c r="Q15">
-        <v>0.9919655757401992</v>
+        <v>1.153604503446182</v>
       </c>
       <c r="R15">
-        <v>0.3002320611223059</v>
+        <v>1.150026276646729</v>
       </c>
       <c r="S15">
-        <v>0.6617234498763528</v>
+        <v>1.116342718996765</v>
       </c>
       <c r="T15">
-        <v>0.3002320611223059</v>
+        <v>1.150026276646729</v>
       </c>
       <c r="U15">
-        <v>0.721478770234261</v>
+        <v>1.150983079774279</v>
       </c>
       <c r="V15">
-        <v>0.7573319624490059</v>
+        <v>1.171767296240787</v>
       </c>
       <c r="W15">
-        <v>0.7882328641789753</v>
+        <v>1.084917299262151</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>3.074889301342492</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="D16">
-        <v>0.2170055124597387</v>
+        <v>1.196759479870286</v>
       </c>
       <c r="E16">
-        <v>4.535695019892656</v>
+        <v>1.599407088506422</v>
       </c>
       <c r="F16">
-        <v>0.2170055124597387</v>
+        <v>1.196759479870286</v>
       </c>
       <c r="G16">
-        <v>2.99995749511987</v>
+        <v>1.288261842722532</v>
       </c>
       <c r="H16">
-        <v>0.6738583675267908</v>
+        <v>1.148450278816848</v>
       </c>
       <c r="I16">
-        <v>0.2206199707137725</v>
+        <v>1.023693016475001</v>
       </c>
       <c r="J16">
-        <v>4.535695019893368</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="K16">
-        <v>4.535695019893368</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="L16">
-        <v>2.911051737394021</v>
+        <v>1.306292807604864</v>
       </c>
       <c r="M16">
-        <v>0.233583928138688</v>
+        <v>1.089266811533476</v>
       </c>
       <c r="N16">
-        <v>4.535695019893368</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="O16">
-        <v>3.074889301342492</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="P16">
-        <v>1.645947406901115</v>
+        <v>1.315473773423163</v>
       </c>
       <c r="Q16">
-        <v>2.992970519368256</v>
+        <v>1.370240437290452</v>
       </c>
       <c r="R16">
-        <v>2.609196611231866</v>
+        <v>1.410118211785175</v>
       </c>
       <c r="S16">
-        <v>2.06764885039875</v>
+        <v>1.31241345148373</v>
       </c>
       <c r="T16">
-        <v>2.609196611231866</v>
+        <v>1.410118211785175</v>
       </c>
       <c r="U16">
-        <v>2.684660392772405</v>
+        <v>1.384161860740098</v>
       </c>
       <c r="V16">
-        <v>3.054867318196597</v>
+        <v>1.427210906293918</v>
       </c>
       <c r="W16">
-        <v>1.858332666573593</v>
+        <v>1.260789924063531</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>2.35783966512614</v>
+        <v>3.780982619823987</v>
       </c>
       <c r="D17">
-        <v>0.4334392378565549</v>
+        <v>0.3508249885568288</v>
       </c>
       <c r="E17">
-        <v>3.424894133462255</v>
+        <v>3.010396191469765</v>
       </c>
       <c r="F17">
-        <v>0.4334392378565549</v>
+        <v>0.3508249885568288</v>
       </c>
       <c r="G17">
-        <v>2.298911688340438</v>
+        <v>1.9577941434352</v>
       </c>
       <c r="H17">
-        <v>1.378676357760988</v>
+        <v>1.163974710788876</v>
       </c>
       <c r="I17">
-        <v>0.4380299483471544</v>
+        <v>0.7564134369225249</v>
       </c>
       <c r="J17">
-        <v>3.424894133463676</v>
+        <v>3.010396191470393</v>
       </c>
       <c r="K17">
-        <v>3.424894133463676</v>
+        <v>3.010396191470393</v>
       </c>
       <c r="L17">
-        <v>2.28990420685752</v>
+        <v>3.131647676989551</v>
       </c>
       <c r="M17">
-        <v>0.4688200548184876</v>
+        <v>1.252113964236527</v>
       </c>
       <c r="N17">
-        <v>3.424894133463676</v>
+        <v>3.010396191470393</v>
       </c>
       <c r="O17">
-        <v>2.35783966512614</v>
+        <v>3.780982619823987</v>
       </c>
       <c r="P17">
-        <v>1.395639451491347</v>
+        <v>2.065903804190408</v>
       </c>
       <c r="Q17">
-        <v>2.32387193599183</v>
+        <v>3.456315148406769</v>
       </c>
       <c r="R17">
-        <v>2.072057678815457</v>
+        <v>2.380734599950403</v>
       </c>
       <c r="S17">
-        <v>1.693727703280071</v>
+        <v>2.421151761790123</v>
       </c>
       <c r="T17">
-        <v>2.072057678815457</v>
+        <v>2.380734599950403</v>
       </c>
       <c r="U17">
-        <v>2.126519310825973</v>
+        <v>2.56846286921019</v>
       </c>
       <c r="V17">
-        <v>2.386194275353513</v>
+        <v>2.656849533662231</v>
       </c>
       <c r="W17">
-        <v>1.63631441157137</v>
+        <v>1.925518466527986</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.227808819023822</v>
+        <v>3.988194634652569</v>
       </c>
       <c r="D18">
-        <v>1.2039950998712</v>
+        <v>0.2380161568662652</v>
       </c>
       <c r="E18">
-        <v>1.516599498043725</v>
+        <v>8.650012048200418</v>
       </c>
       <c r="F18">
-        <v>1.2039950998712</v>
+        <v>0.2380161568662652</v>
       </c>
       <c r="G18">
-        <v>0.9431671991430293</v>
+        <v>0.4103913078988913</v>
       </c>
       <c r="H18">
-        <v>2.916031385422522</v>
+        <v>1.036257271285743</v>
       </c>
       <c r="I18">
-        <v>0.6752519995415518</v>
+        <v>1.420603880617929</v>
       </c>
       <c r="J18">
-        <v>1.516599498043186</v>
+        <v>8.650012048200413</v>
       </c>
       <c r="K18">
-        <v>1.516599498043186</v>
+        <v>8.650012048200413</v>
       </c>
       <c r="L18">
-        <v>1.207337908641991</v>
+        <v>3.862333348723936</v>
       </c>
       <c r="M18">
-        <v>1.041237615098106</v>
+        <v>1.836078142395709</v>
       </c>
       <c r="N18">
-        <v>1.516599498043186</v>
+        <v>8.650012048200413</v>
       </c>
       <c r="O18">
-        <v>1.227808819023822</v>
+        <v>3.988194634652569</v>
       </c>
       <c r="P18">
-        <v>1.215901959447511</v>
+        <v>2.113105395759417</v>
       </c>
       <c r="Q18">
-        <v>1.217573363832906</v>
+        <v>3.925263991688253</v>
       </c>
       <c r="R18">
-        <v>1.316134472312736</v>
+        <v>4.292074279906416</v>
       </c>
       <c r="S18">
-        <v>1.213047275845671</v>
+        <v>2.696181380080924</v>
       </c>
       <c r="T18">
-        <v>1.316134472312736</v>
+        <v>4.292074279906416</v>
       </c>
       <c r="U18">
-        <v>1.28893533139505</v>
+        <v>4.184639047110796</v>
       </c>
       <c r="V18">
-        <v>1.334468164724677</v>
+        <v>5.07771364732872</v>
       </c>
       <c r="W18">
-        <v>1.341428690598176</v>
+        <v>2.680235848830182</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.40390269403745</v>
+        <v>1.033579402823682</v>
       </c>
       <c r="D19">
-        <v>0.9368766020316223</v>
+        <v>1.037504707033165</v>
       </c>
       <c r="E19">
-        <v>0.7935755577906041</v>
+        <v>1.038643216985685</v>
       </c>
       <c r="F19">
-        <v>0.9368766020316223</v>
+        <v>1.037504707033165</v>
       </c>
       <c r="G19">
-        <v>0.4069564851074315</v>
+        <v>1.014634635624576</v>
       </c>
       <c r="H19">
-        <v>3.739589424199266</v>
+        <v>1.053455952594389</v>
       </c>
       <c r="I19">
-        <v>1.152141956142422</v>
+        <v>1.000169878698252</v>
       </c>
       <c r="J19">
-        <v>0.7935755577911277</v>
+        <v>1.038643216989286</v>
       </c>
       <c r="K19">
-        <v>0.7935755577911277</v>
+        <v>1.038643216989286</v>
       </c>
       <c r="L19">
-        <v>0.9565598304526773</v>
+        <v>1.013282162404102</v>
       </c>
       <c r="M19">
-        <v>0.9063395186956383</v>
+        <v>1.003412188668007</v>
       </c>
       <c r="N19">
-        <v>0.7935755577911277</v>
+        <v>1.038643216989286</v>
       </c>
       <c r="O19">
-        <v>1.40390269403745</v>
+        <v>1.033579402823682</v>
       </c>
       <c r="P19">
-        <v>1.170389648034536</v>
+        <v>1.035542054928424</v>
       </c>
       <c r="Q19">
-        <v>1.180231262245064</v>
+        <v>1.023430782613892</v>
       </c>
       <c r="R19">
-        <v>1.044784951286734</v>
+        <v>1.036575775615378</v>
       </c>
       <c r="S19">
-        <v>1.099113042173917</v>
+        <v>1.02812209075365</v>
       </c>
       <c r="T19">
-        <v>1.044784951286734</v>
+        <v>1.036575775615378</v>
       </c>
       <c r="U19">
-        <v>1.02272867107822</v>
+        <v>1.030752372312559</v>
       </c>
       <c r="V19">
-        <v>0.9768980484208012</v>
+        <v>1.032330541247904</v>
       </c>
       <c r="W19">
-        <v>1.286992758557205</v>
+        <v>1.024335268104433</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.056096556526297</v>
+        <v>1.014517744592031</v>
       </c>
       <c r="D20">
-        <v>1.060647262895905</v>
+        <v>1.051785790846776</v>
       </c>
       <c r="E20">
-        <v>0.9743662359092231</v>
+        <v>1.106383251898062</v>
       </c>
       <c r="F20">
-        <v>1.060647262895905</v>
+        <v>1.051785790846776</v>
       </c>
       <c r="G20">
-        <v>1.01042668294922</v>
+        <v>1.006392477017235</v>
       </c>
       <c r="H20">
-        <v>1.045170445792013</v>
+        <v>1.110347579553943</v>
       </c>
       <c r="I20">
-        <v>1.005714051588627</v>
+        <v>0.9882826182943537</v>
       </c>
       <c r="J20">
-        <v>0.9743662359127752</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="K20">
-        <v>0.9743662359127752</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="L20">
-        <v>0.9935902146781747</v>
+        <v>1.019328635568353</v>
       </c>
       <c r="M20">
-        <v>1.006423895015881</v>
+        <v>0.9947097323164182</v>
       </c>
       <c r="N20">
-        <v>0.9743662359127752</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="O20">
-        <v>1.056096556526297</v>
+        <v>1.014517744592031</v>
       </c>
       <c r="P20">
-        <v>1.058371909711101</v>
+        <v>1.033151767719403</v>
       </c>
       <c r="Q20">
-        <v>1.024843385602236</v>
+        <v>1.016923190080192</v>
       </c>
       <c r="R20">
-        <v>1.030370018444992</v>
+        <v>1.057562262446834</v>
       </c>
       <c r="S20">
-        <v>1.036778011366792</v>
+        <v>1.028544057002387</v>
       </c>
       <c r="T20">
-        <v>1.030370018444992</v>
+        <v>1.057562262446834</v>
       </c>
       <c r="U20">
-        <v>1.021175067503288</v>
+        <v>1.048003855727214</v>
       </c>
       <c r="V20">
-        <v>1.011813301185186</v>
+        <v>1.05967973496211</v>
       </c>
       <c r="W20">
-        <v>1.019054418169862</v>
+        <v>1.036468478761351</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9495756219658972</v>
+        <v>1.046379338131895</v>
       </c>
       <c r="D21">
-        <v>1.056684527317157</v>
+        <v>1.006092483108016</v>
       </c>
       <c r="E21">
-        <v>1.085504327332246</v>
+        <v>1.396048572253197</v>
       </c>
       <c r="F21">
-        <v>1.056684527317157</v>
+        <v>1.006092483108016</v>
       </c>
       <c r="G21">
-        <v>1.006390302368491</v>
+        <v>0.9578357485896015</v>
       </c>
       <c r="H21">
-        <v>1.042096977754617</v>
+        <v>1.109549942812568</v>
       </c>
       <c r="I21">
-        <v>0.9860907082035871</v>
+        <v>0.970205382835066</v>
       </c>
       <c r="J21">
-        <v>1.085504327335735</v>
+        <v>1.396048572256616</v>
       </c>
       <c r="K21">
-        <v>1.085504327335735</v>
+        <v>1.396048572256616</v>
       </c>
       <c r="L21">
-        <v>1.066087065374461</v>
+        <v>1.007555579547358</v>
       </c>
       <c r="M21">
-        <v>1.035080524254573</v>
+        <v>0.9928285939472083</v>
       </c>
       <c r="N21">
-        <v>1.085504327335735</v>
+        <v>1.396048572256616</v>
       </c>
       <c r="O21">
-        <v>0.9495756219658972</v>
+        <v>1.046379338131895</v>
       </c>
       <c r="P21">
-        <v>1.003130074641527</v>
+        <v>1.026235910619956</v>
       </c>
       <c r="Q21">
-        <v>1.007831343670179</v>
+        <v>1.026967458839626</v>
       </c>
       <c r="R21">
-        <v>1.03058815887293</v>
+        <v>1.149506797832176</v>
       </c>
       <c r="S21">
-        <v>1.024115738219172</v>
+        <v>1.020009133595756</v>
       </c>
       <c r="T21">
-        <v>1.03058815887293</v>
+        <v>1.149506797832176</v>
       </c>
       <c r="U21">
-        <v>1.039462885498313</v>
+        <v>1.114018993260971</v>
       </c>
       <c r="V21">
-        <v>1.048671173865797</v>
+        <v>1.1704249090601</v>
       </c>
       <c r="W21">
-        <v>1.028438756821815</v>
+        <v>1.060811955153541</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.074949689791626</v>
+        <v>0.9411510820809278</v>
       </c>
       <c r="D22">
-        <v>0.4832564512428805</v>
+        <v>0.9645980012888387</v>
       </c>
       <c r="E22">
-        <v>2.247151824794885</v>
+        <v>1.562684485968942</v>
       </c>
       <c r="F22">
-        <v>0.4832564512428805</v>
+        <v>0.9645980012888387</v>
       </c>
       <c r="G22">
-        <v>1.390915578592616</v>
+        <v>1.082148445465822</v>
       </c>
       <c r="H22">
-        <v>1.205330086165636</v>
+        <v>1.250657677381048</v>
       </c>
       <c r="I22">
-        <v>1.009712667299083</v>
+        <v>0.9597362077005038</v>
       </c>
       <c r="J22">
-        <v>2.247151824794094</v>
+        <v>1.562684485971091</v>
       </c>
       <c r="K22">
-        <v>2.247151824794094</v>
+        <v>1.562684485971091</v>
       </c>
       <c r="L22">
-        <v>1.53419836228764</v>
+        <v>1.210266438869656</v>
       </c>
       <c r="M22">
-        <v>0.9237500161009684</v>
+        <v>1.038656474813067</v>
       </c>
       <c r="N22">
-        <v>2.247151824794094</v>
+        <v>1.562684485971091</v>
       </c>
       <c r="O22">
-        <v>1.074949689791626</v>
+        <v>0.9411510820809278</v>
       </c>
       <c r="P22">
-        <v>0.7791030705172532</v>
+        <v>0.9528745416848832</v>
       </c>
       <c r="Q22">
-        <v>1.304574026039633</v>
+        <v>1.075708760475292</v>
       </c>
       <c r="R22">
-        <v>1.2684526552762</v>
+        <v>1.156144523113619</v>
       </c>
       <c r="S22">
-        <v>1.030801501107382</v>
+        <v>1.038671840746474</v>
       </c>
       <c r="T22">
-        <v>1.2684526552762</v>
+        <v>1.156144523113619</v>
       </c>
       <c r="U22">
-        <v>1.33488908202906</v>
+        <v>1.169675002052629</v>
       </c>
       <c r="V22">
-        <v>1.517341630582067</v>
+        <v>1.248276898836321</v>
       </c>
       <c r="W22">
-        <v>1.233658084534318</v>
+        <v>1.12623735169637</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.008313155317181</v>
+      </c>
+      <c r="D23">
+        <v>1.87261280206042</v>
+      </c>
+      <c r="E23">
+        <v>2.831665231313699</v>
+      </c>
+      <c r="F23">
+        <v>1.87261280206042</v>
+      </c>
+      <c r="G23">
+        <v>1.04107888526024</v>
+      </c>
+      <c r="H23">
+        <v>1.457311469306154</v>
+      </c>
+      <c r="I23">
+        <v>1.256881746130271</v>
+      </c>
+      <c r="J23">
+        <v>2.831665231323008</v>
+      </c>
+      <c r="K23">
+        <v>2.831665231323008</v>
+      </c>
+      <c r="L23">
+        <v>1.258647532121587</v>
+      </c>
+      <c r="M23">
+        <v>0.9275305319680234</v>
+      </c>
+      <c r="N23">
+        <v>2.831665231323008</v>
+      </c>
+      <c r="O23">
+        <v>1.008313155317181</v>
+      </c>
+      <c r="P23">
+        <v>1.440462978688801</v>
+      </c>
+      <c r="Q23">
+        <v>1.133480343719384</v>
+      </c>
+      <c r="R23">
+        <v>1.904197062900203</v>
+      </c>
+      <c r="S23">
+        <v>1.379857829833063</v>
+      </c>
+      <c r="T23">
+        <v>1.904197062900203</v>
+      </c>
+      <c r="U23">
+        <v>1.742809680205549</v>
+      </c>
+      <c r="V23">
+        <v>1.960580790429041</v>
+      </c>
+      <c r="W23">
+        <v>1.45675516918586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.0002878808757884235</v>
+      </c>
+      <c r="D24">
+        <v>0.0005321790215116628</v>
+      </c>
+      <c r="E24">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="F24">
+        <v>0.0005321790215116628</v>
+      </c>
+      <c r="G24">
+        <v>1.918477202137383</v>
+      </c>
+      <c r="H24">
+        <v>1.399331837347491</v>
+      </c>
+      <c r="I24">
+        <v>2.508918383184844</v>
+      </c>
+      <c r="J24">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="K24">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="L24">
+        <v>1.612403044375189</v>
+      </c>
+      <c r="M24">
+        <v>0.1412820554661308</v>
+      </c>
+      <c r="N24">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="O24">
+        <v>0.0002878808757884235</v>
+      </c>
+      <c r="P24">
+        <v>0.0004100299486500432</v>
+      </c>
+      <c r="Q24">
+        <v>0.8063454626254888</v>
+      </c>
+      <c r="R24">
+        <v>-0.0002461963320074224</v>
+      </c>
+      <c r="S24">
+        <v>0.5377410347574964</v>
+      </c>
+      <c r="T24">
+        <v>-0.0002461963320074224</v>
+      </c>
+      <c r="U24">
+        <v>0.4029161138447917</v>
+      </c>
+      <c r="V24">
+        <v>0.3220211612971689</v>
+      </c>
+      <c r="W24">
+        <v>0.947459241689377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>3.102638498111983</v>
+      </c>
+      <c r="D25">
+        <v>4.26683228701516</v>
+      </c>
+      <c r="E25">
+        <v>3.155365551851069</v>
+      </c>
+      <c r="F25">
+        <v>4.26683228701516</v>
+      </c>
+      <c r="G25">
+        <v>1.310737099070905</v>
+      </c>
+      <c r="H25">
+        <v>0.02000191212358884</v>
+      </c>
+      <c r="I25">
+        <v>1.059743902438571</v>
+      </c>
+      <c r="J25">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="K25">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="L25">
+        <v>0.4520445183199169</v>
+      </c>
+      <c r="M25">
+        <v>0.8681926278170161</v>
+      </c>
+      <c r="N25">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="O25">
+        <v>3.102638498111983</v>
+      </c>
+      <c r="P25">
+        <v>3.684735392563572</v>
+      </c>
+      <c r="Q25">
+        <v>1.77734150821595</v>
+      </c>
+      <c r="R25">
+        <v>3.50827877899373</v>
+      </c>
+      <c r="S25">
+        <v>2.607171767815687</v>
+      </c>
+      <c r="T25">
+        <v>3.508278778993729</v>
+      </c>
+      <c r="U25">
+        <v>2.744220213825276</v>
+      </c>
+      <c r="V25">
+        <v>2.826449281431031</v>
+      </c>
+      <c r="W25">
+        <v>1.779444549593898</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.2934870853603606</v>
+      </c>
+      <c r="D26">
+        <v>-0.0004954784549887927</v>
+      </c>
+      <c r="E26">
+        <v>-0.0004101383101088951</v>
+      </c>
+      <c r="F26">
+        <v>-0.0004954784549887927</v>
+      </c>
+      <c r="G26">
+        <v>0.9931425163368653</v>
+      </c>
+      <c r="H26">
+        <v>0.001281512401697156</v>
+      </c>
+      <c r="I26">
+        <v>-0.0009637956398396606</v>
+      </c>
+      <c r="J26">
+        <v>-0.0004101383104618379</v>
+      </c>
+      <c r="K26">
+        <v>-0.0004101383104618379</v>
+      </c>
+      <c r="L26">
+        <v>0.002225280171486818</v>
+      </c>
+      <c r="M26">
+        <v>2.290525657679574</v>
+      </c>
+      <c r="N26">
+        <v>-0.0004101383104618379</v>
+      </c>
+      <c r="O26">
+        <v>0.2934870853603606</v>
+      </c>
+      <c r="P26">
+        <v>0.1464958034526859</v>
+      </c>
+      <c r="Q26">
+        <v>0.1478561827659237</v>
+      </c>
+      <c r="R26">
+        <v>0.09752715619830331</v>
+      </c>
+      <c r="S26">
+        <v>0.09840562902561951</v>
+      </c>
+      <c r="T26">
+        <v>0.09752715619830331</v>
+      </c>
+      <c r="U26">
+        <v>0.07370168719159918</v>
+      </c>
+      <c r="V26">
+        <v>0.05887932209118698</v>
+      </c>
+      <c r="W26">
+        <v>0.4473490799430866</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>-0.001287746089728106</v>
+      </c>
+      <c r="D27">
+        <v>0.001239198148660105</v>
+      </c>
+      <c r="E27">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="F27">
+        <v>0.001239198148660105</v>
+      </c>
+      <c r="G27">
+        <v>0.431775385780092</v>
+      </c>
+      <c r="H27">
+        <v>2.673485078867889</v>
+      </c>
+      <c r="I27">
+        <v>0.3076092867992351</v>
+      </c>
+      <c r="J27">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="K27">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="L27">
+        <v>1.985218897570126</v>
+      </c>
+      <c r="M27">
+        <v>0.007078081047542492</v>
+      </c>
+      <c r="N27">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="O27">
+        <v>-0.001287746089728106</v>
+      </c>
+      <c r="P27">
+        <v>-2.427397053400072E-05</v>
+      </c>
+      <c r="Q27">
+        <v>0.9919655757401992</v>
+      </c>
+      <c r="R27">
+        <v>0.3002320611223059</v>
+      </c>
+      <c r="S27">
+        <v>0.6617234498763528</v>
+      </c>
+      <c r="T27">
+        <v>0.3002320611223059</v>
+      </c>
+      <c r="U27">
+        <v>0.721478770234261</v>
+      </c>
+      <c r="V27">
+        <v>0.7573319624490059</v>
+      </c>
+      <c r="W27">
+        <v>0.7882328641789753</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>3.074889301342492</v>
+      </c>
+      <c r="D28">
+        <v>0.2170055124597387</v>
+      </c>
+      <c r="E28">
+        <v>4.535695019892656</v>
+      </c>
+      <c r="F28">
+        <v>0.2170055124597387</v>
+      </c>
+      <c r="G28">
+        <v>2.99995749511987</v>
+      </c>
+      <c r="H28">
+        <v>0.6738583675267908</v>
+      </c>
+      <c r="I28">
+        <v>0.2206199707137725</v>
+      </c>
+      <c r="J28">
+        <v>4.535695019893368</v>
+      </c>
+      <c r="K28">
+        <v>4.535695019893368</v>
+      </c>
+      <c r="L28">
+        <v>2.911051737394021</v>
+      </c>
+      <c r="M28">
+        <v>0.233583928138688</v>
+      </c>
+      <c r="N28">
+        <v>4.535695019893368</v>
+      </c>
+      <c r="O28">
+        <v>3.074889301342492</v>
+      </c>
+      <c r="P28">
+        <v>1.645947406901115</v>
+      </c>
+      <c r="Q28">
+        <v>2.992970519368256</v>
+      </c>
+      <c r="R28">
+        <v>2.609196611231866</v>
+      </c>
+      <c r="S28">
+        <v>2.06764885039875</v>
+      </c>
+      <c r="T28">
+        <v>2.609196611231866</v>
+      </c>
+      <c r="U28">
+        <v>2.684660392772405</v>
+      </c>
+      <c r="V28">
+        <v>3.054867318196597</v>
+      </c>
+      <c r="W28">
+        <v>1.858332666573593</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>2.35783966512614</v>
+      </c>
+      <c r="D29">
+        <v>0.4334392378565549</v>
+      </c>
+      <c r="E29">
+        <v>3.424894133462255</v>
+      </c>
+      <c r="F29">
+        <v>0.4334392378565549</v>
+      </c>
+      <c r="G29">
+        <v>2.298911688340438</v>
+      </c>
+      <c r="H29">
+        <v>1.378676357760988</v>
+      </c>
+      <c r="I29">
+        <v>0.4380299483471544</v>
+      </c>
+      <c r="J29">
+        <v>3.424894133463676</v>
+      </c>
+      <c r="K29">
+        <v>3.424894133463676</v>
+      </c>
+      <c r="L29">
+        <v>2.28990420685752</v>
+      </c>
+      <c r="M29">
+        <v>0.4688200548184876</v>
+      </c>
+      <c r="N29">
+        <v>3.424894133463676</v>
+      </c>
+      <c r="O29">
+        <v>2.35783966512614</v>
+      </c>
+      <c r="P29">
+        <v>1.395639451491347</v>
+      </c>
+      <c r="Q29">
+        <v>2.32387193599183</v>
+      </c>
+      <c r="R29">
+        <v>2.072057678815457</v>
+      </c>
+      <c r="S29">
+        <v>1.693727703280071</v>
+      </c>
+      <c r="T29">
+        <v>2.072057678815457</v>
+      </c>
+      <c r="U29">
+        <v>2.126519310825973</v>
+      </c>
+      <c r="V29">
+        <v>2.386194275353513</v>
+      </c>
+      <c r="W29">
+        <v>1.63631441157137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.227808819023822</v>
+      </c>
+      <c r="D30">
+        <v>1.2039950998712</v>
+      </c>
+      <c r="E30">
+        <v>1.516599498043725</v>
+      </c>
+      <c r="F30">
+        <v>1.2039950998712</v>
+      </c>
+      <c r="G30">
+        <v>0.9431671991430293</v>
+      </c>
+      <c r="H30">
+        <v>2.916031385422522</v>
+      </c>
+      <c r="I30">
+        <v>0.6752519995415518</v>
+      </c>
+      <c r="J30">
+        <v>1.516599498043186</v>
+      </c>
+      <c r="K30">
+        <v>1.516599498043186</v>
+      </c>
+      <c r="L30">
+        <v>1.207337908641991</v>
+      </c>
+      <c r="M30">
+        <v>1.041237615098106</v>
+      </c>
+      <c r="N30">
+        <v>1.516599498043186</v>
+      </c>
+      <c r="O30">
+        <v>1.227808819023822</v>
+      </c>
+      <c r="P30">
+        <v>1.215901959447511</v>
+      </c>
+      <c r="Q30">
+        <v>1.217573363832906</v>
+      </c>
+      <c r="R30">
+        <v>1.316134472312736</v>
+      </c>
+      <c r="S30">
+        <v>1.213047275845671</v>
+      </c>
+      <c r="T30">
+        <v>1.316134472312736</v>
+      </c>
+      <c r="U30">
+        <v>1.28893533139505</v>
+      </c>
+      <c r="V30">
+        <v>1.334468164724677</v>
+      </c>
+      <c r="W30">
+        <v>1.341428690598176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.40390269403745</v>
+      </c>
+      <c r="D31">
+        <v>0.9368766020316223</v>
+      </c>
+      <c r="E31">
+        <v>0.7935755577906041</v>
+      </c>
+      <c r="F31">
+        <v>0.9368766020316223</v>
+      </c>
+      <c r="G31">
+        <v>0.4069564851074315</v>
+      </c>
+      <c r="H31">
+        <v>3.739589424199266</v>
+      </c>
+      <c r="I31">
+        <v>1.152141956142422</v>
+      </c>
+      <c r="J31">
+        <v>0.7935755577911277</v>
+      </c>
+      <c r="K31">
+        <v>0.7935755577911277</v>
+      </c>
+      <c r="L31">
+        <v>0.9565598304526773</v>
+      </c>
+      <c r="M31">
+        <v>0.9063395186956383</v>
+      </c>
+      <c r="N31">
+        <v>0.7935755577911277</v>
+      </c>
+      <c r="O31">
+        <v>1.40390269403745</v>
+      </c>
+      <c r="P31">
+        <v>1.170389648034536</v>
+      </c>
+      <c r="Q31">
+        <v>1.180231262245064</v>
+      </c>
+      <c r="R31">
+        <v>1.044784951286734</v>
+      </c>
+      <c r="S31">
+        <v>1.099113042173917</v>
+      </c>
+      <c r="T31">
+        <v>1.044784951286734</v>
+      </c>
+      <c r="U31">
+        <v>1.02272867107822</v>
+      </c>
+      <c r="V31">
+        <v>0.9768980484208012</v>
+      </c>
+      <c r="W31">
+        <v>1.286992758557205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>3.738881740999999</v>
+      </c>
+      <c r="D32">
+        <v>0.000226438049808219</v>
+      </c>
+      <c r="E32">
+        <v>8.091175504154522</v>
+      </c>
+      <c r="F32">
+        <v>0.000226438049808219</v>
+      </c>
+      <c r="G32">
+        <v>3.649263746486028</v>
+      </c>
+      <c r="H32">
+        <v>0.00231473977260274</v>
+      </c>
+      <c r="I32">
+        <v>0.002726924207671234</v>
+      </c>
+      <c r="J32">
+        <v>8.091175504154517</v>
+      </c>
+      <c r="K32">
+        <v>8.091175504154517</v>
+      </c>
+      <c r="L32">
+        <v>3.482530116209726</v>
+      </c>
+      <c r="M32">
+        <v>-0.002075676626356165</v>
+      </c>
+      <c r="N32">
+        <v>8.091175504154517</v>
+      </c>
+      <c r="O32">
+        <v>3.738881740999999</v>
+      </c>
+      <c r="P32">
+        <v>1.869554089524904</v>
+      </c>
+      <c r="Q32">
+        <v>3.610705928604863</v>
+      </c>
+      <c r="R32">
+        <v>3.943427894401442</v>
+      </c>
+      <c r="S32">
+        <v>2.407212765086511</v>
+      </c>
+      <c r="T32">
+        <v>3.943427894401442</v>
+      </c>
+      <c r="U32">
+        <v>3.828203449853513</v>
+      </c>
+      <c r="V32">
+        <v>4.680797860713714</v>
+      </c>
+      <c r="W32">
+        <v>2.37063044165675</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>13.95229603842105</v>
+      </c>
+      <c r="D33">
+        <v>0.007059826633157896</v>
+      </c>
+      <c r="E33">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="F33">
+        <v>0.007059826633157896</v>
+      </c>
+      <c r="G33">
+        <v>0.0002176367000000002</v>
+      </c>
+      <c r="H33">
+        <v>6.978976370100002</v>
+      </c>
+      <c r="I33">
+        <v>-9.935083421052587E-05</v>
+      </c>
+      <c r="J33">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="K33">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="L33">
+        <v>-0.004860329189473682</v>
+      </c>
+      <c r="M33">
+        <v>0.01755527272105263</v>
+      </c>
+      <c r="N33">
+        <v>0.008372614442105264</v>
+      </c>
+      <c r="O33">
+        <v>13.95229603842105</v>
+      </c>
+      <c r="P33">
+        <v>6.979677932527106</v>
+      </c>
+      <c r="Q33">
+        <v>6.97371785461579</v>
+      </c>
+      <c r="R33">
+        <v>4.655909493165439</v>
+      </c>
+      <c r="S33">
+        <v>4.651498511954913</v>
+      </c>
+      <c r="T33">
+        <v>4.655909493165439</v>
+      </c>
+      <c r="U33">
+        <v>3.490717037576711</v>
+      </c>
+      <c r="V33">
+        <v>2.79424815294979</v>
+      </c>
+      <c r="W33">
+        <v>2.619939759874211</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>3.577001580094211</v>
+      </c>
+      <c r="D34">
+        <v>7.154208099047896</v>
+      </c>
+      <c r="E34">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="F34">
+        <v>7.154208099047896</v>
+      </c>
+      <c r="G34">
+        <v>-0.0009784198978947365</v>
+      </c>
+      <c r="H34">
+        <v>5.160669539427897</v>
+      </c>
+      <c r="I34">
+        <v>3.497465867389473</v>
+      </c>
+      <c r="J34">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="K34">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="L34">
+        <v>3.56903923518579</v>
+      </c>
+      <c r="M34">
+        <v>3.297473325983632</v>
+      </c>
+      <c r="N34">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="O34">
+        <v>3.577001580094211</v>
+      </c>
+      <c r="P34">
+        <v>5.365604839571054</v>
+      </c>
+      <c r="Q34">
+        <v>3.573020407640001</v>
+      </c>
+      <c r="R34">
+        <v>8.739145701185615</v>
+      </c>
+      <c r="S34">
+        <v>4.766749638109299</v>
+      </c>
+      <c r="T34">
+        <v>8.739145701185615</v>
+      </c>
+      <c r="U34">
+        <v>7.446619084685659</v>
+      </c>
+      <c r="V34">
+        <v>9.054540752631477</v>
+      </c>
+      <c r="W34">
+        <v>5.217638331455718</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.4145937169786352</v>
+      </c>
+      <c r="D35">
+        <v>0.4664360439529857</v>
+      </c>
+      <c r="E35">
+        <v>0.4945717507279332</v>
+      </c>
+      <c r="F35">
+        <v>0.4664360439529857</v>
+      </c>
+      <c r="G35">
+        <v>0.4847227818216826</v>
+      </c>
+      <c r="H35">
+        <v>31.61001910748393</v>
+      </c>
+      <c r="I35">
+        <v>0.4106394866965835</v>
+      </c>
+      <c r="J35">
+        <v>0.4945717507286558</v>
+      </c>
+      <c r="K35">
+        <v>0.4945717507286558</v>
+      </c>
+      <c r="L35">
+        <v>0.5036086237084888</v>
+      </c>
+      <c r="M35">
+        <v>0.4668412750157176</v>
+      </c>
+      <c r="N35">
+        <v>0.4945717507286558</v>
+      </c>
+      <c r="O35">
+        <v>0.4145937169786352</v>
+      </c>
+      <c r="P35">
+        <v>0.4405148804658104</v>
+      </c>
+      <c r="Q35">
+        <v>0.459101170343562</v>
+      </c>
+      <c r="R35">
+        <v>0.4585338372200922</v>
+      </c>
+      <c r="S35">
+        <v>0.4615461282133699</v>
+      </c>
+      <c r="T35">
+        <v>0.4585338372200922</v>
+      </c>
+      <c r="U35">
+        <v>0.4698025338421914</v>
+      </c>
+      <c r="V35">
+        <v>0.4747563772194843</v>
+      </c>
+      <c r="W35">
+        <v>4.356429098298334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.056096556526297</v>
+      </c>
+      <c r="D36">
+        <v>1.060647262895905</v>
+      </c>
+      <c r="E36">
+        <v>0.9743662359092231</v>
+      </c>
+      <c r="F36">
+        <v>1.060647262895905</v>
+      </c>
+      <c r="G36">
+        <v>1.01042668294922</v>
+      </c>
+      <c r="H36">
+        <v>1.045170445792013</v>
+      </c>
+      <c r="I36">
+        <v>1.005714051588627</v>
+      </c>
+      <c r="J36">
+        <v>0.9743662359127752</v>
+      </c>
+      <c r="K36">
+        <v>0.9743662359127752</v>
+      </c>
+      <c r="L36">
+        <v>0.9935902146781747</v>
+      </c>
+      <c r="M36">
+        <v>1.006423895015881</v>
+      </c>
+      <c r="N36">
+        <v>0.9743662359127752</v>
+      </c>
+      <c r="O36">
+        <v>1.056096556526297</v>
+      </c>
+      <c r="P36">
+        <v>1.058371909711101</v>
+      </c>
+      <c r="Q36">
+        <v>1.024843385602236</v>
+      </c>
+      <c r="R36">
+        <v>1.030370018444992</v>
+      </c>
+      <c r="S36">
+        <v>1.036778011366792</v>
+      </c>
+      <c r="T36">
+        <v>1.030370018444992</v>
+      </c>
+      <c r="U36">
+        <v>1.021175067503288</v>
+      </c>
+      <c r="V36">
+        <v>1.011813301185186</v>
+      </c>
+      <c r="W36">
+        <v>1.019054418169862</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9495756219658972</v>
+      </c>
+      <c r="D37">
+        <v>1.056684527317157</v>
+      </c>
+      <c r="E37">
+        <v>1.085504327332246</v>
+      </c>
+      <c r="F37">
+        <v>1.056684527317157</v>
+      </c>
+      <c r="G37">
+        <v>1.006390302368491</v>
+      </c>
+      <c r="H37">
+        <v>1.042096977754617</v>
+      </c>
+      <c r="I37">
+        <v>0.9860907082035871</v>
+      </c>
+      <c r="J37">
+        <v>1.085504327335735</v>
+      </c>
+      <c r="K37">
+        <v>1.085504327335735</v>
+      </c>
+      <c r="L37">
+        <v>1.066087065374461</v>
+      </c>
+      <c r="M37">
+        <v>1.035080524254573</v>
+      </c>
+      <c r="N37">
+        <v>1.085504327335735</v>
+      </c>
+      <c r="O37">
+        <v>0.9495756219658972</v>
+      </c>
+      <c r="P37">
+        <v>1.003130074641527</v>
+      </c>
+      <c r="Q37">
+        <v>1.007831343670179</v>
+      </c>
+      <c r="R37">
+        <v>1.03058815887293</v>
+      </c>
+      <c r="S37">
+        <v>1.024115738219172</v>
+      </c>
+      <c r="T37">
+        <v>1.03058815887293</v>
+      </c>
+      <c r="U37">
+        <v>1.039462885498313</v>
+      </c>
+      <c r="V37">
+        <v>1.048671173865797</v>
+      </c>
+      <c r="W37">
+        <v>1.028438756821815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.074949689791626</v>
+      </c>
+      <c r="D38">
+        <v>0.4832564512428805</v>
+      </c>
+      <c r="E38">
+        <v>2.247151824794885</v>
+      </c>
+      <c r="F38">
+        <v>0.4832564512428805</v>
+      </c>
+      <c r="G38">
+        <v>1.390915578592616</v>
+      </c>
+      <c r="H38">
+        <v>1.205330086165636</v>
+      </c>
+      <c r="I38">
+        <v>1.009712667299083</v>
+      </c>
+      <c r="J38">
+        <v>2.247151824794094</v>
+      </c>
+      <c r="K38">
+        <v>2.247151824794094</v>
+      </c>
+      <c r="L38">
+        <v>1.53419836228764</v>
+      </c>
+      <c r="M38">
+        <v>0.9237500161009684</v>
+      </c>
+      <c r="N38">
+        <v>2.247151824794094</v>
+      </c>
+      <c r="O38">
+        <v>1.074949689791626</v>
+      </c>
+      <c r="P38">
+        <v>0.7791030705172532</v>
+      </c>
+      <c r="Q38">
+        <v>1.304574026039633</v>
+      </c>
+      <c r="R38">
+        <v>1.2684526552762</v>
+      </c>
+      <c r="S38">
+        <v>1.030801501107382</v>
+      </c>
+      <c r="T38">
+        <v>1.2684526552762</v>
+      </c>
+      <c r="U38">
+        <v>1.33488908202906</v>
+      </c>
+      <c r="V38">
+        <v>1.517341630582067</v>
+      </c>
+      <c r="W38">
+        <v>1.233658084534318</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.25510251058418</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.4007688660315163</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.3724578728423623</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.4007688660315163</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.06480741334619</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.313694540956959</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.089563104097887</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.3724578728422967</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.3724578728422967</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.396714630984028</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.033806362979016</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.3724578728422967</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.25510251058418</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.8279356883078481</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.325908570784104</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.676109749819331</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.017528669199908</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.676109749819331</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.8562609701105053</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.7595003506568636</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.990864412727759</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>2.369958062308037</v>
+      </c>
+      <c r="D40">
+        <v>0.8594122836672572</v>
+      </c>
+      <c r="E40">
+        <v>0.8693376660888269</v>
+      </c>
+      <c r="F40">
+        <v>0.8594122836672572</v>
+      </c>
+      <c r="G40">
+        <v>0.9525994872551126</v>
+      </c>
+      <c r="H40">
+        <v>0.9755226658197711</v>
+      </c>
+      <c r="I40">
+        <v>0.8359563283768826</v>
+      </c>
+      <c r="J40">
+        <v>0.8693376660911237</v>
+      </c>
+      <c r="K40">
+        <v>0.8693376660911237</v>
+      </c>
+      <c r="L40">
+        <v>0.8776331672277068</v>
+      </c>
+      <c r="M40">
+        <v>1.119352284345038</v>
+      </c>
+      <c r="N40">
+        <v>0.8693376660911237</v>
+      </c>
+      <c r="O40">
+        <v>2.369958062308037</v>
+      </c>
+      <c r="P40">
+        <v>1.614685172987647</v>
+      </c>
+      <c r="Q40">
+        <v>1.623795614767872</v>
+      </c>
+      <c r="R40">
+        <v>1.366236004022139</v>
+      </c>
+      <c r="S40">
+        <v>1.369001171067667</v>
+      </c>
+      <c r="T40">
+        <v>1.366236004022139</v>
+      </c>
+      <c r="U40">
+        <v>1.244085294823531</v>
+      </c>
+      <c r="V40">
+        <v>1.169135769077049</v>
+      </c>
+      <c r="W40">
+        <v>1.107471493136366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.8065547102679688</v>
+      </c>
+      <c r="D41">
+        <v>1.576140620142537</v>
+      </c>
+      <c r="E41">
+        <v>0.9786156366374592</v>
+      </c>
+      <c r="F41">
+        <v>1.576140620142537</v>
+      </c>
+      <c r="G41">
+        <v>0.9867317183538004</v>
+      </c>
+      <c r="H41">
+        <v>1.020235225751315</v>
+      </c>
+      <c r="I41">
+        <v>1.304442745917148</v>
+      </c>
+      <c r="J41">
+        <v>0.9786156366427404</v>
+      </c>
+      <c r="K41">
+        <v>0.9786156366427404</v>
+      </c>
+      <c r="L41">
+        <v>1.128923093858294</v>
+      </c>
+      <c r="M41">
+        <v>0.92385456672694</v>
+      </c>
+      <c r="N41">
+        <v>0.9786156366427404</v>
+      </c>
+      <c r="O41">
+        <v>0.8065547102679688</v>
+      </c>
+      <c r="P41">
+        <v>1.191347665205253</v>
+      </c>
+      <c r="Q41">
+        <v>0.9677389020631313</v>
+      </c>
+      <c r="R41">
+        <v>1.120436989017749</v>
+      </c>
+      <c r="S41">
+        <v>1.170539474756266</v>
+      </c>
+      <c r="T41">
+        <v>1.120436989017749</v>
+      </c>
+      <c r="U41">
+        <v>1.122558515227885</v>
+      </c>
+      <c r="V41">
+        <v>1.093769939510856</v>
+      </c>
+      <c r="W41">
+        <v>1.090687289707593</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>2.461012045451967</v>
+      </c>
+      <c r="D42">
+        <v>0.5327992479365393</v>
+      </c>
+      <c r="E42">
+        <v>0.4910625149019386</v>
+      </c>
+      <c r="F42">
+        <v>0.5327992479365393</v>
+      </c>
+      <c r="G42">
+        <v>1.001468242228724</v>
+      </c>
+      <c r="H42">
+        <v>1.058388245560934</v>
+      </c>
+      <c r="I42">
+        <v>0.8896136724049151</v>
+      </c>
+      <c r="J42">
+        <v>0.4910625149016282</v>
+      </c>
+      <c r="K42">
+        <v>0.4910625149016282</v>
+      </c>
+      <c r="L42">
+        <v>1.069518902390678</v>
+      </c>
+      <c r="M42">
+        <v>0.9504996276529285</v>
+      </c>
+      <c r="N42">
+        <v>0.4910625149016282</v>
+      </c>
+      <c r="O42">
+        <v>2.461012045451967</v>
+      </c>
+      <c r="P42">
+        <v>1.496905646694253</v>
+      </c>
+      <c r="Q42">
+        <v>1.765265473921322</v>
+      </c>
+      <c r="R42">
+        <v>1.161624602763378</v>
+      </c>
+      <c r="S42">
+        <v>1.354443398593062</v>
+      </c>
+      <c r="T42">
+        <v>1.161624602763378</v>
+      </c>
+      <c r="U42">
+        <v>1.138598177670203</v>
+      </c>
+      <c r="V42">
+        <v>1.009091045116488</v>
+      </c>
+      <c r="W42">
+        <v>1.056795312316039</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
     <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -570,67 +600,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,67 +671,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.254904162106821</v>
+        <v>1.014517744592031</v>
       </c>
       <c r="D3">
-        <v>1.041819150097932</v>
+        <v>1.051785790846776</v>
       </c>
       <c r="E3">
-        <v>1.153355517735436</v>
+        <v>1.106383251898062</v>
       </c>
       <c r="F3">
-        <v>1.254904162106821</v>
+        <v>1.051785790846776</v>
       </c>
       <c r="G3">
-        <v>1.153853489156929</v>
+        <v>1.006392477017235</v>
       </c>
       <c r="H3">
-        <v>0.9618382911758905</v>
+        <v>1.110347579553943</v>
       </c>
       <c r="I3">
-        <v>1.254904162103836</v>
+        <v>0.9882826182943537</v>
       </c>
       <c r="J3">
-        <v>1.041819150097932</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="K3">
-        <v>1.118992531828373</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="L3">
-        <v>1.042864892498748</v>
+        <v>1.019328635568353</v>
       </c>
       <c r="M3">
-        <v>0.9517103594970802</v>
+        <v>0.9947097323164182</v>
       </c>
       <c r="N3">
-        <v>1.254904162106821</v>
+        <v>1.106383251901694</v>
       </c>
       <c r="O3">
-        <v>1.153355517735436</v>
+        <v>1.014517744592031</v>
       </c>
       <c r="P3">
-        <v>1.097587333916684</v>
+        <v>1.033151767719403</v>
       </c>
       <c r="Q3">
-        <v>1.153604503446182</v>
+        <v>1.016923190080192</v>
       </c>
       <c r="R3">
-        <v>1.150026276646729</v>
+        <v>1.057562262446834</v>
       </c>
       <c r="S3">
-        <v>1.116342718996765</v>
+        <v>1.028544057002387</v>
       </c>
       <c r="T3">
-        <v>1.150026276646729</v>
+        <v>1.057562262446834</v>
       </c>
       <c r="U3">
-        <v>1.150983079774279</v>
+        <v>1.048003855727214</v>
       </c>
       <c r="V3">
-        <v>1.171767296240787</v>
+        <v>1.05967973496211</v>
       </c>
       <c r="W3">
-        <v>1.084917299262151</v>
+        <v>1.036468478761351</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,67 +742,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.599407088509199</v>
+        <v>2.369958062308037</v>
       </c>
       <c r="D4">
-        <v>1.196759479870286</v>
+        <v>0.8594122836672572</v>
       </c>
       <c r="E4">
-        <v>1.43418806697604</v>
+        <v>0.8693376660888269</v>
       </c>
       <c r="F4">
-        <v>1.599407088509199</v>
+        <v>0.8594122836672572</v>
       </c>
       <c r="G4">
-        <v>1.306292807604864</v>
+        <v>0.9525994872551126</v>
       </c>
       <c r="H4">
-        <v>1.089266811533476</v>
+        <v>0.9755226658197711</v>
       </c>
       <c r="I4">
-        <v>1.599407088506422</v>
+        <v>0.8359563283768826</v>
       </c>
       <c r="J4">
-        <v>1.196759479870286</v>
+        <v>0.8693376660911237</v>
       </c>
       <c r="K4">
-        <v>1.288261842722532</v>
+        <v>0.8693376660911237</v>
       </c>
       <c r="L4">
-        <v>1.148450278816848</v>
+        <v>0.8776331672277068</v>
       </c>
       <c r="M4">
-        <v>1.023693016475001</v>
+        <v>1.119352284345038</v>
       </c>
       <c r="N4">
-        <v>1.599407088509199</v>
+        <v>0.8693376660911237</v>
       </c>
       <c r="O4">
-        <v>1.43418806697604</v>
+        <v>2.369958062308037</v>
       </c>
       <c r="P4">
-        <v>1.315473773423163</v>
+        <v>1.614685172987647</v>
       </c>
       <c r="Q4">
-        <v>1.370240437290452</v>
+        <v>1.623795614767872</v>
       </c>
       <c r="R4">
-        <v>1.410118211785175</v>
+        <v>1.366236004022139</v>
       </c>
       <c r="S4">
-        <v>1.31241345148373</v>
+        <v>1.369001171067667</v>
       </c>
       <c r="T4">
-        <v>1.410118211785175</v>
+        <v>1.366236004022139</v>
       </c>
       <c r="U4">
-        <v>1.384161860740098</v>
+        <v>1.244085294823531</v>
       </c>
       <c r="V4">
-        <v>1.427210906293918</v>
+        <v>1.169135769077049</v>
       </c>
       <c r="W4">
-        <v>1.260789924063531</v>
+        <v>1.107471493136366</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,67 +813,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>3.010396191470393</v>
+        <v>1.003222070268987</v>
       </c>
       <c r="D5">
-        <v>0.3508249885568288</v>
+        <v>0.9128318359342916</v>
       </c>
       <c r="E5">
-        <v>3.780982619823988</v>
+        <v>1.307998232205732</v>
       </c>
       <c r="F5">
-        <v>3.010396191470393</v>
+        <v>0.9128318359342916</v>
       </c>
       <c r="G5">
-        <v>3.131647676989551</v>
+        <v>0.9272872549188476</v>
       </c>
       <c r="H5">
-        <v>1.252113964236527</v>
+        <v>4.14312252527461</v>
       </c>
       <c r="I5">
-        <v>3.010396191469765</v>
+        <v>0.8687715888981696</v>
       </c>
       <c r="J5">
-        <v>0.3508249885568288</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="K5">
-        <v>1.9577941434352</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="L5">
-        <v>1.163974710788876</v>
+        <v>1.114201077470299</v>
       </c>
       <c r="M5">
-        <v>0.7564134369225249</v>
+        <v>0.9288158382228775</v>
       </c>
       <c r="N5">
-        <v>3.010396191470393</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="O5">
-        <v>3.780982619823988</v>
+        <v>1.003222070268987</v>
       </c>
       <c r="P5">
-        <v>2.065903804190408</v>
+        <v>0.9580269531016394</v>
       </c>
       <c r="Q5">
-        <v>3.45631514840677</v>
+        <v>1.058711573869643</v>
       </c>
       <c r="R5">
-        <v>2.380734599950403</v>
+        <v>1.074684046137216</v>
       </c>
       <c r="S5">
-        <v>2.421151761790123</v>
+        <v>1.010084994557859</v>
       </c>
       <c r="T5">
-        <v>2.380734599950403</v>
+        <v>1.074684046137216</v>
       </c>
       <c r="U5">
-        <v>2.56846286921019</v>
+        <v>1.084563303970487</v>
       </c>
       <c r="V5">
-        <v>2.656849533662231</v>
+        <v>1.129250289618063</v>
       </c>
       <c r="W5">
-        <v>1.925518466527986</v>
+        <v>1.400781302899557</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,67 +884,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>8.650012048200413</v>
+        <v>0.4145937169786352</v>
       </c>
       <c r="D6">
-        <v>0.2380161568662652</v>
+        <v>0.4664360439529857</v>
       </c>
       <c r="E6">
-        <v>3.98819463465257</v>
+        <v>0.4945717507279332</v>
       </c>
       <c r="F6">
-        <v>8.650012048200413</v>
+        <v>0.4664360439529857</v>
       </c>
       <c r="G6">
-        <v>3.862333348723936</v>
+        <v>0.4847227818216826</v>
       </c>
       <c r="H6">
-        <v>1.836078142395709</v>
+        <v>31.61001910748393</v>
       </c>
       <c r="I6">
-        <v>8.650012048200418</v>
+        <v>0.4106394866965835</v>
       </c>
       <c r="J6">
-        <v>0.2380161568662652</v>
+        <v>0.4945717507286558</v>
       </c>
       <c r="K6">
-        <v>0.4103913078988913</v>
+        <v>0.4945717507286558</v>
       </c>
       <c r="L6">
-        <v>1.036257271285743</v>
+        <v>0.5036086237084888</v>
       </c>
       <c r="M6">
-        <v>1.420603880617929</v>
+        <v>0.4668412750157176</v>
       </c>
       <c r="N6">
-        <v>8.650012048200413</v>
+        <v>0.4945717507286558</v>
       </c>
       <c r="O6">
-        <v>3.98819463465257</v>
+        <v>0.4145937169786352</v>
       </c>
       <c r="P6">
-        <v>2.113105395759418</v>
+        <v>0.4405148804658104</v>
       </c>
       <c r="Q6">
-        <v>3.925263991688253</v>
+        <v>0.459101170343562</v>
       </c>
       <c r="R6">
-        <v>4.292074279906416</v>
+        <v>0.4585338372200922</v>
       </c>
       <c r="S6">
-        <v>2.696181380080924</v>
+        <v>0.4615461282133699</v>
       </c>
       <c r="T6">
-        <v>4.292074279906417</v>
+        <v>0.4585338372200922</v>
       </c>
       <c r="U6">
-        <v>4.184639047110796</v>
+        <v>0.4698025338421914</v>
       </c>
       <c r="V6">
-        <v>5.07771364732872</v>
+        <v>0.4747563772194843</v>
       </c>
       <c r="W6">
-        <v>2.680235848830182</v>
+        <v>4.356429098298334</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,67 +955,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.038643216989285</v>
+        <v>1.169609015411003</v>
       </c>
       <c r="D7">
-        <v>1.037504707033165</v>
+        <v>1.161744241551111</v>
       </c>
       <c r="E7">
-        <v>1.033579402823682</v>
+        <v>1.331306425566835</v>
       </c>
       <c r="F7">
-        <v>1.038643216989285</v>
+        <v>1.161744241551111</v>
       </c>
       <c r="G7">
-        <v>1.013282162404102</v>
+        <v>1.110271321408716</v>
       </c>
       <c r="H7">
-        <v>1.003412188668007</v>
+        <v>0.9912241242349744</v>
       </c>
       <c r="I7">
-        <v>1.038643216985684</v>
+        <v>1.00786776189162</v>
       </c>
       <c r="J7">
-        <v>1.037504707033165</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="K7">
-        <v>1.014634635624574</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="L7">
-        <v>1.053455952594389</v>
+        <v>1.137900751409385</v>
       </c>
       <c r="M7">
-        <v>1.000169878698254</v>
+        <v>0.9698679277695211</v>
       </c>
       <c r="N7">
-        <v>1.038643216989285</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="O7">
-        <v>1.033579402823682</v>
+        <v>1.169609015411003</v>
       </c>
       <c r="P7">
-        <v>1.035542054928424</v>
+        <v>1.165676628481057</v>
       </c>
       <c r="Q7">
-        <v>1.023430782613892</v>
+        <v>1.153754883410194</v>
       </c>
       <c r="R7">
-        <v>1.036575775615377</v>
+        <v>1.220886560844054</v>
       </c>
       <c r="S7">
-        <v>1.02812209075365</v>
+        <v>1.1564180027905</v>
       </c>
       <c r="T7">
-        <v>1.036575775615377</v>
+        <v>1.220886560844054</v>
       </c>
       <c r="U7">
-        <v>1.030752372312558</v>
+        <v>1.200140108485387</v>
       </c>
       <c r="V7">
-        <v>1.032330541247904</v>
+        <v>1.226373371902319</v>
       </c>
       <c r="W7">
-        <v>1.024335268104432</v>
+        <v>1.109973946155797</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,67 +1026,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.106383251901695</v>
+        <v>0.9495756219658972</v>
       </c>
       <c r="D8">
-        <v>1.051785790846772</v>
+        <v>1.056684527317157</v>
       </c>
       <c r="E8">
-        <v>1.014517744592033</v>
+        <v>1.085504327332246</v>
       </c>
       <c r="F8">
-        <v>1.106383251901695</v>
+        <v>1.056684527317157</v>
       </c>
       <c r="G8">
-        <v>1.019328635568354</v>
+        <v>1.006390302368491</v>
       </c>
       <c r="H8">
-        <v>0.994709732316416</v>
+        <v>1.042096977754617</v>
       </c>
       <c r="I8">
-        <v>1.106383251898063</v>
+        <v>0.9860907082035871</v>
       </c>
       <c r="J8">
-        <v>1.051785790846772</v>
+        <v>1.085504327335735</v>
       </c>
       <c r="K8">
-        <v>1.006392477017238</v>
+        <v>1.085504327335735</v>
       </c>
       <c r="L8">
-        <v>1.110347579553933</v>
+        <v>1.066087065374461</v>
       </c>
       <c r="M8">
-        <v>0.9882826182943537</v>
+        <v>1.035080524254573</v>
       </c>
       <c r="N8">
-        <v>1.106383251901695</v>
+        <v>1.085504327335735</v>
       </c>
       <c r="O8">
-        <v>1.014517744592033</v>
+        <v>0.9495756219658972</v>
       </c>
       <c r="P8">
-        <v>1.033151767719402</v>
+        <v>1.003130074641527</v>
       </c>
       <c r="Q8">
-        <v>1.016923190080193</v>
+        <v>1.007831343670179</v>
       </c>
       <c r="R8">
-        <v>1.057562262446833</v>
+        <v>1.03058815887293</v>
       </c>
       <c r="S8">
-        <v>1.028544057002386</v>
+        <v>1.024115738219172</v>
       </c>
       <c r="T8">
-        <v>1.057562262446833</v>
+        <v>1.03058815887293</v>
       </c>
       <c r="U8">
-        <v>1.048003855727213</v>
+        <v>1.039462885498313</v>
       </c>
       <c r="V8">
-        <v>1.05967973496211</v>
+        <v>1.048671173865797</v>
       </c>
       <c r="W8">
-        <v>1.036468478761349</v>
+        <v>1.028438756821815</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,67 +1097,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.396048572256616</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="D9">
-        <v>1.006092483108016</v>
+        <v>1.196759479870286</v>
       </c>
       <c r="E9">
-        <v>1.046379338131896</v>
+        <v>1.599407088506422</v>
       </c>
       <c r="F9">
-        <v>1.396048572256616</v>
+        <v>1.196759479870286</v>
       </c>
       <c r="G9">
-        <v>1.007555579547357</v>
+        <v>1.288261842722532</v>
       </c>
       <c r="H9">
-        <v>0.9928285939472083</v>
+        <v>1.148450278816848</v>
       </c>
       <c r="I9">
-        <v>1.396048572253197</v>
+        <v>1.023693016475001</v>
       </c>
       <c r="J9">
-        <v>1.006092483108016</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="K9">
-        <v>0.9578357485896019</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="L9">
-        <v>1.109549942812568</v>
+        <v>1.306292807604864</v>
       </c>
       <c r="M9">
-        <v>0.970205382835066</v>
+        <v>1.089266811533476</v>
       </c>
       <c r="N9">
-        <v>1.396048572256616</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="O9">
-        <v>1.046379338131896</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="P9">
-        <v>1.026235910619956</v>
+        <v>1.315473773423163</v>
       </c>
       <c r="Q9">
-        <v>1.026967458839626</v>
+        <v>1.370240437290452</v>
       </c>
       <c r="R9">
-        <v>1.149506797832176</v>
+        <v>1.410118211785175</v>
       </c>
       <c r="S9">
-        <v>1.020009133595756</v>
+        <v>1.31241345148373</v>
       </c>
       <c r="T9">
-        <v>1.149506797832176</v>
+        <v>1.410118211785175</v>
       </c>
       <c r="U9">
-        <v>1.114018993260971</v>
+        <v>1.384161860740098</v>
       </c>
       <c r="V9">
-        <v>1.1704249090601</v>
+        <v>1.427210906293918</v>
       </c>
       <c r="W9">
-        <v>1.060811955153541</v>
+        <v>1.260789924063531</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,67 +1168,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.562684485971091</v>
+        <v>0.433753346468856</v>
       </c>
       <c r="D10">
-        <v>0.9645980012888387</v>
+        <v>0.2990310965229175</v>
       </c>
       <c r="E10">
-        <v>0.9411510820809279</v>
+        <v>0.4538430307527747</v>
       </c>
       <c r="F10">
-        <v>1.562684485971091</v>
+        <v>0.2990310965229175</v>
       </c>
       <c r="G10">
-        <v>1.210266438869656</v>
+        <v>0.4745435961117632</v>
       </c>
       <c r="H10">
-        <v>1.038656474813067</v>
+        <v>31.98918529790226</v>
       </c>
       <c r="I10">
-        <v>1.562684485968942</v>
+        <v>0.432723517143219</v>
       </c>
       <c r="J10">
-        <v>0.9645980012888387</v>
+        <v>0.4538430307552221</v>
       </c>
       <c r="K10">
-        <v>1.082148445465822</v>
+        <v>0.4538430307552221</v>
       </c>
       <c r="L10">
-        <v>1.250657677381048</v>
+        <v>0.5378800333118854</v>
       </c>
       <c r="M10">
-        <v>0.9597362077005038</v>
+        <v>0.418842394295691</v>
       </c>
       <c r="N10">
-        <v>1.562684485971091</v>
+        <v>0.4538430307552221</v>
       </c>
       <c r="O10">
-        <v>0.9411510820809279</v>
+        <v>0.433753346468856</v>
       </c>
       <c r="P10">
-        <v>0.9528745416848833</v>
+        <v>0.3663922214958868</v>
       </c>
       <c r="Q10">
-        <v>1.075708760475292</v>
+        <v>0.4858166898903707</v>
       </c>
       <c r="R10">
-        <v>1.156144523113619</v>
+        <v>0.3955424912489986</v>
       </c>
       <c r="S10">
-        <v>1.038671840746474</v>
+        <v>0.423554825434553</v>
       </c>
       <c r="T10">
-        <v>1.156144523113619</v>
+        <v>0.3955424912489986</v>
       </c>
       <c r="U10">
-        <v>1.169675002052629</v>
+        <v>0.4311268767647203</v>
       </c>
       <c r="V10">
-        <v>1.248276898836321</v>
+        <v>0.4356701075628207</v>
       </c>
       <c r="W10">
-        <v>1.12623735169637</v>
+        <v>4.379975289063977</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,67 +1239,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.831665231323008</v>
+        <v>2.178148571561207</v>
       </c>
       <c r="D11">
-        <v>1.87261280206042</v>
+        <v>1.26753896480931</v>
       </c>
       <c r="E11">
-        <v>1.008313155317183</v>
+        <v>0.8918329259844503</v>
       </c>
       <c r="F11">
-        <v>2.831665231323008</v>
+        <v>1.26753896480931</v>
       </c>
       <c r="G11">
-        <v>1.258647532121587</v>
+        <v>1.062479580892802</v>
       </c>
       <c r="H11">
-        <v>0.9275305319680234</v>
+        <v>0.8540253753056756</v>
       </c>
       <c r="I11">
-        <v>2.831665231313699</v>
+        <v>1.101971455785757</v>
       </c>
       <c r="J11">
-        <v>1.87261280206042</v>
+        <v>0.8918329259881889</v>
       </c>
       <c r="K11">
-        <v>1.04107888526024</v>
+        <v>0.8918329259881889</v>
       </c>
       <c r="L11">
-        <v>1.457311469306155</v>
+        <v>0.9389521164219982</v>
       </c>
       <c r="M11">
-        <v>1.256881746130271</v>
+        <v>1.010105685240245</v>
       </c>
       <c r="N11">
-        <v>2.831665231323008</v>
+        <v>0.8918329259881889</v>
       </c>
       <c r="O11">
-        <v>1.008313155317183</v>
+        <v>2.178148571561207</v>
       </c>
       <c r="P11">
-        <v>1.440462978688802</v>
+        <v>1.722843768185258</v>
       </c>
       <c r="Q11">
-        <v>1.133480343719385</v>
+        <v>1.558550343991602</v>
       </c>
       <c r="R11">
-        <v>1.904197062900204</v>
+        <v>1.445840154119568</v>
       </c>
       <c r="S11">
-        <v>1.379857829833063</v>
+        <v>1.461546550930838</v>
       </c>
       <c r="T11">
-        <v>1.904197062900204</v>
+        <v>1.445840154119568</v>
       </c>
       <c r="U11">
-        <v>1.742809680205549</v>
+        <v>1.319118144695176</v>
       </c>
       <c r="V11">
-        <v>1.960580790429041</v>
+        <v>1.233661100953779</v>
       </c>
       <c r="W11">
-        <v>1.456755169185861</v>
+        <v>1.163131834500648</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,67 +1310,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-0.001558648893322354</v>
+        <v>0.8725755960886136</v>
       </c>
       <c r="D12">
-        <v>0.0005321790215116676</v>
+        <v>0.6859030122863374</v>
       </c>
       <c r="E12">
-        <v>0.0002878808757884269</v>
+        <v>1.099981774556127</v>
       </c>
       <c r="F12">
-        <v>-0.001558648893322354</v>
+        <v>0.6859030122863374</v>
       </c>
       <c r="G12">
-        <v>1.61240304437519</v>
+        <v>0.8954111229834734</v>
       </c>
       <c r="H12">
-        <v>0.1412820554661314</v>
+        <v>5.624406425235504</v>
       </c>
       <c r="I12">
-        <v>-0.001558648893322354</v>
+        <v>0.9108161232342101</v>
       </c>
       <c r="J12">
-        <v>0.0005321790215116676</v>
+        <v>1.099981774560064</v>
       </c>
       <c r="K12">
-        <v>1.918477202137381</v>
+        <v>1.099981774560064</v>
       </c>
       <c r="L12">
-        <v>1.39933183734749</v>
+        <v>1.159749470487289</v>
       </c>
       <c r="M12">
-        <v>2.508918383184844</v>
+        <v>0.7937760553707779</v>
       </c>
       <c r="N12">
-        <v>-0.001558648893322354</v>
+        <v>1.099981774560064</v>
       </c>
       <c r="O12">
-        <v>0.0002878808757884269</v>
+        <v>0.8725755960886136</v>
       </c>
       <c r="P12">
-        <v>0.0004100299486500473</v>
+        <v>0.7792393041874754</v>
       </c>
       <c r="Q12">
-        <v>0.8063454626254893</v>
+        <v>1.016162533287951</v>
       </c>
       <c r="R12">
-        <v>-0.0002461963320074199</v>
+        <v>0.8861534609783382</v>
       </c>
       <c r="S12">
-        <v>0.5377410347574968</v>
+        <v>0.9060760262874133</v>
       </c>
       <c r="T12">
-        <v>-0.0002461963320074198</v>
+        <v>0.8861534609783382</v>
       </c>
       <c r="U12">
-        <v>0.402916113844792</v>
+        <v>0.954552463355576</v>
       </c>
       <c r="V12">
-        <v>0.3220211612971691</v>
+        <v>0.9836383255964736</v>
       </c>
       <c r="W12">
-        <v>0.9474592416893768</v>
+        <v>1.505327447530784</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,67 +1381,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>3.15536555185404</v>
+        <v>1.05324741915911</v>
       </c>
       <c r="D13">
-        <v>4.266832287015164</v>
+        <v>0.8164251127806935</v>
       </c>
       <c r="E13">
-        <v>3.102638498111987</v>
+        <v>0.7904452389823989</v>
       </c>
       <c r="F13">
-        <v>3.15536555185404</v>
+        <v>0.8164251127806935</v>
       </c>
       <c r="G13">
-        <v>0.4520445183199169</v>
+        <v>1.209028064976607</v>
       </c>
       <c r="H13">
-        <v>0.8681926278170153</v>
+        <v>1.133420012538657</v>
       </c>
       <c r="I13">
-        <v>3.155365551851062</v>
+        <v>1.110072550816626</v>
       </c>
       <c r="J13">
-        <v>4.266832287015164</v>
+        <v>0.7904452389895864</v>
       </c>
       <c r="K13">
-        <v>1.310737099070905</v>
+        <v>0.7904452389895864</v>
       </c>
       <c r="L13">
-        <v>0.02000191212358884</v>
+        <v>1.022480997963406</v>
       </c>
       <c r="M13">
-        <v>1.059743902438569</v>
+        <v>0.8592054023496291</v>
       </c>
       <c r="N13">
-        <v>3.15536555185404</v>
+        <v>0.7904452389895864</v>
       </c>
       <c r="O13">
-        <v>3.102638498111987</v>
+        <v>1.05324741915911</v>
       </c>
       <c r="P13">
-        <v>3.684735392563575</v>
+        <v>0.9348362659699017</v>
       </c>
       <c r="Q13">
-        <v>1.777341508215952</v>
+        <v>1.037864208561258</v>
       </c>
       <c r="R13">
-        <v>3.508278778993731</v>
+        <v>0.8867059236431299</v>
       </c>
       <c r="S13">
-        <v>2.607171767815689</v>
+        <v>0.964051176634403</v>
       </c>
       <c r="T13">
-        <v>3.508278778993731</v>
+        <v>0.8867059236431297</v>
       </c>
       <c r="U13">
-        <v>2.744220213825277</v>
+        <v>0.9206496922231988</v>
       </c>
       <c r="V13">
-        <v>2.82644928143103</v>
+        <v>0.8946088015764764</v>
       </c>
       <c r="W13">
-        <v>1.779444549593898</v>
+        <v>0.9992905999467891</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,67 +1452,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.0004101383104618402</v>
+        <v>-0.01224133900000001</v>
       </c>
       <c r="D14">
-        <v>-0.0004954784549887901</v>
+        <v>-0.0009807710899999993</v>
       </c>
       <c r="E14">
-        <v>0.2934870853603602</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="F14">
-        <v>-0.0004101383104618402</v>
+        <v>-0.0009807710899999993</v>
       </c>
       <c r="G14">
-        <v>0.00222528017148682</v>
+        <v>0.005352028100000004</v>
       </c>
       <c r="H14">
-        <v>2.290525657679573</v>
+        <v>60.56370000000005</v>
       </c>
       <c r="I14">
-        <v>-0.0004101383101088975</v>
+        <v>-0.01021143999999999</v>
       </c>
       <c r="J14">
-        <v>-0.0004954784549887901</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="K14">
-        <v>0.9931425163368659</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="L14">
-        <v>0.001281512401697157</v>
+        <v>0.004457972600000005</v>
       </c>
       <c r="M14">
-        <v>-0.0009637956398396614</v>
+        <v>0.007090004300000004</v>
       </c>
       <c r="N14">
-        <v>-0.0004101383104618402</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="O14">
-        <v>0.2934870853603602</v>
+        <v>-0.01224133900000001</v>
       </c>
       <c r="P14">
-        <v>0.1464958034526857</v>
+        <v>-0.006611055045000005</v>
       </c>
       <c r="Q14">
-        <v>0.1478561827659235</v>
+        <v>-0.003891683200000003</v>
       </c>
       <c r="R14">
-        <v>0.09752715619830321</v>
+        <v>-0.009783923029999997</v>
       </c>
       <c r="S14">
-        <v>0.09840562902561943</v>
+        <v>-0.002921379163333335</v>
       </c>
       <c r="T14">
-        <v>0.0975271561983032</v>
+        <v>-0.009783923029999997</v>
       </c>
       <c r="U14">
-        <v>0.0737016871915991</v>
+        <v>-0.006223449122499996</v>
       </c>
       <c r="V14">
-        <v>0.05887932209118692</v>
+        <v>-0.008204691097999994</v>
       </c>
       <c r="W14">
-        <v>0.4473490799430865</v>
+        <v>7.567629599488757</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,67 +1523,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9007447313079856</v>
+        <v>0.010282671</v>
       </c>
       <c r="D15">
-        <v>0.001239198148660106</v>
+        <v>0.011910204</v>
       </c>
       <c r="E15">
-        <v>-0.001287746089728107</v>
+        <v>181.71412</v>
       </c>
       <c r="F15">
-        <v>0.9007447313079856</v>
+        <v>0.011910204</v>
       </c>
       <c r="G15">
-        <v>1.985218897570126</v>
+        <v>0.012393713</v>
       </c>
       <c r="H15">
-        <v>0.007078081047542489</v>
+        <v>-0.016138361</v>
       </c>
       <c r="I15">
-        <v>0.9007447313079856</v>
+        <v>0.004912388</v>
       </c>
       <c r="J15">
-        <v>0.001239198148660106</v>
+        <v>181.71412</v>
       </c>
       <c r="K15">
-        <v>0.4317753857800922</v>
+        <v>181.71412</v>
       </c>
       <c r="L15">
-        <v>2.67348507886789</v>
+        <v>0.00062515737</v>
       </c>
       <c r="M15">
-        <v>0.3076092867992351</v>
+        <v>0.0061919611</v>
       </c>
       <c r="N15">
-        <v>0.9007447313079856</v>
+        <v>181.71412</v>
       </c>
       <c r="O15">
-        <v>-0.001287746089728107</v>
+        <v>0.010282671</v>
       </c>
       <c r="P15">
-        <v>-2.427397053400061E-05</v>
+        <v>0.0110964375</v>
       </c>
       <c r="Q15">
-        <v>0.9919655757401992</v>
+        <v>0.005453914185</v>
       </c>
       <c r="R15">
-        <v>0.3002320611223059</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="S15">
-        <v>0.6617234498763528</v>
+        <v>0.00760601079</v>
       </c>
       <c r="T15">
-        <v>0.3002320611223059</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="U15">
-        <v>0.721478770234261</v>
+        <v>45.4342345080925</v>
       </c>
       <c r="V15">
-        <v>0.7573319624490059</v>
+        <v>72.69021160647401</v>
       </c>
       <c r="W15">
-        <v>0.7882328641789755</v>
+        <v>22.71803721668375</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9743662359127727</v>
+        <v>121.14151</v>
       </c>
       <c r="D16">
-        <v>1.060647262895905</v>
+        <v>0.00070900843</v>
       </c>
       <c r="E16">
-        <v>1.056096556526294</v>
+        <v>0.010282672</v>
       </c>
       <c r="F16">
-        <v>0.9743662359127727</v>
+        <v>0.00070900843</v>
       </c>
       <c r="G16">
-        <v>0.9935902146781732</v>
+        <v>-0.0049039006</v>
       </c>
       <c r="H16">
-        <v>1.006423895015883</v>
+        <v>-0.012240956</v>
       </c>
       <c r="I16">
-        <v>0.9743662359092208</v>
+        <v>-0.0009139994799999999</v>
       </c>
       <c r="J16">
-        <v>1.060647262895905</v>
+        <v>0.010282672</v>
       </c>
       <c r="K16">
-        <v>1.010426682949219</v>
+        <v>0.010282672</v>
       </c>
       <c r="L16">
-        <v>1.045170445792015</v>
+        <v>-0.0049281008</v>
       </c>
       <c r="M16">
-        <v>1.005714051588627</v>
+        <v>0.02555648</v>
       </c>
       <c r="N16">
-        <v>0.9743662359127727</v>
+        <v>0.010282672</v>
       </c>
       <c r="O16">
-        <v>1.056096556526294</v>
+        <v>121.14151</v>
       </c>
       <c r="P16">
-        <v>1.058371909711099</v>
+        <v>60.57110950421499</v>
       </c>
       <c r="Q16">
-        <v>1.024843385602233</v>
+        <v>60.5682909496</v>
       </c>
       <c r="R16">
-        <v>1.03037001844499</v>
+        <v>40.38416722681</v>
       </c>
       <c r="S16">
-        <v>1.036778011366791</v>
+        <v>40.37909696921</v>
       </c>
       <c r="T16">
-        <v>1.03037001844499</v>
+        <v>40.38416722681</v>
       </c>
       <c r="U16">
-        <v>1.021175067503286</v>
+        <v>30.2868933949075</v>
       </c>
       <c r="V16">
-        <v>1.011813301185183</v>
+        <v>24.231571250326</v>
       </c>
       <c r="W16">
-        <v>1.019054418169861</v>
+        <v>15.14438390044375</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.085504327335733</v>
+        <v>-0.012240765</v>
       </c>
       <c r="D17">
-        <v>1.056684527317156</v>
+        <v>-0.00097587775</v>
       </c>
       <c r="E17">
-        <v>0.949575621965895</v>
+        <v>-0.016142712</v>
       </c>
       <c r="F17">
-        <v>1.085504327335733</v>
+        <v>-0.00097587775</v>
       </c>
       <c r="G17">
-        <v>1.066087065374459</v>
+        <v>0.0053568279</v>
       </c>
       <c r="H17">
-        <v>1.035080524254573</v>
+        <v>60.563705</v>
       </c>
       <c r="I17">
-        <v>1.085504327332244</v>
+        <v>-0.010205502</v>
       </c>
       <c r="J17">
-        <v>1.056684527317156</v>
+        <v>-0.016142712</v>
       </c>
       <c r="K17">
-        <v>1.00639030236849</v>
+        <v>-0.016142712</v>
       </c>
       <c r="L17">
-        <v>1.042096977754618</v>
+        <v>0.0044451545</v>
       </c>
       <c r="M17">
-        <v>0.9860907082035888</v>
+        <v>0.0070844162</v>
       </c>
       <c r="N17">
-        <v>1.085504327335733</v>
+        <v>-0.016142712</v>
       </c>
       <c r="O17">
-        <v>0.949575621965895</v>
+        <v>-0.012240765</v>
       </c>
       <c r="P17">
-        <v>1.003130074641526</v>
+        <v>-0.006608321375</v>
       </c>
       <c r="Q17">
-        <v>1.007831343670177</v>
+        <v>-0.00389780525</v>
       </c>
       <c r="R17">
-        <v>1.030588158872928</v>
+        <v>-0.009786451583333333</v>
       </c>
       <c r="S17">
-        <v>1.02411573821917</v>
+        <v>-0.002923829416666667</v>
       </c>
       <c r="T17">
-        <v>1.030588158872928</v>
+        <v>-0.009786451583333333</v>
       </c>
       <c r="U17">
-        <v>1.039462885498311</v>
+        <v>-0.0062285500625</v>
       </c>
       <c r="V17">
-        <v>1.048671173865795</v>
+        <v>-0.008211382450000001</v>
       </c>
       <c r="W17">
-        <v>1.028438756821814</v>
+        <v>7.56762831773125</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.247151824794091</v>
+        <v>3.738881740999999</v>
       </c>
       <c r="D18">
-        <v>0.4832564512428817</v>
+        <v>0.000226438049808219</v>
       </c>
       <c r="E18">
-        <v>1.07494968979162</v>
+        <v>8.091175504154522</v>
       </c>
       <c r="F18">
-        <v>2.247151824794091</v>
+        <v>0.000226438049808219</v>
       </c>
       <c r="G18">
-        <v>1.534198362287639</v>
+        <v>3.649263746486028</v>
       </c>
       <c r="H18">
-        <v>0.9237500161009657</v>
+        <v>0.00231473977260274</v>
       </c>
       <c r="I18">
-        <v>2.247151824794882</v>
+        <v>0.002726924207671234</v>
       </c>
       <c r="J18">
-        <v>0.4832564512428817</v>
+        <v>8.091175504154517</v>
       </c>
       <c r="K18">
-        <v>1.390915578592613</v>
+        <v>8.091175504154517</v>
       </c>
       <c r="L18">
-        <v>1.205330086165635</v>
+        <v>3.482530116209726</v>
       </c>
       <c r="M18">
-        <v>1.009712667299084</v>
+        <v>-0.002075676626356165</v>
       </c>
       <c r="N18">
-        <v>2.247151824794091</v>
+        <v>8.091175504154517</v>
       </c>
       <c r="O18">
-        <v>1.07494968979162</v>
+        <v>3.738881740999999</v>
       </c>
       <c r="P18">
-        <v>0.779103070517251</v>
+        <v>1.869554089524904</v>
       </c>
       <c r="Q18">
-        <v>1.304574026039629</v>
+        <v>3.610705928604863</v>
       </c>
       <c r="R18">
-        <v>1.268452655276198</v>
+        <v>3.943427894401442</v>
       </c>
       <c r="S18">
-        <v>1.03080150110738</v>
+        <v>2.407212765086511</v>
       </c>
       <c r="T18">
-        <v>1.268452655276198</v>
+        <v>3.943427894401442</v>
       </c>
       <c r="U18">
-        <v>1.334889082029058</v>
+        <v>3.828203449853513</v>
       </c>
       <c r="V18">
-        <v>1.517341630582064</v>
+        <v>4.680797860713714</v>
       </c>
       <c r="W18">
-        <v>1.233658084534316</v>
+        <v>2.37063044165675</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.3724578728422966</v>
+        <v>13.95229603842105</v>
       </c>
       <c r="D19">
-        <v>0.4007688660315163</v>
+        <v>0.007059826633157896</v>
       </c>
       <c r="E19">
-        <v>1.25510251058418</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="F19">
-        <v>0.3724578728422966</v>
+        <v>0.007059826633157896</v>
       </c>
       <c r="G19">
-        <v>1.396714630984027</v>
+        <v>0.0002176367000000002</v>
       </c>
       <c r="H19">
-        <v>1.033806362979016</v>
+        <v>6.978976370100002</v>
       </c>
       <c r="I19">
-        <v>0.3724578728423622</v>
+        <v>-9.935083421052587E-05</v>
       </c>
       <c r="J19">
-        <v>0.4007688660315163</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="K19">
-        <v>1.06480741334619</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="L19">
-        <v>1.313694540956959</v>
+        <v>-0.004860329189473682</v>
       </c>
       <c r="M19">
-        <v>1.089563104097886</v>
+        <v>0.01755527272105263</v>
       </c>
       <c r="N19">
-        <v>0.3724578728422966</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="O19">
-        <v>1.25510251058418</v>
+        <v>13.95229603842105</v>
       </c>
       <c r="P19">
-        <v>0.8279356883078482</v>
+        <v>6.979677932527106</v>
       </c>
       <c r="Q19">
-        <v>1.325908570784104</v>
+        <v>6.97371785461579</v>
       </c>
       <c r="R19">
-        <v>0.676109749819331</v>
+        <v>4.655909493165439</v>
       </c>
       <c r="S19">
-        <v>1.017528669199908</v>
+        <v>4.651498511954913</v>
       </c>
       <c r="T19">
-        <v>0.676109749819331</v>
+        <v>4.655909493165439</v>
       </c>
       <c r="U19">
-        <v>0.8562609701105052</v>
+        <v>3.490717037576711</v>
       </c>
       <c r="V19">
-        <v>0.7595003506568634</v>
+        <v>2.79424815294979</v>
       </c>
       <c r="W19">
-        <v>0.990864412727759</v>
+        <v>2.619939759874211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>3.577001580094211</v>
+      </c>
+      <c r="D20">
+        <v>7.154208099047896</v>
+      </c>
+      <c r="E20">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="F20">
+        <v>7.154208099047896</v>
+      </c>
+      <c r="G20">
+        <v>-0.0009784198978947365</v>
+      </c>
+      <c r="H20">
+        <v>5.160669539427897</v>
+      </c>
+      <c r="I20">
+        <v>3.497465867389473</v>
+      </c>
+      <c r="J20">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="K20">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="L20">
+        <v>3.56903923518579</v>
+      </c>
+      <c r="M20">
+        <v>3.297473325983632</v>
+      </c>
+      <c r="N20">
+        <v>15.48622742441474</v>
+      </c>
+      <c r="O20">
+        <v>3.577001580094211</v>
+      </c>
+      <c r="P20">
+        <v>5.365604839571054</v>
+      </c>
+      <c r="Q20">
+        <v>3.573020407640001</v>
+      </c>
+      <c r="R20">
+        <v>8.739145701185615</v>
+      </c>
+      <c r="S20">
+        <v>4.766749638109299</v>
+      </c>
+      <c r="T20">
+        <v>8.739145701185615</v>
+      </c>
+      <c r="U20">
+        <v>7.446619084685659</v>
+      </c>
+      <c r="V20">
+        <v>9.054540752631477</v>
+      </c>
+      <c r="W20">
+        <v>5.217638331455718</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.2934870853603606</v>
+      </c>
+      <c r="D21">
+        <v>-0.0004954784549887927</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004101383101088951</v>
+      </c>
+      <c r="F21">
+        <v>-0.0004954784549887927</v>
+      </c>
+      <c r="G21">
+        <v>0.9931425163368653</v>
+      </c>
+      <c r="H21">
+        <v>0.001281512401697156</v>
+      </c>
+      <c r="I21">
+        <v>-0.0009637956398396606</v>
+      </c>
+      <c r="J21">
+        <v>-0.0004101383104618379</v>
+      </c>
+      <c r="K21">
+        <v>-0.0004101383104618379</v>
+      </c>
+      <c r="L21">
+        <v>0.002225280171486818</v>
+      </c>
+      <c r="M21">
+        <v>2.290525657679574</v>
+      </c>
+      <c r="N21">
+        <v>-0.0004101383104618379</v>
+      </c>
+      <c r="O21">
+        <v>0.2934870853603606</v>
+      </c>
+      <c r="P21">
+        <v>0.1464958034526859</v>
+      </c>
+      <c r="Q21">
+        <v>0.1478561827659237</v>
+      </c>
+      <c r="R21">
+        <v>0.09752715619830331</v>
+      </c>
+      <c r="S21">
+        <v>0.09840562902561951</v>
+      </c>
+      <c r="T21">
+        <v>0.09752715619830331</v>
+      </c>
+      <c r="U21">
+        <v>0.07370168719159918</v>
+      </c>
+      <c r="V21">
+        <v>0.05887932209118698</v>
+      </c>
+      <c r="W21">
+        <v>0.4473490799430866</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>-0.001287746089728106</v>
+      </c>
+      <c r="D22">
+        <v>0.001239198148660105</v>
+      </c>
+      <c r="E22">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="F22">
+        <v>0.001239198148660105</v>
+      </c>
+      <c r="G22">
+        <v>0.431775385780092</v>
+      </c>
+      <c r="H22">
+        <v>2.673485078867889</v>
+      </c>
+      <c r="I22">
+        <v>0.3076092867992351</v>
+      </c>
+      <c r="J22">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="K22">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="L22">
+        <v>1.985218897570126</v>
+      </c>
+      <c r="M22">
+        <v>0.007078081047542492</v>
+      </c>
+      <c r="N22">
+        <v>0.9007447313079856</v>
+      </c>
+      <c r="O22">
+        <v>-0.001287746089728106</v>
+      </c>
+      <c r="P22">
+        <v>-2.427397053400072E-05</v>
+      </c>
+      <c r="Q22">
+        <v>0.9919655757401992</v>
+      </c>
+      <c r="R22">
+        <v>0.3002320611223059</v>
+      </c>
+      <c r="S22">
+        <v>0.6617234498763528</v>
+      </c>
+      <c r="T22">
+        <v>0.3002320611223059</v>
+      </c>
+      <c r="U22">
+        <v>0.721478770234261</v>
+      </c>
+      <c r="V22">
+        <v>0.7573319624490059</v>
+      </c>
+      <c r="W22">
+        <v>0.7882328641789753</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.0002878808757884235</v>
+      </c>
+      <c r="D23">
+        <v>0.0005321790215116628</v>
+      </c>
+      <c r="E23">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="F23">
+        <v>0.0005321790215116628</v>
+      </c>
+      <c r="G23">
+        <v>1.918477202137383</v>
+      </c>
+      <c r="H23">
+        <v>1.399331837347491</v>
+      </c>
+      <c r="I23">
+        <v>2.508918383184844</v>
+      </c>
+      <c r="J23">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="K23">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="L23">
+        <v>1.612403044375189</v>
+      </c>
+      <c r="M23">
+        <v>0.1412820554661308</v>
+      </c>
+      <c r="N23">
+        <v>-0.001558648893322354</v>
+      </c>
+      <c r="O23">
+        <v>0.0002878808757884235</v>
+      </c>
+      <c r="P23">
+        <v>0.0004100299486500432</v>
+      </c>
+      <c r="Q23">
+        <v>0.8063454626254888</v>
+      </c>
+      <c r="R23">
+        <v>-0.0002461963320074224</v>
+      </c>
+      <c r="S23">
+        <v>0.5377410347574964</v>
+      </c>
+      <c r="T23">
+        <v>-0.0002461963320074224</v>
+      </c>
+      <c r="U23">
+        <v>0.4029161138447917</v>
+      </c>
+      <c r="V23">
+        <v>0.3220211612971689</v>
+      </c>
+      <c r="W23">
+        <v>0.947459241689377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>3.102638498111983</v>
+      </c>
+      <c r="D24">
+        <v>4.26683228701516</v>
+      </c>
+      <c r="E24">
+        <v>3.155365551851069</v>
+      </c>
+      <c r="F24">
+        <v>4.26683228701516</v>
+      </c>
+      <c r="G24">
+        <v>1.310737099070905</v>
+      </c>
+      <c r="H24">
+        <v>0.02000191212358884</v>
+      </c>
+      <c r="I24">
+        <v>1.059743902438571</v>
+      </c>
+      <c r="J24">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="K24">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="L24">
+        <v>0.4520445183199169</v>
+      </c>
+      <c r="M24">
+        <v>0.8681926278170161</v>
+      </c>
+      <c r="N24">
+        <v>3.155365551854046</v>
+      </c>
+      <c r="O24">
+        <v>3.102638498111983</v>
+      </c>
+      <c r="P24">
+        <v>3.684735392563572</v>
+      </c>
+      <c r="Q24">
+        <v>1.77734150821595</v>
+      </c>
+      <c r="R24">
+        <v>3.50827877899373</v>
+      </c>
+      <c r="S24">
+        <v>2.607171767815687</v>
+      </c>
+      <c r="T24">
+        <v>3.508278778993729</v>
+      </c>
+      <c r="U24">
+        <v>2.744220213825276</v>
+      </c>
+      <c r="V24">
+        <v>2.826449281431031</v>
+      </c>
+      <c r="W24">
+        <v>1.779444549593898</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.1366211682466831</v>
+      </c>
+      <c r="D25">
+        <v>-0.004540638053861719</v>
+      </c>
+      <c r="E25">
+        <v>2.807629270170231</v>
+      </c>
+      <c r="F25">
+        <v>-0.004540638053861719</v>
+      </c>
+      <c r="G25">
+        <v>-0.0009834813620836118</v>
+      </c>
+      <c r="H25">
+        <v>0.2444436757176928</v>
+      </c>
+      <c r="I25">
+        <v>2.613486291627167</v>
+      </c>
+      <c r="J25">
+        <v>2.807629270170231</v>
+      </c>
+      <c r="K25">
+        <v>2.807629270170231</v>
+      </c>
+      <c r="L25">
+        <v>0.002477864636526571</v>
+      </c>
+      <c r="M25">
+        <v>0.3570871293643518</v>
+      </c>
+      <c r="N25">
+        <v>2.807629270170231</v>
+      </c>
+      <c r="O25">
+        <v>0.1366211682466831</v>
+      </c>
+      <c r="P25">
+        <v>0.06604026509641067</v>
+      </c>
+      <c r="Q25">
+        <v>0.06954951644160481</v>
+      </c>
+      <c r="R25">
+        <v>0.9799032667876842</v>
+      </c>
+      <c r="S25">
+        <v>0.04485279827644931</v>
+      </c>
+      <c r="T25">
+        <v>0.9799032667876842</v>
+      </c>
+      <c r="U25">
+        <v>0.7355469162498949</v>
+      </c>
+      <c r="V25">
+        <v>1.149963387033962</v>
+      </c>
+      <c r="W25">
+        <v>0.7695276600433385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.08874205779965998</v>
+      </c>
+      <c r="D26">
+        <v>0.001693839441435879</v>
+      </c>
+      <c r="E26">
+        <v>0.0009280632734029467</v>
+      </c>
+      <c r="F26">
+        <v>0.001693839441435879</v>
+      </c>
+      <c r="G26">
+        <v>4.505613523605059</v>
+      </c>
+      <c r="H26">
+        <v>0.03517860966366432</v>
+      </c>
+      <c r="I26">
+        <v>0.0236012082603315</v>
+      </c>
+      <c r="J26">
+        <v>0.0009280632739349046</v>
+      </c>
+      <c r="K26">
+        <v>0.0009280632739349046</v>
+      </c>
+      <c r="L26">
+        <v>4.746435139022208</v>
+      </c>
+      <c r="M26">
+        <v>0.07431463542205639</v>
+      </c>
+      <c r="N26">
+        <v>0.0009280632739349046</v>
+      </c>
+      <c r="O26">
+        <v>0.08874205779965998</v>
+      </c>
+      <c r="P26">
+        <v>0.04521794862054793</v>
+      </c>
+      <c r="Q26">
+        <v>2.417588598410934</v>
+      </c>
+      <c r="R26">
+        <v>0.03045465350501025</v>
+      </c>
+      <c r="S26">
+        <v>1.612290345421101</v>
+      </c>
+      <c r="T26">
+        <v>0.03045465350501025</v>
+      </c>
+      <c r="U26">
+        <v>1.20944977488431</v>
+      </c>
+      <c r="V26">
+        <v>0.9677454325622346</v>
+      </c>
+      <c r="W26">
+        <v>1.184563384561044</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>12.76828590584813</v>
+      </c>
+      <c r="D27">
+        <v>2.350795123368404</v>
+      </c>
+      <c r="E27">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="F27">
+        <v>2.350795123368404</v>
+      </c>
+      <c r="G27">
+        <v>0.06300735775422184</v>
+      </c>
+      <c r="H27">
+        <v>6.944388629705038</v>
+      </c>
+      <c r="I27">
+        <v>0.001110502068036704</v>
+      </c>
+      <c r="J27">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="K27">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="L27">
+        <v>0.003924144988638904</v>
+      </c>
+      <c r="M27">
+        <v>6.57292815001389</v>
+      </c>
+      <c r="N27">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="O27">
+        <v>12.76828590584813</v>
+      </c>
+      <c r="P27">
+        <v>7.559540514608269</v>
+      </c>
+      <c r="Q27">
+        <v>6.386105025418386</v>
+      </c>
+      <c r="R27">
+        <v>5.039363433688881</v>
+      </c>
+      <c r="S27">
+        <v>5.041001724735059</v>
+      </c>
+      <c r="T27">
+        <v>5.039363433688881</v>
+      </c>
+      <c r="U27">
+        <v>3.78050361151382</v>
+      </c>
+      <c r="V27">
+        <v>3.024204743581077</v>
+      </c>
+      <c r="W27">
+        <v>3.587931135699558</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.1136545656568922</v>
+      </c>
+      <c r="D28">
+        <v>1.530871345837086</v>
+      </c>
+      <c r="E28">
+        <v>0.02152385635524921</v>
+      </c>
+      <c r="F28">
+        <v>1.530871345837086</v>
+      </c>
+      <c r="G28">
+        <v>3.005611083784684</v>
+      </c>
+      <c r="H28">
+        <v>0.4689904412764366</v>
+      </c>
+      <c r="I28">
+        <v>0.008063545060793324</v>
+      </c>
+      <c r="J28">
+        <v>0.02152385635505068</v>
+      </c>
+      <c r="K28">
+        <v>0.02152385635505068</v>
+      </c>
+      <c r="L28">
+        <v>1.437487245333766</v>
+      </c>
+      <c r="M28">
+        <v>0.8334041880496774</v>
+      </c>
+      <c r="N28">
+        <v>0.02152385635505068</v>
+      </c>
+      <c r="O28">
+        <v>0.1136545656568922</v>
+      </c>
+      <c r="P28">
+        <v>0.822262955746989</v>
+      </c>
+      <c r="Q28">
+        <v>0.7755709054953293</v>
+      </c>
+      <c r="R28">
+        <v>0.5553499226163429</v>
+      </c>
+      <c r="S28">
+        <v>1.027337718942581</v>
+      </c>
+      <c r="T28">
+        <v>0.5553499226163429</v>
+      </c>
+      <c r="U28">
+        <v>0.7758842532956988</v>
+      </c>
+      <c r="V28">
+        <v>0.6250121739075691</v>
+      </c>
+      <c r="W28">
+        <v>0.9274507839192982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>-0.005559456457380687</v>
+      </c>
+      <c r="D29">
+        <v>3.448445376577031</v>
+      </c>
+      <c r="E29">
+        <v>0.002273423716787129</v>
+      </c>
+      <c r="F29">
+        <v>3.448445376577031</v>
+      </c>
+      <c r="G29">
+        <v>0.1053340076677965</v>
+      </c>
+      <c r="H29">
+        <v>0.7487796103433382</v>
+      </c>
+      <c r="I29">
+        <v>0.003067211326528812</v>
+      </c>
+      <c r="J29">
+        <v>0.002273423716787129</v>
+      </c>
+      <c r="K29">
+        <v>0.002273423716787129</v>
+      </c>
+      <c r="L29">
+        <v>0.000300502069913926</v>
+      </c>
+      <c r="M29">
+        <v>0.001766405706647251</v>
+      </c>
+      <c r="N29">
+        <v>0.002273423716787129</v>
+      </c>
+      <c r="O29">
+        <v>-0.005559456457380687</v>
+      </c>
+      <c r="P29">
+        <v>1.721442960059825</v>
+      </c>
+      <c r="Q29">
+        <v>-0.002629477193733381</v>
+      </c>
+      <c r="R29">
+        <v>1.148386447945479</v>
+      </c>
+      <c r="S29">
+        <v>1.147728807396521</v>
+      </c>
+      <c r="T29">
+        <v>1.148386447945479</v>
+      </c>
+      <c r="U29">
+        <v>0.8613649614765878</v>
+      </c>
+      <c r="V29">
+        <v>0.6895466539246277</v>
+      </c>
+      <c r="W29">
+        <v>0.5380508851188327</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
+++ b/JupyterNotebooks/AvgHW/CopperA-HW03.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>2.369958062308037</v>
+        <v>0.9351721483326675</v>
       </c>
       <c r="D4">
-        <v>0.8594122836672572</v>
+        <v>0.8708066347883657</v>
       </c>
       <c r="E4">
-        <v>0.8693376660888269</v>
+        <v>0.8853169013922825</v>
       </c>
       <c r="F4">
-        <v>0.8594122836672572</v>
+        <v>0.8708066347883657</v>
       </c>
       <c r="G4">
-        <v>0.9525994872551126</v>
+        <v>0.9079411929609766</v>
       </c>
       <c r="H4">
-        <v>0.9755226658197711</v>
+        <v>2.767578581234617</v>
       </c>
       <c r="I4">
-        <v>0.8359563283768826</v>
+        <v>0.8774148462259383</v>
       </c>
       <c r="J4">
-        <v>0.8693376660911237</v>
+        <v>0.8853169013951405</v>
       </c>
       <c r="K4">
-        <v>0.8693376660911237</v>
+        <v>0.8853169013951405</v>
       </c>
       <c r="L4">
-        <v>0.8776331672277068</v>
+        <v>1.059254655461087</v>
       </c>
       <c r="M4">
-        <v>1.119352284345038</v>
+        <v>0.9442252492424346</v>
       </c>
       <c r="N4">
-        <v>0.8693376660911237</v>
+        <v>0.8853169013951405</v>
       </c>
       <c r="O4">
-        <v>2.369958062308037</v>
+        <v>0.9351721483326675</v>
       </c>
       <c r="P4">
-        <v>1.614685172987647</v>
+        <v>0.9029893915605166</v>
       </c>
       <c r="Q4">
-        <v>1.623795614767872</v>
+        <v>0.9972134018968772</v>
       </c>
       <c r="R4">
-        <v>1.366236004022139</v>
+        <v>0.8970985615053912</v>
       </c>
       <c r="S4">
-        <v>1.369001171067667</v>
+        <v>0.9550778128607066</v>
       </c>
       <c r="T4">
-        <v>1.366236004022139</v>
+        <v>0.8970985615053912</v>
       </c>
       <c r="U4">
-        <v>1.244085294823531</v>
+        <v>0.9376375849943152</v>
       </c>
       <c r="V4">
-        <v>1.169135769077049</v>
+        <v>0.9271734482744802</v>
       </c>
       <c r="W4">
-        <v>1.107471493136366</v>
+        <v>1.155963776205153</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.003222070268987</v>
+        <v>3.958285728398501</v>
       </c>
       <c r="D5">
-        <v>0.9128318359342916</v>
+        <v>7.901826385245317</v>
       </c>
       <c r="E5">
-        <v>1.307998232205732</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="F5">
-        <v>0.9128318359342916</v>
+        <v>7.901826385245317</v>
       </c>
       <c r="G5">
-        <v>0.9272872549188476</v>
+        <v>-0.001793514139588356</v>
       </c>
       <c r="H5">
-        <v>4.14312252527461</v>
+        <v>2.31043083631105</v>
       </c>
       <c r="I5">
-        <v>0.8687715888981696</v>
+        <v>3.859177755943651</v>
       </c>
       <c r="J5">
-        <v>1.307998232208369</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="K5">
-        <v>1.307998232208369</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="L5">
-        <v>1.114201077470299</v>
+        <v>3.877307544066947</v>
       </c>
       <c r="M5">
-        <v>0.9288158382228775</v>
+        <v>3.647148681811291</v>
       </c>
       <c r="N5">
-        <v>1.307998232208369</v>
+        <v>12.59407258375526</v>
       </c>
       <c r="O5">
-        <v>1.003222070268987</v>
+        <v>3.958285728398501</v>
       </c>
       <c r="P5">
-        <v>0.9580269531016394</v>
+        <v>5.930056056821909</v>
       </c>
       <c r="Q5">
-        <v>1.058711573869643</v>
+        <v>3.917796636232724</v>
       </c>
       <c r="R5">
-        <v>1.074684046137216</v>
+        <v>8.151394899133026</v>
       </c>
       <c r="S5">
-        <v>1.010084994557859</v>
+        <v>5.245806552570255</v>
       </c>
       <c r="T5">
-        <v>1.074684046137216</v>
+        <v>8.151394899133026</v>
       </c>
       <c r="U5">
-        <v>1.084563303970487</v>
+        <v>7.082873060366506</v>
       </c>
       <c r="V5">
-        <v>1.129250289618063</v>
+        <v>8.185112965044256</v>
       </c>
       <c r="W5">
-        <v>1.400781302899557</v>
+        <v>4.768307000174053</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.4145937169786352</v>
+        <v>2.369958062308037</v>
       </c>
       <c r="D6">
-        <v>0.4664360439529857</v>
+        <v>0.8594122836672572</v>
       </c>
       <c r="E6">
-        <v>0.4945717507279332</v>
+        <v>0.8693376660888269</v>
       </c>
       <c r="F6">
-        <v>0.4664360439529857</v>
+        <v>0.8594122836672572</v>
       </c>
       <c r="G6">
-        <v>0.4847227818216826</v>
+        <v>0.9525994872551126</v>
       </c>
       <c r="H6">
-        <v>31.61001910748393</v>
+        <v>0.9755226658197711</v>
       </c>
       <c r="I6">
-        <v>0.4106394866965835</v>
+        <v>0.8359563283768826</v>
       </c>
       <c r="J6">
-        <v>0.4945717507286558</v>
+        <v>0.8693376660911237</v>
       </c>
       <c r="K6">
-        <v>0.4945717507286558</v>
+        <v>0.8693376660911237</v>
       </c>
       <c r="L6">
-        <v>0.5036086237084888</v>
+        <v>0.8776331672277068</v>
       </c>
       <c r="M6">
-        <v>0.4668412750157176</v>
+        <v>1.119352284345038</v>
       </c>
       <c r="N6">
-        <v>0.4945717507286558</v>
+        <v>0.8693376660911237</v>
       </c>
       <c r="O6">
-        <v>0.4145937169786352</v>
+        <v>2.369958062308037</v>
       </c>
       <c r="P6">
-        <v>0.4405148804658104</v>
+        <v>1.614685172987647</v>
       </c>
       <c r="Q6">
-        <v>0.459101170343562</v>
+        <v>1.623795614767872</v>
       </c>
       <c r="R6">
-        <v>0.4585338372200922</v>
+        <v>1.366236004022139</v>
       </c>
       <c r="S6">
-        <v>0.4615461282133699</v>
+        <v>1.369001171067667</v>
       </c>
       <c r="T6">
-        <v>0.4585338372200922</v>
+        <v>1.366236004022139</v>
       </c>
       <c r="U6">
-        <v>0.4698025338421914</v>
+        <v>1.244085294823531</v>
       </c>
       <c r="V6">
-        <v>0.4747563772194843</v>
+        <v>1.169135769077049</v>
       </c>
       <c r="W6">
-        <v>4.356429098298334</v>
+        <v>1.107471493136366</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.169609015411003</v>
+        <v>1.003222070268987</v>
       </c>
       <c r="D7">
-        <v>1.161744241551111</v>
+        <v>0.9128318359342916</v>
       </c>
       <c r="E7">
-        <v>1.331306425566835</v>
+        <v>1.307998232205732</v>
       </c>
       <c r="F7">
-        <v>1.161744241551111</v>
+        <v>0.9128318359342916</v>
       </c>
       <c r="G7">
-        <v>1.110271321408716</v>
+        <v>0.9272872549188476</v>
       </c>
       <c r="H7">
-        <v>0.9912241242349744</v>
+        <v>4.14312252527461</v>
       </c>
       <c r="I7">
-        <v>1.00786776189162</v>
+        <v>0.8687715888981696</v>
       </c>
       <c r="J7">
-        <v>1.331306425570049</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="K7">
-        <v>1.331306425570049</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="L7">
-        <v>1.137900751409385</v>
+        <v>1.114201077470299</v>
       </c>
       <c r="M7">
-        <v>0.9698679277695211</v>
+        <v>0.9288158382228775</v>
       </c>
       <c r="N7">
-        <v>1.331306425570049</v>
+        <v>1.307998232208369</v>
       </c>
       <c r="O7">
-        <v>1.169609015411003</v>
+        <v>1.003222070268987</v>
       </c>
       <c r="P7">
-        <v>1.165676628481057</v>
+        <v>0.9580269531016394</v>
       </c>
       <c r="Q7">
-        <v>1.153754883410194</v>
+        <v>1.058711573869643</v>
       </c>
       <c r="R7">
-        <v>1.220886560844054</v>
+        <v>1.074684046137216</v>
       </c>
       <c r="S7">
-        <v>1.1564180027905</v>
+        <v>1.010084994557859</v>
       </c>
       <c r="T7">
-        <v>1.220886560844054</v>
+        <v>1.074684046137216</v>
       </c>
       <c r="U7">
-        <v>1.200140108485387</v>
+        <v>1.084563303970487</v>
       </c>
       <c r="V7">
-        <v>1.226373371902319</v>
+        <v>1.129250289618063</v>
       </c>
       <c r="W7">
-        <v>1.109973946155797</v>
+        <v>1.400781302899557</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9495756219658972</v>
+        <v>0.4145937169786352</v>
       </c>
       <c r="D8">
-        <v>1.056684527317157</v>
+        <v>0.4664360439529857</v>
       </c>
       <c r="E8">
-        <v>1.085504327332246</v>
+        <v>0.4945717507279332</v>
       </c>
       <c r="F8">
-        <v>1.056684527317157</v>
+        <v>0.4664360439529857</v>
       </c>
       <c r="G8">
-        <v>1.006390302368491</v>
+        <v>0.4847227818216826</v>
       </c>
       <c r="H8">
-        <v>1.042096977754617</v>
+        <v>31.61001910748393</v>
       </c>
       <c r="I8">
-        <v>0.9860907082035871</v>
+        <v>0.4106394866965835</v>
       </c>
       <c r="J8">
-        <v>1.085504327335735</v>
+        <v>0.4945717507286558</v>
       </c>
       <c r="K8">
-        <v>1.085504327335735</v>
+        <v>0.4945717507286558</v>
       </c>
       <c r="L8">
-        <v>1.066087065374461</v>
+        <v>0.5036086237084888</v>
       </c>
       <c r="M8">
-        <v>1.035080524254573</v>
+        <v>0.4668412750157176</v>
       </c>
       <c r="N8">
-        <v>1.085504327335735</v>
+        <v>0.4945717507286558</v>
       </c>
       <c r="O8">
-        <v>0.9495756219658972</v>
+        <v>0.4145937169786352</v>
       </c>
       <c r="P8">
-        <v>1.003130074641527</v>
+        <v>0.4405148804658104</v>
       </c>
       <c r="Q8">
-        <v>1.007831343670179</v>
+        <v>0.459101170343562</v>
       </c>
       <c r="R8">
-        <v>1.03058815887293</v>
+        <v>0.4585338372200922</v>
       </c>
       <c r="S8">
-        <v>1.024115738219172</v>
+        <v>0.4615461282133699</v>
       </c>
       <c r="T8">
-        <v>1.03058815887293</v>
+        <v>0.4585338372200922</v>
       </c>
       <c r="U8">
-        <v>1.039462885498313</v>
+        <v>0.4698025338421914</v>
       </c>
       <c r="V8">
-        <v>1.048671173865797</v>
+        <v>0.4747563772194843</v>
       </c>
       <c r="W8">
-        <v>1.028438756821815</v>
+        <v>4.356429098298334</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.43418806697604</v>
+        <v>1.169609015411003</v>
       </c>
       <c r="D9">
-        <v>1.196759479870286</v>
+        <v>1.161744241551111</v>
       </c>
       <c r="E9">
-        <v>1.599407088506422</v>
+        <v>1.331306425566835</v>
       </c>
       <c r="F9">
-        <v>1.196759479870286</v>
+        <v>1.161744241551111</v>
       </c>
       <c r="G9">
-        <v>1.288261842722532</v>
+        <v>1.110271321408716</v>
       </c>
       <c r="H9">
-        <v>1.148450278816848</v>
+        <v>0.9912241242349744</v>
       </c>
       <c r="I9">
-        <v>1.023693016475001</v>
+        <v>1.00786776189162</v>
       </c>
       <c r="J9">
-        <v>1.599407088509199</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="K9">
-        <v>1.599407088509199</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="L9">
-        <v>1.306292807604864</v>
+        <v>1.137900751409385</v>
       </c>
       <c r="M9">
-        <v>1.089266811533476</v>
+        <v>0.9698679277695211</v>
       </c>
       <c r="N9">
-        <v>1.599407088509199</v>
+        <v>1.331306425570049</v>
       </c>
       <c r="O9">
-        <v>1.43418806697604</v>
+        <v>1.169609015411003</v>
       </c>
       <c r="P9">
-        <v>1.315473773423163</v>
+        <v>1.165676628481057</v>
       </c>
       <c r="Q9">
-        <v>1.370240437290452</v>
+        <v>1.153754883410194</v>
       </c>
       <c r="R9">
-        <v>1.410118211785175</v>
+        <v>1.220886560844054</v>
       </c>
       <c r="S9">
-        <v>1.31241345148373</v>
+        <v>1.1564180027905</v>
       </c>
       <c r="T9">
-        <v>1.410118211785175</v>
+        <v>1.220886560844054</v>
       </c>
       <c r="U9">
-        <v>1.384161860740098</v>
+        <v>1.200140108485387</v>
       </c>
       <c r="V9">
-        <v>1.427210906293918</v>
+        <v>1.226373371902319</v>
       </c>
       <c r="W9">
-        <v>1.260789924063531</v>
+        <v>1.109973946155797</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.433753346468856</v>
+        <v>0.9495756219658972</v>
       </c>
       <c r="D10">
-        <v>0.2990310965229175</v>
+        <v>1.056684527317157</v>
       </c>
       <c r="E10">
-        <v>0.4538430307527747</v>
+        <v>1.085504327332246</v>
       </c>
       <c r="F10">
-        <v>0.2990310965229175</v>
+        <v>1.056684527317157</v>
       </c>
       <c r="G10">
-        <v>0.4745435961117632</v>
+        <v>1.006390302368491</v>
       </c>
       <c r="H10">
-        <v>31.98918529790226</v>
+        <v>1.042096977754617</v>
       </c>
       <c r="I10">
-        <v>0.432723517143219</v>
+        <v>0.9860907082035871</v>
       </c>
       <c r="J10">
-        <v>0.4538430307552221</v>
+        <v>1.085504327335735</v>
       </c>
       <c r="K10">
-        <v>0.4538430307552221</v>
+        <v>1.085504327335735</v>
       </c>
       <c r="L10">
-        <v>0.5378800333118854</v>
+        <v>1.066087065374461</v>
       </c>
       <c r="M10">
-        <v>0.418842394295691</v>
+        <v>1.035080524254573</v>
       </c>
       <c r="N10">
-        <v>0.4538430307552221</v>
+        <v>1.085504327335735</v>
       </c>
       <c r="O10">
-        <v>0.433753346468856</v>
+        <v>0.9495756219658972</v>
       </c>
       <c r="P10">
-        <v>0.3663922214958868</v>
+        <v>1.003130074641527</v>
       </c>
       <c r="Q10">
-        <v>0.4858166898903707</v>
+        <v>1.007831343670179</v>
       </c>
       <c r="R10">
-        <v>0.3955424912489986</v>
+        <v>1.03058815887293</v>
       </c>
       <c r="S10">
-        <v>0.423554825434553</v>
+        <v>1.024115738219172</v>
       </c>
       <c r="T10">
-        <v>0.3955424912489986</v>
+        <v>1.03058815887293</v>
       </c>
       <c r="U10">
-        <v>0.4311268767647203</v>
+        <v>1.039462885498313</v>
       </c>
       <c r="V10">
-        <v>0.4356701075628207</v>
+        <v>1.048671173865797</v>
       </c>
       <c r="W10">
-        <v>4.379975289063977</v>
+        <v>1.028438756821815</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.178148571561207</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="D11">
-        <v>1.26753896480931</v>
+        <v>1.196759479870286</v>
       </c>
       <c r="E11">
-        <v>0.8918329259844503</v>
+        <v>1.599407088506422</v>
       </c>
       <c r="F11">
-        <v>1.26753896480931</v>
+        <v>1.196759479870286</v>
       </c>
       <c r="G11">
-        <v>1.062479580892802</v>
+        <v>1.288261842722532</v>
       </c>
       <c r="H11">
-        <v>0.8540253753056756</v>
+        <v>1.148450278816848</v>
       </c>
       <c r="I11">
-        <v>1.101971455785757</v>
+        <v>1.023693016475001</v>
       </c>
       <c r="J11">
-        <v>0.8918329259881889</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="K11">
-        <v>0.8918329259881889</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="L11">
-        <v>0.9389521164219982</v>
+        <v>1.306292807604864</v>
       </c>
       <c r="M11">
-        <v>1.010105685240245</v>
+        <v>1.089266811533476</v>
       </c>
       <c r="N11">
-        <v>0.8918329259881889</v>
+        <v>1.599407088509199</v>
       </c>
       <c r="O11">
-        <v>2.178148571561207</v>
+        <v>1.43418806697604</v>
       </c>
       <c r="P11">
-        <v>1.722843768185258</v>
+        <v>1.315473773423163</v>
       </c>
       <c r="Q11">
-        <v>1.558550343991602</v>
+        <v>1.370240437290452</v>
       </c>
       <c r="R11">
-        <v>1.445840154119568</v>
+        <v>1.410118211785175</v>
       </c>
       <c r="S11">
-        <v>1.461546550930838</v>
+        <v>1.31241345148373</v>
       </c>
       <c r="T11">
-        <v>1.445840154119568</v>
+        <v>1.410118211785175</v>
       </c>
       <c r="U11">
-        <v>1.319118144695176</v>
+        <v>1.384161860740098</v>
       </c>
       <c r="V11">
-        <v>1.233661100953779</v>
+        <v>1.427210906293918</v>
       </c>
       <c r="W11">
-        <v>1.163131834500648</v>
+        <v>1.260789924063531</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8725755960886136</v>
+        <v>0.433753346468856</v>
       </c>
       <c r="D12">
-        <v>0.6859030122863374</v>
+        <v>0.2990310965229175</v>
       </c>
       <c r="E12">
-        <v>1.099981774556127</v>
+        <v>0.4538430307527747</v>
       </c>
       <c r="F12">
-        <v>0.6859030122863374</v>
+        <v>0.2990310965229175</v>
       </c>
       <c r="G12">
-        <v>0.8954111229834734</v>
+        <v>0.4745435961117632</v>
       </c>
       <c r="H12">
-        <v>5.624406425235504</v>
+        <v>31.98918529790226</v>
       </c>
       <c r="I12">
-        <v>0.9108161232342101</v>
+        <v>0.432723517143219</v>
       </c>
       <c r="J12">
-        <v>1.099981774560064</v>
+        <v>0.4538430307552221</v>
       </c>
       <c r="K12">
-        <v>1.099981774560064</v>
+        <v>0.4538430307552221</v>
       </c>
       <c r="L12">
-        <v>1.159749470487289</v>
+        <v>0.5378800333118854</v>
       </c>
       <c r="M12">
-        <v>0.7937760553707779</v>
+        <v>0.418842394295691</v>
       </c>
       <c r="N12">
-        <v>1.099981774560064</v>
+        <v>0.4538430307552221</v>
       </c>
       <c r="O12">
-        <v>0.8725755960886136</v>
+        <v>0.433753346468856</v>
       </c>
       <c r="P12">
-        <v>0.7792393041874754</v>
+        <v>0.3663922214958868</v>
       </c>
       <c r="Q12">
-        <v>1.016162533287951</v>
+        <v>0.4858166898903707</v>
       </c>
       <c r="R12">
-        <v>0.8861534609783382</v>
+        <v>0.3955424912489986</v>
       </c>
       <c r="S12">
-        <v>0.9060760262874133</v>
+        <v>0.423554825434553</v>
       </c>
       <c r="T12">
-        <v>0.8861534609783382</v>
+        <v>0.3955424912489986</v>
       </c>
       <c r="U12">
-        <v>0.954552463355576</v>
+        <v>0.4311268767647203</v>
       </c>
       <c r="V12">
-        <v>0.9836383255964736</v>
+        <v>0.4356701075628207</v>
       </c>
       <c r="W12">
-        <v>1.505327447530784</v>
+        <v>4.379975289063977</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.05324741915911</v>
+        <v>2.178148571561207</v>
       </c>
       <c r="D13">
-        <v>0.8164251127806935</v>
+        <v>1.26753896480931</v>
       </c>
       <c r="E13">
-        <v>0.7904452389823989</v>
+        <v>0.8918329259844503</v>
       </c>
       <c r="F13">
-        <v>0.8164251127806935</v>
+        <v>1.26753896480931</v>
       </c>
       <c r="G13">
-        <v>1.209028064976607</v>
+        <v>1.062479580892802</v>
       </c>
       <c r="H13">
-        <v>1.133420012538657</v>
+        <v>0.8540253753056756</v>
       </c>
       <c r="I13">
-        <v>1.110072550816626</v>
+        <v>1.101971455785757</v>
       </c>
       <c r="J13">
-        <v>0.7904452389895864</v>
+        <v>0.8918329259881889</v>
       </c>
       <c r="K13">
-        <v>0.7904452389895864</v>
+        <v>0.8918329259881889</v>
       </c>
       <c r="L13">
-        <v>1.022480997963406</v>
+        <v>0.9389521164219982</v>
       </c>
       <c r="M13">
-        <v>0.8592054023496291</v>
+        <v>1.010105685240245</v>
       </c>
       <c r="N13">
-        <v>0.7904452389895864</v>
+        <v>0.8918329259881889</v>
       </c>
       <c r="O13">
-        <v>1.05324741915911</v>
+        <v>2.178148571561207</v>
       </c>
       <c r="P13">
-        <v>0.9348362659699017</v>
+        <v>1.722843768185258</v>
       </c>
       <c r="Q13">
-        <v>1.037864208561258</v>
+        <v>1.558550343991602</v>
       </c>
       <c r="R13">
-        <v>0.8867059236431299</v>
+        <v>1.445840154119568</v>
       </c>
       <c r="S13">
-        <v>0.964051176634403</v>
+        <v>1.461546550930838</v>
       </c>
       <c r="T13">
-        <v>0.8867059236431297</v>
+        <v>1.445840154119568</v>
       </c>
       <c r="U13">
-        <v>0.9206496922231988</v>
+        <v>1.319118144695176</v>
       </c>
       <c r="V13">
-        <v>0.8946088015764764</v>
+        <v>1.233661100953779</v>
       </c>
       <c r="W13">
-        <v>0.9992905999467891</v>
+        <v>1.163131834500648</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>-0.01224133900000001</v>
+        <v>0.8725755960886136</v>
       </c>
       <c r="D14">
-        <v>-0.0009807710899999993</v>
+        <v>0.6859030122863374</v>
       </c>
       <c r="E14">
-        <v>-0.01612965899999998</v>
+        <v>1.099981774556127</v>
       </c>
       <c r="F14">
-        <v>-0.0009807710899999993</v>
+        <v>0.6859030122863374</v>
       </c>
       <c r="G14">
-        <v>0.005352028100000004</v>
+        <v>0.8954111229834734</v>
       </c>
       <c r="H14">
-        <v>60.56370000000005</v>
+        <v>5.624406425235504</v>
       </c>
       <c r="I14">
-        <v>-0.01021143999999999</v>
+        <v>0.9108161232342101</v>
       </c>
       <c r="J14">
-        <v>-0.01612965899999998</v>
+        <v>1.099981774560064</v>
       </c>
       <c r="K14">
-        <v>-0.01612965899999998</v>
+        <v>1.099981774560064</v>
       </c>
       <c r="L14">
-        <v>0.004457972600000005</v>
+        <v>1.159749470487289</v>
       </c>
       <c r="M14">
-        <v>0.007090004300000004</v>
+        <v>0.7937760553707779</v>
       </c>
       <c r="N14">
-        <v>-0.01612965899999998</v>
+        <v>1.099981774560064</v>
       </c>
       <c r="O14">
-        <v>-0.01224133900000001</v>
+        <v>0.8725755960886136</v>
       </c>
       <c r="P14">
-        <v>-0.006611055045000005</v>
+        <v>0.7792393041874754</v>
       </c>
       <c r="Q14">
-        <v>-0.003891683200000003</v>
+        <v>1.016162533287951</v>
       </c>
       <c r="R14">
-        <v>-0.009783923029999997</v>
+        <v>0.8861534609783382</v>
       </c>
       <c r="S14">
-        <v>-0.002921379163333335</v>
+        <v>0.9060760262874133</v>
       </c>
       <c r="T14">
-        <v>-0.009783923029999997</v>
+        <v>0.8861534609783382</v>
       </c>
       <c r="U14">
-        <v>-0.006223449122499996</v>
+        <v>0.954552463355576</v>
       </c>
       <c r="V14">
-        <v>-0.008204691097999994</v>
+        <v>0.9836383255964736</v>
       </c>
       <c r="W14">
-        <v>7.567629599488757</v>
+        <v>1.505327447530784</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.010282671</v>
+        <v>1.05324741915911</v>
       </c>
       <c r="D15">
-        <v>0.011910204</v>
+        <v>0.8164251127806935</v>
       </c>
       <c r="E15">
-        <v>181.71412</v>
+        <v>0.7904452389823989</v>
       </c>
       <c r="F15">
-        <v>0.011910204</v>
+        <v>0.8164251127806935</v>
       </c>
       <c r="G15">
-        <v>0.012393713</v>
+        <v>1.209028064976607</v>
       </c>
       <c r="H15">
-        <v>-0.016138361</v>
+        <v>1.133420012538657</v>
       </c>
       <c r="I15">
-        <v>0.004912388</v>
+        <v>1.110072550816626</v>
       </c>
       <c r="J15">
-        <v>181.71412</v>
+        <v>0.7904452389895864</v>
       </c>
       <c r="K15">
-        <v>181.71412</v>
+        <v>0.7904452389895864</v>
       </c>
       <c r="L15">
-        <v>0.00062515737</v>
+        <v>1.022480997963406</v>
       </c>
       <c r="M15">
-        <v>0.0061919611</v>
+        <v>0.8592054023496291</v>
       </c>
       <c r="N15">
-        <v>181.71412</v>
+        <v>0.7904452389895864</v>
       </c>
       <c r="O15">
-        <v>0.010282671</v>
+        <v>1.05324741915911</v>
       </c>
       <c r="P15">
-        <v>0.0110964375</v>
+        <v>0.9348362659699017</v>
       </c>
       <c r="Q15">
-        <v>0.005453914185</v>
+        <v>1.037864208561258</v>
       </c>
       <c r="R15">
-        <v>60.57877095833334</v>
+        <v>0.8867059236431299</v>
       </c>
       <c r="S15">
-        <v>0.00760601079</v>
+        <v>0.964051176634403</v>
       </c>
       <c r="T15">
-        <v>60.57877095833334</v>
+        <v>0.8867059236431297</v>
       </c>
       <c r="U15">
-        <v>45.4342345080925</v>
+        <v>0.9206496922231988</v>
       </c>
       <c r="V15">
-        <v>72.69021160647401</v>
+        <v>0.8946088015764764</v>
       </c>
       <c r="W15">
-        <v>22.71803721668375</v>
+        <v>0.9992905999467891</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>121.14151</v>
+        <v>-0.01224133900000001</v>
       </c>
       <c r="D16">
-        <v>0.00070900843</v>
+        <v>-0.0009807710899999993</v>
       </c>
       <c r="E16">
-        <v>0.010282672</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="F16">
-        <v>0.00070900843</v>
+        <v>-0.0009807710899999993</v>
       </c>
       <c r="G16">
-        <v>-0.0049039006</v>
+        <v>0.005352028100000004</v>
       </c>
       <c r="H16">
-        <v>-0.012240956</v>
+        <v>60.56370000000005</v>
       </c>
       <c r="I16">
-        <v>-0.0009139994799999999</v>
+        <v>-0.01021143999999999</v>
       </c>
       <c r="J16">
-        <v>0.010282672</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="K16">
-        <v>0.010282672</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="L16">
-        <v>-0.0049281008</v>
+        <v>0.004457972600000005</v>
       </c>
       <c r="M16">
-        <v>0.02555648</v>
+        <v>0.007090004300000004</v>
       </c>
       <c r="N16">
-        <v>0.010282672</v>
+        <v>-0.01612965899999998</v>
       </c>
       <c r="O16">
-        <v>121.14151</v>
+        <v>-0.01224133900000001</v>
       </c>
       <c r="P16">
-        <v>60.57110950421499</v>
+        <v>-0.006611055045000005</v>
       </c>
       <c r="Q16">
-        <v>60.5682909496</v>
+        <v>-0.003891683200000003</v>
       </c>
       <c r="R16">
-        <v>40.38416722681</v>
+        <v>-0.009783923029999997</v>
       </c>
       <c r="S16">
-        <v>40.37909696921</v>
+        <v>-0.002921379163333335</v>
       </c>
       <c r="T16">
-        <v>40.38416722681</v>
+        <v>-0.009783923029999997</v>
       </c>
       <c r="U16">
-        <v>30.2868933949075</v>
+        <v>-0.006223449122499996</v>
       </c>
       <c r="V16">
-        <v>24.231571250326</v>
+        <v>-0.008204691097999994</v>
       </c>
       <c r="W16">
-        <v>15.14438390044375</v>
+        <v>7.567629599488757</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>-0.012240765</v>
+        <v>0.010282671</v>
       </c>
       <c r="D17">
-        <v>-0.00097587775</v>
+        <v>0.011910204</v>
       </c>
       <c r="E17">
-        <v>-0.016142712</v>
+        <v>181.71412</v>
       </c>
       <c r="F17">
-        <v>-0.00097587775</v>
+        <v>0.011910204</v>
       </c>
       <c r="G17">
-        <v>0.0053568279</v>
+        <v>0.012393713</v>
       </c>
       <c r="H17">
-        <v>60.563705</v>
+        <v>-0.016138361</v>
       </c>
       <c r="I17">
-        <v>-0.010205502</v>
+        <v>0.004912388</v>
       </c>
       <c r="J17">
-        <v>-0.016142712</v>
+        <v>181.71412</v>
       </c>
       <c r="K17">
-        <v>-0.016142712</v>
+        <v>181.71412</v>
       </c>
       <c r="L17">
-        <v>0.0044451545</v>
+        <v>0.00062515737</v>
       </c>
       <c r="M17">
-        <v>0.0070844162</v>
+        <v>0.0061919611</v>
       </c>
       <c r="N17">
-        <v>-0.016142712</v>
+        <v>181.71412</v>
       </c>
       <c r="O17">
-        <v>-0.012240765</v>
+        <v>0.010282671</v>
       </c>
       <c r="P17">
-        <v>-0.006608321375</v>
+        <v>0.0110964375</v>
       </c>
       <c r="Q17">
-        <v>-0.00389780525</v>
+        <v>0.005453914185</v>
       </c>
       <c r="R17">
-        <v>-0.009786451583333333</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="S17">
-        <v>-0.002923829416666667</v>
+        <v>0.00760601079</v>
       </c>
       <c r="T17">
-        <v>-0.009786451583333333</v>
+        <v>60.57877095833334</v>
       </c>
       <c r="U17">
-        <v>-0.0062285500625</v>
+        <v>45.4342345080925</v>
       </c>
       <c r="V17">
-        <v>-0.008211382450000001</v>
+        <v>72.69021160647401</v>
       </c>
       <c r="W17">
-        <v>7.56762831773125</v>
+        <v>22.71803721668375</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>3.738881740999999</v>
+        <v>121.14151</v>
       </c>
       <c r="D18">
-        <v>0.000226438049808219</v>
+        <v>0.00070900843</v>
       </c>
       <c r="E18">
-        <v>8.091175504154522</v>
+        <v>0.010282672</v>
       </c>
       <c r="F18">
-        <v>0.000226438049808219</v>
+        <v>0.00070900843</v>
       </c>
       <c r="G18">
-        <v>3.649263746486028</v>
+        <v>-0.0049039006</v>
       </c>
       <c r="H18">
-        <v>0.00231473977260274</v>
+        <v>-0.012240956</v>
       </c>
       <c r="I18">
-        <v>0.002726924207671234</v>
+        <v>-0.0009139994799999999</v>
       </c>
       <c r="J18">
-        <v>8.091175504154517</v>
+        <v>0.010282672</v>
       </c>
       <c r="K18">
-        <v>8.091175504154517</v>
+        <v>0.010282672</v>
       </c>
       <c r="L18">
-        <v>3.482530116209726</v>
+        <v>-0.0049281008</v>
       </c>
       <c r="M18">
-        <v>-0.002075676626356165</v>
+        <v>0.02555648</v>
       </c>
       <c r="N18">
-        <v>8.091175504154517</v>
+        <v>0.010282672</v>
       </c>
       <c r="O18">
-        <v>3.738881740999999</v>
+        <v>121.14151</v>
       </c>
       <c r="P18">
-        <v>1.869554089524904</v>
+        <v>60.57110950421499</v>
       </c>
       <c r="Q18">
-        <v>3.610705928604863</v>
+        <v>60.5682909496</v>
       </c>
       <c r="R18">
-        <v>3.943427894401442</v>
+        <v>40.38416722681</v>
       </c>
       <c r="S18">
-        <v>2.407212765086511</v>
+        <v>40.37909696921</v>
       </c>
       <c r="T18">
-        <v>3.943427894401442</v>
+        <v>40.38416722681</v>
       </c>
       <c r="U18">
-        <v>3.828203449853513</v>
+        <v>30.2868933949075</v>
       </c>
       <c r="V18">
-        <v>4.680797860713714</v>
+        <v>24.231571250326</v>
       </c>
       <c r="W18">
-        <v>2.37063044165675</v>
+        <v>15.14438390044375</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>13.95229603842105</v>
+        <v>-0.012240765</v>
       </c>
       <c r="D19">
-        <v>0.007059826633157896</v>
+        <v>-0.00097587775</v>
       </c>
       <c r="E19">
-        <v>0.008372614442105264</v>
+        <v>-0.016142712</v>
       </c>
       <c r="F19">
-        <v>0.007059826633157896</v>
+        <v>-0.00097587775</v>
       </c>
       <c r="G19">
-        <v>0.0002176367000000002</v>
+        <v>0.0053568279</v>
       </c>
       <c r="H19">
-        <v>6.978976370100002</v>
+        <v>60.563705</v>
       </c>
       <c r="I19">
-        <v>-9.935083421052587E-05</v>
+        <v>-0.010205502</v>
       </c>
       <c r="J19">
-        <v>0.008372614442105264</v>
+        <v>-0.016142712</v>
       </c>
       <c r="K19">
-        <v>0.008372614442105264</v>
+        <v>-0.016142712</v>
       </c>
       <c r="L19">
-        <v>-0.004860329189473682</v>
+        <v>0.0044451545</v>
       </c>
       <c r="M19">
-        <v>0.01755527272105263</v>
+        <v>0.0070844162</v>
       </c>
       <c r="N19">
-        <v>0.008372614442105264</v>
+        <v>-0.016142712</v>
       </c>
       <c r="O19">
-        <v>13.95229603842105</v>
+        <v>-0.012240765</v>
       </c>
       <c r="P19">
-        <v>6.979677932527106</v>
+        <v>-0.006608321375</v>
       </c>
       <c r="Q19">
-        <v>6.97371785461579</v>
+        <v>-0.00389780525</v>
       </c>
       <c r="R19">
-        <v>4.655909493165439</v>
+        <v>-0.009786451583333333</v>
       </c>
       <c r="S19">
-        <v>4.651498511954913</v>
+        <v>-0.002923829416666667</v>
       </c>
       <c r="T19">
-        <v>4.655909493165439</v>
+        <v>-0.009786451583333333</v>
       </c>
       <c r="U19">
-        <v>3.490717037576711</v>
+        <v>-0.0062285500625</v>
       </c>
       <c r="V19">
-        <v>2.79424815294979</v>
+        <v>-0.008211382450000001</v>
       </c>
       <c r="W19">
-        <v>2.619939759874211</v>
+        <v>7.56762831773125</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>3.577001580094211</v>
+        <v>3.738881740999999</v>
       </c>
       <c r="D20">
-        <v>7.154208099047896</v>
+        <v>0.000226438049808219</v>
       </c>
       <c r="E20">
-        <v>15.48622742441474</v>
+        <v>8.091175504154522</v>
       </c>
       <c r="F20">
-        <v>7.154208099047896</v>
+        <v>0.000226438049808219</v>
       </c>
       <c r="G20">
-        <v>-0.0009784198978947365</v>
+        <v>3.649263746486028</v>
       </c>
       <c r="H20">
-        <v>5.160669539427897</v>
+        <v>0.00231473977260274</v>
       </c>
       <c r="I20">
-        <v>3.497465867389473</v>
+        <v>0.002726924207671234</v>
       </c>
       <c r="J20">
-        <v>15.48622742441474</v>
+        <v>8.091175504154517</v>
       </c>
       <c r="K20">
-        <v>15.48622742441474</v>
+        <v>8.091175504154517</v>
       </c>
       <c r="L20">
-        <v>3.56903923518579</v>
+        <v>3.482530116209726</v>
       </c>
       <c r="M20">
-        <v>3.297473325983632</v>
+        <v>-0.002075676626356165</v>
       </c>
       <c r="N20">
-        <v>15.48622742441474</v>
+        <v>8.091175504154517</v>
       </c>
       <c r="O20">
-        <v>3.577001580094211</v>
+        <v>3.738881740999999</v>
       </c>
       <c r="P20">
-        <v>5.365604839571054</v>
+        <v>1.869554089524904</v>
       </c>
       <c r="Q20">
-        <v>3.573020407640001</v>
+        <v>3.610705928604863</v>
       </c>
       <c r="R20">
-        <v>8.739145701185615</v>
+        <v>3.943427894401442</v>
       </c>
       <c r="S20">
-        <v>4.766749638109299</v>
+        <v>2.407212765086511</v>
       </c>
       <c r="T20">
-        <v>8.739145701185615</v>
+        <v>3.943427894401442</v>
       </c>
       <c r="U20">
-        <v>7.446619084685659</v>
+        <v>3.828203449853513</v>
       </c>
       <c r="V20">
-        <v>9.054540752631477</v>
+        <v>4.680797860713714</v>
       </c>
       <c r="W20">
-        <v>5.217638331455718</v>
+        <v>2.37063044165675</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.2934870853603606</v>
+        <v>13.95229603842105</v>
       </c>
       <c r="D21">
-        <v>-0.0004954784549887927</v>
+        <v>0.007059826633157896</v>
       </c>
       <c r="E21">
-        <v>-0.0004101383101088951</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="F21">
-        <v>-0.0004954784549887927</v>
+        <v>0.007059826633157896</v>
       </c>
       <c r="G21">
-        <v>0.9931425163368653</v>
+        <v>0.0002176367000000002</v>
       </c>
       <c r="H21">
-        <v>0.001281512401697156</v>
+        <v>6.978976370100002</v>
       </c>
       <c r="I21">
-        <v>-0.0009637956398396606</v>
+        <v>-9.935083421052587E-05</v>
       </c>
       <c r="J21">
-        <v>-0.0004101383104618379</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="K21">
-        <v>-0.0004101383104618379</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="L21">
-        <v>0.002225280171486818</v>
+        <v>-0.004860329189473682</v>
       </c>
       <c r="M21">
-        <v>2.290525657679574</v>
+        <v>0.01755527272105263</v>
       </c>
       <c r="N21">
-        <v>-0.0004101383104618379</v>
+        <v>0.008372614442105264</v>
       </c>
       <c r="O21">
-        <v>0.2934870853603606</v>
+        <v>13.95229603842105</v>
       </c>
       <c r="P21">
-        <v>0.1464958034526859</v>
+        <v>6.979677932527106</v>
       </c>
       <c r="Q21">
-        <v>0.1478561827659237</v>
+        <v>6.97371785461579</v>
       </c>
       <c r="R21">
-        <v>0.09752715619830331</v>
+        <v>4.655909493165439</v>
       </c>
       <c r="S21">
-        <v>0.09840562902561951</v>
+        <v>4.651498511954913</v>
       </c>
       <c r="T21">
-        <v>0.09752715619830331</v>
+        <v>4.655909493165439</v>
       </c>
       <c r="U21">
-        <v>0.07370168719159918</v>
+        <v>3.490717037576711</v>
       </c>
       <c r="V21">
-        <v>0.05887932209118698</v>
+        <v>2.79424815294979</v>
       </c>
       <c r="W21">
-        <v>0.4473490799430866</v>
+        <v>2.619939759874211</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>-0.001287746089728106</v>
+        <v>3.577001580094211</v>
       </c>
       <c r="D22">
-        <v>0.001239198148660105</v>
+        <v>7.154208099047896</v>
       </c>
       <c r="E22">
-        <v>0.9007447313079856</v>
+        <v>15.48622742441474</v>
       </c>
       <c r="F22">
-        <v>0.001239198148660105</v>
+        <v>7.154208099047896</v>
       </c>
       <c r="G22">
-        <v>0.431775385780092</v>
+        <v>-0.0009784198978947365</v>
       </c>
       <c r="H22">
-        <v>2.673485078867889</v>
+        <v>5.160669539427897</v>
       </c>
       <c r="I22">
-        <v>0.3076092867992351</v>
+        <v>3.497465867389473</v>
       </c>
       <c r="J22">
-        <v>0.9007447313079856</v>
+        <v>15.48622742441474</v>
       </c>
       <c r="K22">
-        <v>0.9007447313079856</v>
+        <v>15.48622742441474</v>
       </c>
       <c r="L22">
-        <v>1.985218897570126</v>
+        <v>3.56903923518579</v>
       </c>
       <c r="M22">
-        <v>0.007078081047542492</v>
+        <v>3.297473325983632</v>
       </c>
       <c r="N22">
-        <v>0.9007447313079856</v>
+        <v>15.48622742441474</v>
       </c>
       <c r="O22">
-        <v>-0.001287746089728106</v>
+        <v>3.577001580094211</v>
       </c>
       <c r="P22">
-        <v>-2.427397053400072E-05</v>
+        <v>5.365604839571054</v>
       </c>
       <c r="Q22">
-        <v>0.9919655757401992</v>
+        <v>3.573020407640001</v>
       </c>
       <c r="R22">
-        <v>0.3002320611223059</v>
+        <v>8.739145701185615</v>
       </c>
       <c r="S22">
-        <v>0.6617234498763528</v>
+        <v>4.766749638109299</v>
       </c>
       <c r="T22">
-        <v>0.3002320611223059</v>
+        <v>8.739145701185615</v>
       </c>
       <c r="U22">
-        <v>0.721478770234261</v>
+        <v>7.446619084685659</v>
       </c>
       <c r="V22">
-        <v>0.7573319624490059</v>
+        <v>9.054540752631477</v>
       </c>
       <c r="W22">
-        <v>0.7882328641789753</v>
+        <v>5.217638331455718</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.0002878808757884235</v>
+        <v>0.2934870853603606</v>
       </c>
       <c r="D23">
-        <v>0.0005321790215116628</v>
+        <v>-0.0004954784549887927</v>
       </c>
       <c r="E23">
-        <v>-0.001558648893322354</v>
+        <v>-0.0004101383101088951</v>
       </c>
       <c r="F23">
-        <v>0.0005321790215116628</v>
+        <v>-0.0004954784549887927</v>
       </c>
       <c r="G23">
-        <v>1.918477202137383</v>
+        <v>0.9931425163368653</v>
       </c>
       <c r="H23">
-        <v>1.399331837347491</v>
+        <v>0.001281512401697156</v>
       </c>
       <c r="I23">
-        <v>2.508918383184844</v>
+        <v>-0.0009637956398396606</v>
       </c>
       <c r="J23">
-        <v>-0.001558648893322354</v>
+        <v>-0.0004101383104618379</v>
       </c>
       <c r="K23">
-        <v>-0.001558648893322354</v>
+        <v>-0.0004101383104618379</v>
       </c>
       <c r="L23">
-        <v>1.612403044375189</v>
+        <v>0.002225280171486818</v>
       </c>
       <c r="M23">
-        <v>0.1412820554661308</v>
+        <v>2.290525657679574</v>
       </c>
       <c r="N23">
-        <v>-0.001558648893322354</v>
+        <v>-0.0004101383104618379</v>
       </c>
       <c r="O23">
-        <v>0.0002878808757884235</v>
+        <v>0.2934870853603606</v>
       </c>
       <c r="P23">
-        <v>0.0004100299486500432</v>
+        <v>0.1464958034526859</v>
       </c>
       <c r="Q23">
-        <v>0.8063454626254888</v>
+        <v>0.1478561827659237</v>
       </c>
       <c r="R23">
-        <v>-0.0002461963320074224</v>
+        <v>0.09752715619830331</v>
       </c>
       <c r="S23">
-        <v>0.5377410347574964</v>
+        <v>0.09840562902561951</v>
       </c>
       <c r="T23">
-        <v>-0.0002461963320074224</v>
+        <v>0.09752715619830331</v>
       </c>
       <c r="U23">
-        <v>0.4029161138447917</v>
+        <v>0.07370168719159918</v>
       </c>
       <c r="V23">
-        <v>0.3220211612971689</v>
+        <v>0.05887932209118698</v>
       </c>
       <c r="W23">
-        <v>0.947459241689377</v>
+        <v>0.4473490799430866</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>3.102638498111983</v>
+        <v>-0.001287746089728106</v>
       </c>
       <c r="D24">
-        <v>4.26683228701516</v>
+        <v>0.001239198148660105</v>
       </c>
       <c r="E24">
-        <v>3.155365551851069</v>
+        <v>0.9007447313079856</v>
       </c>
       <c r="F24">
-        <v>4.26683228701516</v>
+        <v>0.001239198148660105</v>
       </c>
       <c r="G24">
-        <v>1.310737099070905</v>
+        <v>0.431775385780092</v>
       </c>
       <c r="H24">
-        <v>0.02000191212358884</v>
+        <v>2.673485078867889</v>
       </c>
       <c r="I24">
-        <v>1.059743902438571</v>
+        <v>0.3076092867992351</v>
       </c>
       <c r="J24">
-        <v>3.155365551854046</v>
+        <v>0.9007447313079856</v>
       </c>
       <c r="K24">
-        <v>3.155365551854046</v>
+        <v>0.9007447313079856</v>
       </c>
       <c r="L24">
-        <v>0.4520445183199169</v>
+        <v>1.985218897570126</v>
       </c>
       <c r="M24">
-        <v>0.8681926278170161</v>
+        <v>0.007078081047542492</v>
       </c>
       <c r="N24">
-        <v>3.155365551854046</v>
+        <v>0.9007447313079856</v>
       </c>
       <c r="O24">
-        <v>3.102638498111983</v>
+        <v>-0.001287746089728106</v>
       </c>
       <c r="P24">
-        <v>3.684735392563572</v>
+        <v>-2.427397053400072E-05</v>
       </c>
       <c r="Q24">
-        <v>1.77734150821595</v>
+        <v>0.9919655757401992</v>
       </c>
       <c r="R24">
-        <v>3.50827877899373</v>
+        <v>0.3002320611223059</v>
       </c>
       <c r="S24">
-        <v>2.607171767815687</v>
+        <v>0.6617234498763528</v>
       </c>
       <c r="T24">
-        <v>3.508278778993729</v>
+        <v>0.3002320611223059</v>
       </c>
       <c r="U24">
-        <v>2.744220213825276</v>
+        <v>0.721478770234261</v>
       </c>
       <c r="V24">
-        <v>2.826449281431031</v>
+        <v>0.7573319624490059</v>
       </c>
       <c r="W24">
-        <v>1.779444549593898</v>
+        <v>0.7882328641789753</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.1366211682466831</v>
+        <v>0.0002878808757884235</v>
       </c>
       <c r="D25">
-        <v>-0.004540638053861719</v>
+        <v>0.0005321790215116628</v>
       </c>
       <c r="E25">
-        <v>2.807629270170231</v>
+        <v>-0.001558648893322354</v>
       </c>
       <c r="F25">
-        <v>-0.004540638053861719</v>
+        <v>0.0005321790215116628</v>
       </c>
       <c r="G25">
-        <v>-0.0009834813620836118</v>
+        <v>1.918477202137383</v>
       </c>
       <c r="H25">
-        <v>0.2444436757176928</v>
+        <v>1.399331837347491</v>
       </c>
       <c r="I25">
-        <v>2.613486291627167</v>
+        <v>2.508918383184844</v>
       </c>
       <c r="J25">
-        <v>2.807629270170231</v>
+        <v>-0.001558648893322354</v>
       </c>
       <c r="K25">
-        <v>2.807629270170231</v>
+        <v>-0.001558648893322354</v>
       </c>
       <c r="L25">
-        <v>0.002477864636526571</v>
+        <v>1.612403044375189</v>
       </c>
       <c r="M25">
-        <v>0.3570871293643518</v>
+        <v>0.1412820554661308</v>
       </c>
       <c r="N25">
-        <v>2.807629270170231</v>
+        <v>-0.001558648893322354</v>
       </c>
       <c r="O25">
-        <v>0.1366211682466831</v>
+        <v>0.0002878808757884235</v>
       </c>
       <c r="P25">
-        <v>0.06604026509641067</v>
+        <v>0.0004100299486500432</v>
       </c>
       <c r="Q25">
-        <v>0.06954951644160481</v>
+        <v>0.8063454626254888</v>
       </c>
       <c r="R25">
-        <v>0.9799032667876842</v>
+        <v>-0.0002461963320074224</v>
       </c>
       <c r="S25">
-        <v>0.04485279827644931</v>
+        <v>0.5377410347574964</v>
       </c>
       <c r="T25">
-        <v>0.9799032667876842</v>
+        <v>-0.0002461963320074224</v>
       </c>
       <c r="U25">
-        <v>0.7355469162498949</v>
+        <v>0.4029161138447917</v>
       </c>
       <c r="V25">
-        <v>1.149963387033962</v>
+        <v>0.3220211612971689</v>
       </c>
       <c r="W25">
-        <v>0.7695276600433385</v>
+        <v>0.947459241689377</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.08874205779965998</v>
+        <v>3.102638498111983</v>
       </c>
       <c r="D26">
-        <v>0.001693839441435879</v>
+        <v>4.26683228701516</v>
       </c>
       <c r="E26">
-        <v>0.0009280632734029467</v>
+        <v>3.155365551851069</v>
       </c>
       <c r="F26">
-        <v>0.001693839441435879</v>
+        <v>4.26683228701516</v>
       </c>
       <c r="G26">
-        <v>4.505613523605059</v>
+        <v>1.310737099070905</v>
       </c>
       <c r="H26">
-        <v>0.03517860966366432</v>
+        <v>0.02000191212358884</v>
       </c>
       <c r="I26">
-        <v>0.0236012082603315</v>
+        <v>1.059743902438571</v>
       </c>
       <c r="J26">
-        <v>0.0009280632739349046</v>
+        <v>3.155365551854046</v>
       </c>
       <c r="K26">
-        <v>0.0009280632739349046</v>
+        <v>3.155365551854046</v>
       </c>
       <c r="L26">
-        <v>4.746435139022208</v>
+        <v>0.4520445183199169</v>
       </c>
       <c r="M26">
-        <v>0.07431463542205639</v>
+        <v>0.8681926278170161</v>
       </c>
       <c r="N26">
-        <v>0.0009280632739349046</v>
+        <v>3.155365551854046</v>
       </c>
       <c r="O26">
-        <v>0.08874205779965998</v>
+        <v>3.102638498111983</v>
       </c>
       <c r="P26">
-        <v>0.04521794862054793</v>
+        <v>3.684735392563572</v>
       </c>
       <c r="Q26">
-        <v>2.417588598410934</v>
+        <v>1.77734150821595</v>
       </c>
       <c r="R26">
-        <v>0.03045465350501025</v>
+        <v>3.50827877899373</v>
       </c>
       <c r="S26">
-        <v>1.612290345421101</v>
+        <v>2.607171767815687</v>
       </c>
       <c r="T26">
-        <v>0.03045465350501025</v>
+        <v>3.508278778993729</v>
       </c>
       <c r="U26">
-        <v>1.20944977488431</v>
+        <v>2.744220213825276</v>
       </c>
       <c r="V26">
-        <v>0.9677454325622346</v>
+        <v>2.826449281431031</v>
       </c>
       <c r="W26">
-        <v>1.184563384561044</v>
+        <v>1.779444549593898</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>12.76828590584813</v>
+        <v>0.1366211682466831</v>
       </c>
       <c r="D27">
-        <v>2.350795123368404</v>
+        <v>-0.004540638053861719</v>
       </c>
       <c r="E27">
-        <v>-0.0009907281498948784</v>
+        <v>2.807629270170231</v>
       </c>
       <c r="F27">
-        <v>2.350795123368404</v>
+        <v>-0.004540638053861719</v>
       </c>
       <c r="G27">
-        <v>0.06300735775422184</v>
+        <v>-0.0009834813620836118</v>
       </c>
       <c r="H27">
-        <v>6.944388629705038</v>
+        <v>0.2444436757176928</v>
       </c>
       <c r="I27">
-        <v>0.001110502068036704</v>
+        <v>2.613486291627167</v>
       </c>
       <c r="J27">
-        <v>-0.0009907281498948784</v>
+        <v>2.807629270170231</v>
       </c>
       <c r="K27">
-        <v>-0.0009907281498948784</v>
+        <v>2.807629270170231</v>
       </c>
       <c r="L27">
-        <v>0.003924144988638904</v>
+        <v>0.002477864636526571</v>
       </c>
       <c r="M27">
-        <v>6.57292815001389</v>
+        <v>0.3570871293643518</v>
       </c>
       <c r="N27">
-        <v>-0.0009907281498948784</v>
+        <v>2.807629270170231</v>
       </c>
       <c r="O27">
-        <v>12.76828590584813</v>
+        <v>0.1366211682466831</v>
       </c>
       <c r="P27">
-        <v>7.559540514608269</v>
+        <v>0.06604026509641067</v>
       </c>
       <c r="Q27">
-        <v>6.386105025418386</v>
+        <v>0.06954951644160481</v>
       </c>
       <c r="R27">
-        <v>5.039363433688881</v>
+        <v>0.9799032667876842</v>
       </c>
       <c r="S27">
-        <v>5.041001724735059</v>
+        <v>0.04485279827644931</v>
       </c>
       <c r="T27">
-        <v>5.039363433688881</v>
+        <v>0.9799032667876842</v>
       </c>
       <c r="U27">
-        <v>3.78050361151382</v>
+        <v>0.7355469162498949</v>
       </c>
       <c r="V27">
-        <v>3.024204743581077</v>
+        <v>1.149963387033962</v>
       </c>
       <c r="W27">
-        <v>3.587931135699558</v>
+        <v>0.7695276600433385</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.1136545656568922</v>
+        <v>0.08874205779965998</v>
       </c>
       <c r="D28">
-        <v>1.530871345837086</v>
+        <v>0.001693839441435879</v>
       </c>
       <c r="E28">
-        <v>0.02152385635524921</v>
+        <v>0.0009280632734029467</v>
       </c>
       <c r="F28">
-        <v>1.530871345837086</v>
+        <v>0.001693839441435879</v>
       </c>
       <c r="G28">
-        <v>3.005611083784684</v>
+        <v>4.505613523605059</v>
       </c>
       <c r="H28">
-        <v>0.4689904412764366</v>
+        <v>0.03517860966366432</v>
       </c>
       <c r="I28">
-        <v>0.008063545060793324</v>
+        <v>0.0236012082603315</v>
       </c>
       <c r="J28">
-        <v>0.02152385635505068</v>
+        <v>0.0009280632739349046</v>
       </c>
       <c r="K28">
-        <v>0.02152385635505068</v>
+        <v>0.0009280632739349046</v>
       </c>
       <c r="L28">
-        <v>1.437487245333766</v>
+        <v>4.746435139022208</v>
       </c>
       <c r="M28">
-        <v>0.8334041880496774</v>
+        <v>0.07431463542205639</v>
       </c>
       <c r="N28">
-        <v>0.02152385635505068</v>
+        <v>0.0009280632739349046</v>
       </c>
       <c r="O28">
-        <v>0.1136545656568922</v>
+        <v>0.08874205779965998</v>
       </c>
       <c r="P28">
-        <v>0.822262955746989</v>
+        <v>0.04521794862054793</v>
       </c>
       <c r="Q28">
-        <v>0.7755709054953293</v>
+        <v>2.417588598410934</v>
       </c>
       <c r="R28">
-        <v>0.5553499226163429</v>
+        <v>0.03045465350501025</v>
       </c>
       <c r="S28">
-        <v>1.027337718942581</v>
+        <v>1.612290345421101</v>
       </c>
       <c r="T28">
-        <v>0.5553499226163429</v>
+        <v>0.03045465350501025</v>
       </c>
       <c r="U28">
-        <v>0.7758842532956988</v>
+        <v>1.20944977488431</v>
       </c>
       <c r="V28">
-        <v>0.6250121739075691</v>
+        <v>0.9677454325622346</v>
       </c>
       <c r="W28">
-        <v>0.9274507839192982</v>
+        <v>1.184563384561044</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>12.76828590584813</v>
+      </c>
+      <c r="D29">
+        <v>2.350795123368404</v>
+      </c>
+      <c r="E29">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="F29">
+        <v>2.350795123368404</v>
+      </c>
+      <c r="G29">
+        <v>0.06300735775422184</v>
+      </c>
+      <c r="H29">
+        <v>6.944388629705038</v>
+      </c>
+      <c r="I29">
+        <v>0.001110502068036704</v>
+      </c>
+      <c r="J29">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="K29">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="L29">
+        <v>0.003924144988638904</v>
+      </c>
+      <c r="M29">
+        <v>6.57292815001389</v>
+      </c>
+      <c r="N29">
+        <v>-0.0009907281498948784</v>
+      </c>
+      <c r="O29">
+        <v>12.76828590584813</v>
+      </c>
+      <c r="P29">
+        <v>7.559540514608269</v>
+      </c>
+      <c r="Q29">
+        <v>6.386105025418386</v>
+      </c>
+      <c r="R29">
+        <v>5.039363433688881</v>
+      </c>
+      <c r="S29">
+        <v>5.041001724735059</v>
+      </c>
+      <c r="T29">
+        <v>5.039363433688881</v>
+      </c>
+      <c r="U29">
+        <v>3.78050361151382</v>
+      </c>
+      <c r="V29">
+        <v>3.024204743581077</v>
+      </c>
+      <c r="W29">
+        <v>3.587931135699558</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.1136545656568922</v>
+      </c>
+      <c r="D30">
+        <v>1.530871345837086</v>
+      </c>
+      <c r="E30">
+        <v>0.02152385635524921</v>
+      </c>
+      <c r="F30">
+        <v>1.530871345837086</v>
+      </c>
+      <c r="G30">
+        <v>3.005611083784684</v>
+      </c>
+      <c r="H30">
+        <v>0.4689904412764366</v>
+      </c>
+      <c r="I30">
+        <v>0.008063545060793324</v>
+      </c>
+      <c r="J30">
+        <v>0.02152385635505068</v>
+      </c>
+      <c r="K30">
+        <v>0.02152385635505068</v>
+      </c>
+      <c r="L30">
+        <v>1.437487245333766</v>
+      </c>
+      <c r="M30">
+        <v>0.8334041880496774</v>
+      </c>
+      <c r="N30">
+        <v>0.02152385635505068</v>
+      </c>
+      <c r="O30">
+        <v>0.1136545656568922</v>
+      </c>
+      <c r="P30">
+        <v>0.822262955746989</v>
+      </c>
+      <c r="Q30">
+        <v>0.7755709054953293</v>
+      </c>
+      <c r="R30">
+        <v>0.5553499226163429</v>
+      </c>
+      <c r="S30">
+        <v>1.027337718942581</v>
+      </c>
+      <c r="T30">
+        <v>0.5553499226163429</v>
+      </c>
+      <c r="U30">
+        <v>0.7758842532956988</v>
+      </c>
+      <c r="V30">
+        <v>0.6250121739075691</v>
+      </c>
+      <c r="W30">
+        <v>0.9274507839192982</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>-0.005559456457380687</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>3.448445376577031</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.002273423716787129</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>3.448445376577031</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.1053340076677965</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.7487796103433382</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.003067211326528812</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.002273423716787129</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.002273423716787129</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.000300502069913926</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>0.001766405706647251</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>0.002273423716787129</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>-0.005559456457380687</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.721442960059825</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>-0.002629477193733381</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.148386447945479</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.147728807396521</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.148386447945479</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>0.8613649614765878</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>0.6895466539246277</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>0.5380508851188327</v>
       </c>
     </row>
